--- a/BackTest/2020-01-24 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-24 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M257"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>983</v>
       </c>
       <c r="F2" t="n">
-        <v>2135</v>
+        <v>2110</v>
       </c>
       <c r="G2" t="n">
-        <v>980.8883333333332</v>
+        <v>980.8383333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>983</v>
       </c>
       <c r="F3" t="n">
-        <v>2390</v>
+        <v>2135</v>
       </c>
       <c r="G3" t="n">
-        <v>980.9383333333333</v>
+        <v>980.8883333333332</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>983</v>
       </c>
       <c r="C4" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="D4" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="E4" t="n">
         <v>983</v>
       </c>
       <c r="F4" t="n">
-        <v>3150.5406</v>
+        <v>2390</v>
       </c>
       <c r="G4" t="n">
-        <v>981.1049999999999</v>
+        <v>980.9383333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>987.1</v>
+        <v>983</v>
       </c>
       <c r="C5" t="n">
-        <v>987.1</v>
+        <v>990</v>
       </c>
       <c r="D5" t="n">
-        <v>987.1</v>
+        <v>990</v>
       </c>
       <c r="E5" t="n">
-        <v>987.1</v>
+        <v>983</v>
       </c>
       <c r="F5" t="n">
-        <v>13.9069</v>
+        <v>3150.5406</v>
       </c>
       <c r="G5" t="n">
-        <v>981.2233333333332</v>
+        <v>981.1049999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>990</v>
+        <v>987.1</v>
       </c>
       <c r="C6" t="n">
-        <v>992.9</v>
+        <v>987.1</v>
       </c>
       <c r="D6" t="n">
-        <v>992.9</v>
+        <v>987.1</v>
       </c>
       <c r="E6" t="n">
-        <v>990</v>
+        <v>987.1</v>
       </c>
       <c r="F6" t="n">
-        <v>880</v>
+        <v>13.9069</v>
       </c>
       <c r="G6" t="n">
-        <v>981.4383333333333</v>
+        <v>981.2233333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>992.9</v>
+        <v>990</v>
       </c>
       <c r="C7" t="n">
         <v>992.9</v>
@@ -617,13 +617,13 @@
         <v>992.9</v>
       </c>
       <c r="E7" t="n">
-        <v>992.9</v>
+        <v>990</v>
       </c>
       <c r="F7" t="n">
-        <v>337.9885</v>
+        <v>880</v>
       </c>
       <c r="G7" t="n">
-        <v>981.6533333333333</v>
+        <v>981.4383333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>994</v>
+        <v>992.9</v>
       </c>
       <c r="C8" t="n">
-        <v>1000</v>
+        <v>992.9</v>
       </c>
       <c r="D8" t="n">
-        <v>1000</v>
+        <v>992.9</v>
       </c>
       <c r="E8" t="n">
-        <v>994</v>
+        <v>992.9</v>
       </c>
       <c r="F8" t="n">
-        <v>3.2871</v>
+        <v>337.9885</v>
       </c>
       <c r="G8" t="n">
-        <v>981.9866666666666</v>
+        <v>981.6533333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C9" t="n">
         <v>1000</v>
@@ -687,13 +687,13 @@
         <v>1000</v>
       </c>
       <c r="E9" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F9" t="n">
-        <v>510.5478</v>
+        <v>3.2871</v>
       </c>
       <c r="G9" t="n">
-        <v>982.3033333333333</v>
+        <v>981.9866666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>1000</v>
       </c>
       <c r="F10" t="n">
-        <v>1149.9159</v>
+        <v>510.5478</v>
       </c>
       <c r="G10" t="n">
-        <v>982.62</v>
+        <v>982.3033333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,28 +748,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>995.2</v>
+        <v>1000</v>
       </c>
       <c r="C11" t="n">
-        <v>995.2</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="n">
-        <v>995.2</v>
+        <v>1000</v>
       </c>
       <c r="E11" t="n">
-        <v>995.2</v>
+        <v>1000</v>
       </c>
       <c r="F11" t="n">
-        <v>12.6256</v>
+        <v>1149.9159</v>
       </c>
       <c r="G11" t="n">
-        <v>982.8566666666666</v>
+        <v>982.62</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -783,28 +783,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>994.1</v>
+        <v>995.2</v>
       </c>
       <c r="C12" t="n">
-        <v>994.1</v>
+        <v>995.2</v>
       </c>
       <c r="D12" t="n">
-        <v>994.1</v>
+        <v>995.2</v>
       </c>
       <c r="E12" t="n">
-        <v>994.1</v>
+        <v>995.2</v>
       </c>
       <c r="F12" t="n">
-        <v>208.3106</v>
+        <v>12.6256</v>
       </c>
       <c r="G12" t="n">
-        <v>983.0749999999999</v>
+        <v>982.8566666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -818,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1000</v>
+        <v>994.1</v>
       </c>
       <c r="C13" t="n">
-        <v>1000</v>
+        <v>994.1</v>
       </c>
       <c r="D13" t="n">
-        <v>1000</v>
+        <v>994.1</v>
       </c>
       <c r="E13" t="n">
-        <v>1000</v>
+        <v>994.1</v>
       </c>
       <c r="F13" t="n">
-        <v>76.7822</v>
+        <v>208.3106</v>
       </c>
       <c r="G13" t="n">
-        <v>983.3916666666665</v>
+        <v>983.0749999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -865,16 +865,16 @@
         <v>1000</v>
       </c>
       <c r="F14" t="n">
-        <v>205</v>
+        <v>76.7822</v>
       </c>
       <c r="G14" t="n">
-        <v>983.7083333333333</v>
+        <v>983.3916666666665</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -900,16 +900,16 @@
         <v>1000</v>
       </c>
       <c r="F15" t="n">
-        <v>45.1035</v>
+        <v>205</v>
       </c>
       <c r="G15" t="n">
-        <v>983.9916666666666</v>
+        <v>983.7083333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>996.6</v>
+        <v>1000</v>
       </c>
       <c r="C16" t="n">
-        <v>996.6</v>
+        <v>1000</v>
       </c>
       <c r="D16" t="n">
-        <v>996.6</v>
+        <v>1000</v>
       </c>
       <c r="E16" t="n">
-        <v>996.6</v>
+        <v>1000</v>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>45.1035</v>
       </c>
       <c r="G16" t="n">
-        <v>984.2183333333331</v>
+        <v>983.9916666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,28 +958,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>996.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>996.6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>996.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>996.6</v>
+      </c>
+      <c r="F17" t="n">
         <v>1000</v>
       </c>
-      <c r="C17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>230.7792</v>
-      </c>
       <c r="G17" t="n">
-        <v>984.5966666666665</v>
+        <v>984.2183333333331</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C18" t="n">
         <v>1000</v>
@@ -1002,13 +1002,13 @@
         <v>1000</v>
       </c>
       <c r="E18" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F18" t="n">
-        <v>36.9375</v>
+        <v>230.7792</v>
       </c>
       <c r="G18" t="n">
-        <v>984.9633333333331</v>
+        <v>984.5966666666665</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C19" t="n">
         <v>1000</v>
@@ -1037,13 +1037,13 @@
         <v>1000</v>
       </c>
       <c r="E19" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F19" t="n">
-        <v>305</v>
+        <v>36.9375</v>
       </c>
       <c r="G19" t="n">
-        <v>985.3466666666665</v>
+        <v>984.9633333333331</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C20" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D20" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E20" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F20" t="n">
-        <v>565</v>
+        <v>305</v>
       </c>
       <c r="G20" t="n">
-        <v>985.6966666666665</v>
+        <v>985.3466666666665</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C21" t="n">
         <v>1003</v>
@@ -1107,13 +1107,13 @@
         <v>1003</v>
       </c>
       <c r="E21" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F21" t="n">
-        <v>945</v>
+        <v>565</v>
       </c>
       <c r="G21" t="n">
-        <v>986.0466666666665</v>
+        <v>985.6966666666665</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>1003</v>
       </c>
       <c r="F22" t="n">
-        <v>1745</v>
+        <v>945</v>
       </c>
       <c r="G22" t="n">
-        <v>986.4466666666665</v>
+        <v>986.0466666666665</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>1003</v>
       </c>
       <c r="F23" t="n">
-        <v>1033.555</v>
+        <v>1745</v>
       </c>
       <c r="G23" t="n">
-        <v>986.8466666666665</v>
+        <v>986.4466666666665</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>1003</v>
       </c>
       <c r="F24" t="n">
-        <v>405</v>
+        <v>1033.555</v>
       </c>
       <c r="G24" t="n">
-        <v>987.2299999999998</v>
+        <v>986.8466666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>1003</v>
       </c>
       <c r="F25" t="n">
-        <v>1075</v>
+        <v>405</v>
       </c>
       <c r="G25" t="n">
-        <v>987.6133333333331</v>
+        <v>987.2299999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>1003</v>
       </c>
       <c r="F26" t="n">
-        <v>980</v>
+        <v>1075</v>
       </c>
       <c r="G26" t="n">
-        <v>987.9966666666664</v>
+        <v>987.6133333333331</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>1003</v>
       </c>
       <c r="F27" t="n">
-        <v>1262.9188</v>
+        <v>980</v>
       </c>
       <c r="G27" t="n">
-        <v>988.3799999999998</v>
+        <v>987.9966666666664</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>1003</v>
       </c>
       <c r="F28" t="n">
-        <v>735</v>
+        <v>1262.9188</v>
       </c>
       <c r="G28" t="n">
-        <v>988.7633333333331</v>
+        <v>988.3799999999998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>1003</v>
       </c>
       <c r="F29" t="n">
-        <v>1170</v>
+        <v>735</v>
       </c>
       <c r="G29" t="n">
-        <v>989.1466666666664</v>
+        <v>988.7633333333331</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>1003</v>
       </c>
       <c r="F30" t="n">
-        <v>83.6357</v>
+        <v>1170</v>
       </c>
       <c r="G30" t="n">
-        <v>989.5299999999999</v>
+        <v>989.1466666666664</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>1003</v>
       </c>
       <c r="F31" t="n">
-        <v>302.0098</v>
+        <v>83.6357</v>
       </c>
       <c r="G31" t="n">
-        <v>989.9133333333332</v>
+        <v>989.5299999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>1003</v>
       </c>
       <c r="F32" t="n">
-        <v>2094.9879</v>
+        <v>302.0098</v>
       </c>
       <c r="G32" t="n">
-        <v>990.2966666666665</v>
+        <v>989.9133333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>1003</v>
       </c>
       <c r="F33" t="n">
-        <v>734.0202</v>
+        <v>2094.9879</v>
       </c>
       <c r="G33" t="n">
-        <v>990.6799999999998</v>
+        <v>990.2966666666665</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>1003</v>
       </c>
       <c r="F34" t="n">
-        <v>1704.5054</v>
+        <v>734.0202</v>
       </c>
       <c r="G34" t="n">
-        <v>991.0799999999998</v>
+        <v>990.6799999999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>1003</v>
       </c>
       <c r="F35" t="n">
-        <v>980</v>
+        <v>1704.5054</v>
       </c>
       <c r="G35" t="n">
-        <v>991.4633333333331</v>
+        <v>991.0799999999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>1003</v>
       </c>
       <c r="F36" t="n">
-        <v>1352.4826</v>
+        <v>980</v>
       </c>
       <c r="G36" t="n">
-        <v>991.8466666666665</v>
+        <v>991.4633333333331</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>1003</v>
       </c>
       <c r="F37" t="n">
-        <v>1086.755</v>
+        <v>1352.4826</v>
       </c>
       <c r="G37" t="n">
-        <v>992.2299999999998</v>
+        <v>991.8466666666665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C38" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D38" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E38" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F38" t="n">
-        <v>214.4643</v>
+        <v>1086.755</v>
       </c>
       <c r="G38" t="n">
-        <v>992.6466666666664</v>
+        <v>992.2299999999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C39" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D39" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E39" t="n">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F39" t="n">
-        <v>840</v>
+        <v>214.4643</v>
       </c>
       <c r="G39" t="n">
-        <v>993.0966666666665</v>
+        <v>992.6466666666664</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C40" t="n">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D40" t="n">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E40" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F40" t="n">
-        <v>215</v>
+        <v>840</v>
       </c>
       <c r="G40" t="n">
-        <v>993.5633333333332</v>
+        <v>993.0966666666665</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>1008</v>
       </c>
       <c r="F41" t="n">
-        <v>1.063</v>
+        <v>215</v>
       </c>
       <c r="G41" t="n">
-        <v>994.0299999999999</v>
+        <v>993.5633333333332</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>1008</v>
       </c>
       <c r="C42" t="n">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D42" t="n">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="E42" t="n">
         <v>1008</v>
       </c>
       <c r="F42" t="n">
-        <v>8888.922</v>
+        <v>1.063</v>
       </c>
       <c r="G42" t="n">
-        <v>994.5966666666665</v>
+        <v>994.0299999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C43" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D43" t="n">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="E43" t="n">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F43" t="n">
-        <v>52.9213</v>
+        <v>8888.922</v>
       </c>
       <c r="G43" t="n">
-        <v>995.0799999999998</v>
+        <v>994.5966666666665</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C44" t="n">
         <v>1009</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1010</v>
       </c>
       <c r="D44" t="n">
         <v>1010</v>
@@ -1915,10 +1915,10 @@
         <v>1009</v>
       </c>
       <c r="F44" t="n">
-        <v>15.9632</v>
+        <v>52.9213</v>
       </c>
       <c r="G44" t="n">
-        <v>995.5799999999998</v>
+        <v>995.0799999999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C45" t="n">
         <v>1010</v>
@@ -1947,13 +1947,13 @@
         <v>1010</v>
       </c>
       <c r="E45" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F45" t="n">
-        <v>5.3197</v>
+        <v>15.9632</v>
       </c>
       <c r="G45" t="n">
-        <v>996.0799999999998</v>
+        <v>995.5799999999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C46" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D46" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E46" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F46" t="n">
-        <v>1436.0931</v>
+        <v>5.3197</v>
       </c>
       <c r="G46" t="n">
-        <v>996.6133333333331</v>
+        <v>996.0799999999998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C47" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D47" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E47" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F47" t="n">
-        <v>1272.35</v>
+        <v>1436.0931</v>
       </c>
       <c r="G47" t="n">
-        <v>997.0966666666665</v>
+        <v>996.6133333333331</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C48" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D48" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E48" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F48" t="n">
-        <v>1230.3142</v>
+        <v>1272.35</v>
       </c>
       <c r="G48" t="n">
-        <v>997.5799999999998</v>
+        <v>997.0966666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>1012</v>
       </c>
       <c r="C49" t="n">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D49" t="n">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E49" t="n">
         <v>1012</v>
       </c>
       <c r="F49" t="n">
-        <v>3890.7458</v>
+        <v>1230.3142</v>
       </c>
       <c r="G49" t="n">
-        <v>998.0966666666665</v>
+        <v>997.5799999999998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C50" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D50" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E50" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F50" t="n">
-        <v>1323.7709</v>
+        <v>3890.7458</v>
       </c>
       <c r="G50" t="n">
-        <v>998.6466666666664</v>
+        <v>998.0966666666665</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C51" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D51" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E51" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F51" t="n">
-        <v>2317.4607</v>
+        <v>1323.7709</v>
       </c>
       <c r="G51" t="n">
-        <v>999.2633333333331</v>
+        <v>998.6466666666664</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="C52" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D52" t="n">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E52" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F52" t="n">
-        <v>3170.29812385</v>
+        <v>2317.4607</v>
       </c>
       <c r="G52" t="n">
-        <v>999.8633333333331</v>
+        <v>999.2633333333331</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C53" t="n">
         <v>1019</v>
       </c>
-      <c r="C53" t="n">
-        <v>1018</v>
-      </c>
       <c r="D53" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E53" t="n">
         <v>1019</v>
       </c>
-      <c r="E53" t="n">
-        <v>1018</v>
-      </c>
       <c r="F53" t="n">
-        <v>560.6651000000001</v>
+        <v>3170.29812385</v>
       </c>
       <c r="G53" t="n">
-        <v>1000.446666666666</v>
+        <v>999.8633333333331</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,28 +2253,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C54" t="n">
         <v>1018</v>
       </c>
       <c r="D54" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E54" t="n">
         <v>1018</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0001</v>
+        <v>560.6651000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>1001.03</v>
+        <v>1000.446666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="C55" t="n">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="D55" t="n">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="E55" t="n">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="F55" t="n">
-        <v>110</v>
+        <v>0.0001</v>
       </c>
       <c r="G55" t="n">
-        <v>1001.43</v>
+        <v>1001.03</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="C56" t="n">
         <v>1007</v>
       </c>
       <c r="D56" t="n">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="E56" t="n">
         <v>1007</v>
       </c>
       <c r="F56" t="n">
-        <v>127.0772</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
-        <v>1001.83</v>
+        <v>1001.43</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="C57" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="D57" t="n">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="E57" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="F57" t="n">
-        <v>99</v>
+        <v>127.0772</v>
       </c>
       <c r="G57" t="n">
-        <v>1002.363333333333</v>
+        <v>1001.83</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C58" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D58" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E58" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F58" t="n">
-        <v>9.826700000000001</v>
+        <v>99</v>
       </c>
       <c r="G58" t="n">
-        <v>1002.88</v>
+        <v>1002.363333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C59" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D59" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E59" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F59" t="n">
-        <v>55.0298</v>
+        <v>9.826700000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>1003.43</v>
+        <v>1002.88</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C60" t="n">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="D60" t="n">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E60" t="n">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="F60" t="n">
-        <v>4183.4472</v>
+        <v>55.0298</v>
       </c>
       <c r="G60" t="n">
-        <v>1003.83</v>
+        <v>1003.43</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C61" t="n">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D61" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E61" t="n">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F61" t="n">
-        <v>45.0577</v>
+        <v>4183.4472</v>
       </c>
       <c r="G61" t="n">
-        <v>1004.33</v>
+        <v>1003.83</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>1013</v>
       </c>
       <c r="F62" t="n">
-        <v>1.7407</v>
+        <v>45.0577</v>
       </c>
       <c r="G62" t="n">
-        <v>1004.83</v>
+        <v>1004.33</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C63" t="n">
         <v>1013</v>
@@ -2577,13 +2577,13 @@
         <v>1013</v>
       </c>
       <c r="E63" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="F63" t="n">
-        <v>501.2606</v>
+        <v>1.7407</v>
       </c>
       <c r="G63" t="n">
-        <v>1005.33</v>
+        <v>1004.83</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C64" t="n">
         <v>1013</v>
@@ -2612,13 +2612,13 @@
         <v>1013</v>
       </c>
       <c r="E64" t="n">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="F64" t="n">
-        <v>268.7537</v>
+        <v>501.2606</v>
       </c>
       <c r="G64" t="n">
-        <v>1005.713333333333</v>
+        <v>1005.33</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C65" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D65" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E65" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F65" t="n">
-        <v>68.6104</v>
+        <v>268.7537</v>
       </c>
       <c r="G65" t="n">
-        <v>1006.178333333333</v>
+        <v>1005.713333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>1014</v>
       </c>
       <c r="C66" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D66" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E66" t="n">
         <v>1014</v>
       </c>
       <c r="F66" t="n">
-        <v>4309.3896</v>
+        <v>68.6104</v>
       </c>
       <c r="G66" t="n">
-        <v>1006.563333333333</v>
+        <v>1006.178333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C67" t="n">
         <v>1016</v>
@@ -2717,13 +2717,13 @@
         <v>1016</v>
       </c>
       <c r="E67" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F67" t="n">
-        <v>1162.7402</v>
+        <v>4309.3896</v>
       </c>
       <c r="G67" t="n">
-        <v>1006.948333333333</v>
+        <v>1006.563333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C68" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D68" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E68" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F68" t="n">
-        <v>5.5719</v>
+        <v>1162.7402</v>
       </c>
       <c r="G68" t="n">
-        <v>1007.231666666666</v>
+        <v>1006.948333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="C69" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="D69" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="E69" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>5.5719</v>
       </c>
       <c r="G69" t="n">
-        <v>1007.431666666667</v>
+        <v>1007.231666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C70" t="n">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D70" t="n">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E70" t="n">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="F70" t="n">
-        <v>215.1747</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>1007.731666666666</v>
+        <v>1007.431666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C71" t="n">
         <v>1018</v>
@@ -2857,13 +2857,13 @@
         <v>1018</v>
       </c>
       <c r="E71" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F71" t="n">
-        <v>498.3158</v>
+        <v>215.1747</v>
       </c>
       <c r="G71" t="n">
-        <v>1008.111666666666</v>
+        <v>1007.731666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2886,19 @@
         <v>1018</v>
       </c>
       <c r="C72" t="n">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D72" t="n">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E72" t="n">
         <v>1018</v>
       </c>
       <c r="F72" t="n">
-        <v>4675.3486</v>
+        <v>498.3158</v>
       </c>
       <c r="G72" t="n">
-        <v>1008.543333333333</v>
+        <v>1008.111666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C73" t="n">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="D73" t="n">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="E73" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="F73" t="n">
-        <v>1.2897</v>
+        <v>4675.3486</v>
       </c>
       <c r="G73" t="n">
-        <v>1008.793333333333</v>
+        <v>1008.543333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="C74" t="n">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D74" t="n">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="E74" t="n">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F74" t="n">
-        <v>96</v>
+        <v>1.2897</v>
       </c>
       <c r="G74" t="n">
-        <v>1009.143333333333</v>
+        <v>1008.793333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="C75" t="n">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="D75" t="n">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="E75" t="n">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="F75" t="n">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="G75" t="n">
-        <v>1009.31</v>
+        <v>1009.143333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>1010</v>
       </c>
       <c r="C76" t="n">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D76" t="n">
         <v>1010</v>
       </c>
       <c r="E76" t="n">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F76" t="n">
-        <v>56.1</v>
+        <v>22</v>
       </c>
       <c r="G76" t="n">
-        <v>1009.5</v>
+        <v>1009.31</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C77" t="n">
         <v>1008</v>
       </c>
       <c r="D77" t="n">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E77" t="n">
         <v>1008</v>
       </c>
       <c r="F77" t="n">
-        <v>93.3122</v>
+        <v>56.1</v>
       </c>
       <c r="G77" t="n">
-        <v>1009.633333333333</v>
+        <v>1009.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>1008</v>
       </c>
       <c r="C78" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D78" t="n">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E78" t="n">
         <v>1008</v>
       </c>
       <c r="F78" t="n">
-        <v>2183.8227</v>
+        <v>93.3122</v>
       </c>
       <c r="G78" t="n">
-        <v>1009.8</v>
+        <v>1009.633333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C79" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D79" t="n">
         <v>1011</v>
       </c>
       <c r="E79" t="n">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>2183.8227</v>
       </c>
       <c r="G79" t="n">
-        <v>1009.983333333333</v>
+        <v>1009.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="C80" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="D80" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="E80" t="n">
-        <v>997.1</v>
+        <v>1011</v>
       </c>
       <c r="F80" t="n">
-        <v>726.4439</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>1010.033333333333</v>
+        <v>1009.983333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,19 +3198,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C81" t="n">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D81" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E81" t="n">
-        <v>1003</v>
+        <v>997.1</v>
       </c>
       <c r="F81" t="n">
-        <v>351.8095</v>
+        <v>726.4439</v>
       </c>
       <c r="G81" t="n">
         <v>1010.033333333333</v>
@@ -3233,19 +3233,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C82" t="n">
         <v>1003</v>
       </c>
       <c r="D82" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E82" t="n">
         <v>1003</v>
       </c>
       <c r="F82" t="n">
-        <v>1077.6575</v>
+        <v>351.8095</v>
       </c>
       <c r="G82" t="n">
         <v>1010.033333333333</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C83" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D83" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E83" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>1077.6575</v>
       </c>
       <c r="G83" t="n">
-        <v>1010.066666666666</v>
+        <v>1010.033333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>999.1</v>
+        <v>1005</v>
       </c>
       <c r="C84" t="n">
-        <v>999.1</v>
+        <v>1005</v>
       </c>
       <c r="D84" t="n">
-        <v>999.1</v>
+        <v>1005</v>
       </c>
       <c r="E84" t="n">
-        <v>999.1</v>
+        <v>1005</v>
       </c>
       <c r="F84" t="n">
-        <v>142.3317</v>
+        <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>1010.001666666667</v>
+        <v>1010.066666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>998.1</v>
+        <v>999.1</v>
       </c>
       <c r="C85" t="n">
-        <v>998.1</v>
+        <v>999.1</v>
       </c>
       <c r="D85" t="n">
-        <v>998.1</v>
+        <v>999.1</v>
       </c>
       <c r="E85" t="n">
-        <v>998.1</v>
+        <v>999.1</v>
       </c>
       <c r="F85" t="n">
-        <v>183.9092</v>
+        <v>142.3317</v>
       </c>
       <c r="G85" t="n">
-        <v>1009.92</v>
+        <v>1010.001666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>998</v>
+        <v>998.1</v>
       </c>
       <c r="C86" t="n">
-        <v>998</v>
+        <v>998.1</v>
       </c>
       <c r="D86" t="n">
-        <v>998</v>
+        <v>998.1</v>
       </c>
       <c r="E86" t="n">
-        <v>998</v>
+        <v>998.1</v>
       </c>
       <c r="F86" t="n">
-        <v>21.0338</v>
+        <v>183.9092</v>
       </c>
       <c r="G86" t="n">
-        <v>1009.836666666666</v>
+        <v>1009.92</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3411,19 @@
         <v>998</v>
       </c>
       <c r="C87" t="n">
-        <v>990.8</v>
+        <v>998</v>
       </c>
       <c r="D87" t="n">
         <v>998</v>
       </c>
       <c r="E87" t="n">
-        <v>990.8</v>
+        <v>998</v>
       </c>
       <c r="F87" t="n">
-        <v>10602.7139</v>
+        <v>21.0338</v>
       </c>
       <c r="G87" t="n">
-        <v>1009.633333333333</v>
+        <v>1009.836666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>996.1</v>
+        <v>998</v>
       </c>
       <c r="C88" t="n">
-        <v>994.2</v>
+        <v>990.8</v>
       </c>
       <c r="D88" t="n">
-        <v>996.1</v>
+        <v>998</v>
       </c>
       <c r="E88" t="n">
-        <v>994.2</v>
+        <v>990.8</v>
       </c>
       <c r="F88" t="n">
-        <v>3838.8505</v>
+        <v>10602.7139</v>
       </c>
       <c r="G88" t="n">
-        <v>1009.486666666666</v>
+        <v>1009.633333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>993.1</v>
+        <v>996.1</v>
       </c>
       <c r="C89" t="n">
-        <v>993</v>
+        <v>994.2</v>
       </c>
       <c r="D89" t="n">
-        <v>993.1</v>
+        <v>996.1</v>
       </c>
       <c r="E89" t="n">
-        <v>993</v>
+        <v>994.2</v>
       </c>
       <c r="F89" t="n">
-        <v>360.1056</v>
+        <v>3838.8505</v>
       </c>
       <c r="G89" t="n">
-        <v>1009.32</v>
+        <v>1009.486666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>993</v>
+        <v>993.1</v>
       </c>
       <c r="C90" t="n">
         <v>993</v>
       </c>
       <c r="D90" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="E90" t="n">
         <v>993</v>
       </c>
-      <c r="E90" t="n">
-        <v>992</v>
-      </c>
       <c r="F90" t="n">
-        <v>3549.396</v>
+        <v>360.1056</v>
       </c>
       <c r="G90" t="n">
-        <v>1009.153333333333</v>
+        <v>1009.32</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>998.9</v>
+        <v>993</v>
       </c>
       <c r="C91" t="n">
-        <v>998.9</v>
+        <v>993</v>
       </c>
       <c r="D91" t="n">
-        <v>998.9</v>
+        <v>993</v>
       </c>
       <c r="E91" t="n">
-        <v>998.9</v>
+        <v>992</v>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>3549.396</v>
       </c>
       <c r="G91" t="n">
-        <v>1009.085</v>
+        <v>1009.153333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>997</v>
+        <v>998.9</v>
       </c>
       <c r="C92" t="n">
-        <v>997</v>
+        <v>998.9</v>
       </c>
       <c r="D92" t="n">
-        <v>997</v>
+        <v>998.9</v>
       </c>
       <c r="E92" t="n">
-        <v>997</v>
+        <v>998.9</v>
       </c>
       <c r="F92" t="n">
-        <v>441.996</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="n">
-        <v>1008.985</v>
+        <v>1009.085</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>997.9</v>
+        <v>997</v>
       </c>
       <c r="C93" t="n">
-        <v>997.9</v>
+        <v>997</v>
       </c>
       <c r="D93" t="n">
-        <v>997.9</v>
+        <v>997</v>
       </c>
       <c r="E93" t="n">
-        <v>997.9</v>
+        <v>997</v>
       </c>
       <c r="F93" t="n">
-        <v>56.7</v>
+        <v>441.996</v>
       </c>
       <c r="G93" t="n">
-        <v>1008.9</v>
+        <v>1008.985</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>996.9</v>
+        <v>997.9</v>
       </c>
       <c r="C94" t="n">
-        <v>997.8</v>
+        <v>997.9</v>
       </c>
       <c r="D94" t="n">
-        <v>997.8</v>
+        <v>997.9</v>
       </c>
       <c r="E94" t="n">
-        <v>996.8</v>
+        <v>997.9</v>
       </c>
       <c r="F94" t="n">
-        <v>1313.5</v>
+        <v>56.7</v>
       </c>
       <c r="G94" t="n">
-        <v>1008.813333333333</v>
+        <v>1008.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>997.8</v>
+        <v>996.9</v>
       </c>
       <c r="C95" t="n">
         <v>997.8</v>
@@ -3697,13 +3697,13 @@
         <v>997.8</v>
       </c>
       <c r="E95" t="n">
-        <v>997.8</v>
+        <v>996.8</v>
       </c>
       <c r="F95" t="n">
-        <v>894.8468</v>
+        <v>1313.5</v>
       </c>
       <c r="G95" t="n">
-        <v>1008.726666666667</v>
+        <v>1008.813333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>997.8</v>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>894.8468</v>
       </c>
       <c r="G96" t="n">
-        <v>1008.64</v>
+        <v>1008.726666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>997.8</v>
       </c>
       <c r="C97" t="n">
-        <v>998.7</v>
+        <v>997.8</v>
       </c>
       <c r="D97" t="n">
-        <v>998.7</v>
+        <v>997.8</v>
       </c>
       <c r="E97" t="n">
         <v>997.8</v>
       </c>
       <c r="F97" t="n">
-        <v>1779.4222</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>1008.568333333333</v>
+        <v>1008.64</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>997.8</v>
+      </c>
+      <c r="C98" t="n">
         <v>998.7</v>
       </c>
-      <c r="C98" t="n">
-        <v>998.8</v>
-      </c>
       <c r="D98" t="n">
-        <v>998.8</v>
+        <v>998.7</v>
       </c>
       <c r="E98" t="n">
-        <v>998.7</v>
+        <v>997.8</v>
       </c>
       <c r="F98" t="n">
-        <v>1863.4218</v>
+        <v>1779.4222</v>
       </c>
       <c r="G98" t="n">
-        <v>1008.465</v>
+        <v>1008.568333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>998.7</v>
+      </c>
+      <c r="C99" t="n">
         <v>998.8</v>
       </c>
-      <c r="C99" t="n">
-        <v>998.9</v>
-      </c>
       <c r="D99" t="n">
-        <v>998.9</v>
+        <v>998.8</v>
       </c>
       <c r="E99" t="n">
-        <v>998.8</v>
+        <v>998.7</v>
       </c>
       <c r="F99" t="n">
-        <v>1364</v>
+        <v>1863.4218</v>
       </c>
       <c r="G99" t="n">
-        <v>1008.33</v>
+        <v>1008.465</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>997.8</v>
+        <v>998.8</v>
       </c>
       <c r="C100" t="n">
-        <v>996</v>
+        <v>998.9</v>
       </c>
       <c r="D100" t="n">
-        <v>997.8</v>
+        <v>998.9</v>
       </c>
       <c r="E100" t="n">
-        <v>996</v>
+        <v>998.8</v>
       </c>
       <c r="F100" t="n">
-        <v>1696.7652</v>
+        <v>1364</v>
       </c>
       <c r="G100" t="n">
-        <v>1008.13</v>
+        <v>1008.33</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>993</v>
+        <v>997.8</v>
       </c>
       <c r="C101" t="n">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="D101" t="n">
-        <v>993</v>
+        <v>997.8</v>
       </c>
       <c r="E101" t="n">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="F101" t="n">
-        <v>85.3399</v>
+        <v>1696.7652</v>
       </c>
       <c r="G101" t="n">
-        <v>1007.863333333333</v>
+        <v>1008.13</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>991.1</v>
+        <v>993</v>
       </c>
       <c r="C102" t="n">
-        <v>991.1</v>
+        <v>992</v>
       </c>
       <c r="D102" t="n">
-        <v>991.1</v>
+        <v>993</v>
       </c>
       <c r="E102" t="n">
-        <v>991.1</v>
+        <v>992</v>
       </c>
       <c r="F102" t="n">
-        <v>56.7</v>
+        <v>85.3399</v>
       </c>
       <c r="G102" t="n">
-        <v>1007.481666666667</v>
+        <v>1007.863333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>990.1</v>
+        <v>991.1</v>
       </c>
       <c r="C103" t="n">
-        <v>990.1</v>
+        <v>991.1</v>
       </c>
       <c r="D103" t="n">
-        <v>990.1</v>
+        <v>991.1</v>
       </c>
       <c r="E103" t="n">
-        <v>990.1</v>
+        <v>991.1</v>
       </c>
       <c r="F103" t="n">
-        <v>812.2501999999999</v>
+        <v>56.7</v>
       </c>
       <c r="G103" t="n">
-        <v>1007.166666666667</v>
+        <v>1007.481666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4006,19 @@
         <v>990.1</v>
       </c>
       <c r="C104" t="n">
-        <v>987.9</v>
+        <v>990.1</v>
       </c>
       <c r="D104" t="n">
         <v>990.1</v>
       </c>
       <c r="E104" t="n">
-        <v>987.9</v>
+        <v>990.1</v>
       </c>
       <c r="F104" t="n">
-        <v>159.2685</v>
+        <v>812.2501999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>1006.798333333333</v>
+        <v>1007.166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>988.6</v>
+        <v>990.1</v>
       </c>
       <c r="C105" t="n">
-        <v>988.7</v>
+        <v>987.9</v>
       </c>
       <c r="D105" t="n">
-        <v>988.7</v>
+        <v>990.1</v>
       </c>
       <c r="E105" t="n">
-        <v>988.6</v>
+        <v>987.9</v>
       </c>
       <c r="F105" t="n">
-        <v>183.8945</v>
+        <v>159.2685</v>
       </c>
       <c r="G105" t="n">
-        <v>1006.443333333333</v>
+        <v>1006.798333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>988.2</v>
+        <v>988.6</v>
       </c>
       <c r="C106" t="n">
-        <v>988.2</v>
+        <v>988.7</v>
       </c>
       <c r="D106" t="n">
-        <v>988.2</v>
+        <v>988.7</v>
       </c>
       <c r="E106" t="n">
-        <v>988.2</v>
+        <v>988.6</v>
       </c>
       <c r="F106" t="n">
-        <v>573</v>
+        <v>183.8945</v>
       </c>
       <c r="G106" t="n">
-        <v>1006.03</v>
+        <v>1006.443333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>988.2</v>
       </c>
       <c r="F107" t="n">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G107" t="n">
-        <v>1005.65</v>
+        <v>1006.03</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>988.7</v>
+        <v>988.2</v>
       </c>
       <c r="C108" t="n">
-        <v>988.7</v>
+        <v>988.2</v>
       </c>
       <c r="D108" t="n">
-        <v>988.8</v>
+        <v>988.2</v>
       </c>
       <c r="E108" t="n">
-        <v>988.7</v>
+        <v>988.2</v>
       </c>
       <c r="F108" t="n">
-        <v>1010.4357</v>
+        <v>576</v>
       </c>
       <c r="G108" t="n">
-        <v>1005.261666666667</v>
+        <v>1005.65</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>989.1</v>
+        <v>988.7</v>
       </c>
       <c r="C109" t="n">
-        <v>989.1</v>
+        <v>988.7</v>
       </c>
       <c r="D109" t="n">
-        <v>989.1</v>
+        <v>988.8</v>
       </c>
       <c r="E109" t="n">
-        <v>989.1</v>
+        <v>988.7</v>
       </c>
       <c r="F109" t="n">
-        <v>1.407</v>
+        <v>1010.4357</v>
       </c>
       <c r="G109" t="n">
-        <v>1004.846666666666</v>
+        <v>1005.261666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>988.2</v>
+        <v>989.1</v>
       </c>
       <c r="C110" t="n">
-        <v>988.2</v>
+        <v>989.1</v>
       </c>
       <c r="D110" t="n">
-        <v>988.2</v>
+        <v>989.1</v>
       </c>
       <c r="E110" t="n">
-        <v>988.2</v>
+        <v>989.1</v>
       </c>
       <c r="F110" t="n">
-        <v>3090.9769</v>
+        <v>1.407</v>
       </c>
       <c r="G110" t="n">
-        <v>1004.383333333333</v>
+        <v>1004.846666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>988.2</v>
       </c>
       <c r="F111" t="n">
-        <v>2046.1826</v>
+        <v>3090.9769</v>
       </c>
       <c r="G111" t="n">
-        <v>1003.853333333333</v>
+        <v>1004.383333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>988.2</v>
       </c>
       <c r="F112" t="n">
-        <v>5967.17</v>
+        <v>2046.1826</v>
       </c>
       <c r="G112" t="n">
-        <v>1003.34</v>
+        <v>1003.853333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>987.9</v>
+        <v>988.2</v>
       </c>
       <c r="C113" t="n">
-        <v>987.9</v>
+        <v>988.2</v>
       </c>
       <c r="D113" t="n">
-        <v>987.9</v>
+        <v>988.2</v>
       </c>
       <c r="E113" t="n">
-        <v>987.9</v>
+        <v>988.2</v>
       </c>
       <c r="F113" t="n">
-        <v>8</v>
+        <v>5967.17</v>
       </c>
       <c r="G113" t="n">
-        <v>1002.838333333333</v>
+        <v>1003.34</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4356,19 @@
         <v>987.9</v>
       </c>
       <c r="C114" t="n">
-        <v>982</v>
+        <v>987.9</v>
       </c>
       <c r="D114" t="n">
         <v>987.9</v>
       </c>
       <c r="E114" t="n">
-        <v>982</v>
+        <v>987.9</v>
       </c>
       <c r="F114" t="n">
-        <v>537.9138</v>
+        <v>8</v>
       </c>
       <c r="G114" t="n">
-        <v>1002.238333333333</v>
+        <v>1002.838333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>980.2</v>
+        <v>987.9</v>
       </c>
       <c r="C115" t="n">
-        <v>980.1</v>
+        <v>982</v>
       </c>
       <c r="D115" t="n">
-        <v>980.2</v>
+        <v>987.9</v>
       </c>
       <c r="E115" t="n">
-        <v>980.1</v>
+        <v>982</v>
       </c>
       <c r="F115" t="n">
-        <v>416.2086</v>
+        <v>537.9138</v>
       </c>
       <c r="G115" t="n">
-        <v>1001.79</v>
+        <v>1002.238333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>980</v>
+        <v>980.2</v>
       </c>
       <c r="C116" t="n">
-        <v>980</v>
+        <v>980.1</v>
       </c>
       <c r="D116" t="n">
-        <v>980</v>
+        <v>980.2</v>
       </c>
       <c r="E116" t="n">
-        <v>980</v>
+        <v>980.1</v>
       </c>
       <c r="F116" t="n">
-        <v>102.9866</v>
+        <v>416.2086</v>
       </c>
       <c r="G116" t="n">
-        <v>1001.34</v>
+        <v>1001.79</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>980</v>
       </c>
       <c r="F117" t="n">
-        <v>311</v>
+        <v>102.9866</v>
       </c>
       <c r="G117" t="n">
-        <v>1000.756666666666</v>
+        <v>1001.34</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>980</v>
       </c>
       <c r="F118" t="n">
-        <v>555</v>
+        <v>311</v>
       </c>
       <c r="G118" t="n">
-        <v>1000.19</v>
+        <v>1000.756666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>980</v>
       </c>
       <c r="F119" t="n">
-        <v>360</v>
+        <v>555</v>
       </c>
       <c r="G119" t="n">
-        <v>999.5899999999997</v>
+        <v>1000.19</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>980</v>
       </c>
       <c r="F120" t="n">
-        <v>36</v>
+        <v>360</v>
       </c>
       <c r="G120" t="n">
-        <v>999.1399999999996</v>
+        <v>999.5899999999997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>980</v>
       </c>
       <c r="F121" t="n">
-        <v>159.5673</v>
+        <v>36</v>
       </c>
       <c r="G121" t="n">
-        <v>998.5899999999997</v>
+        <v>999.1399999999996</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>980</v>
       </c>
       <c r="F122" t="n">
-        <v>149.8949</v>
+        <v>159.5673</v>
       </c>
       <c r="G122" t="n">
-        <v>998.0399999999996</v>
+        <v>998.5899999999997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4680,10 @@
         <v>980</v>
       </c>
       <c r="F123" t="n">
-        <v>551.2807</v>
+        <v>149.8949</v>
       </c>
       <c r="G123" t="n">
-        <v>997.4899999999997</v>
+        <v>998.0399999999996</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4715,10 +4715,10 @@
         <v>980</v>
       </c>
       <c r="F124" t="n">
-        <v>48.7899</v>
+        <v>551.2807</v>
       </c>
       <c r="G124" t="n">
-        <v>996.9399999999997</v>
+        <v>997.4899999999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>980</v>
       </c>
       <c r="F125" t="n">
-        <v>180</v>
+        <v>48.7899</v>
       </c>
       <c r="G125" t="n">
-        <v>996.3566666666663</v>
+        <v>996.9399999999997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>980</v>
       </c>
       <c r="F126" t="n">
-        <v>149.8949</v>
+        <v>180</v>
       </c>
       <c r="G126" t="n">
-        <v>995.7566666666663</v>
+        <v>996.3566666666663</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>980.9</v>
+        <v>980</v>
       </c>
       <c r="C127" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D127" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E127" t="n">
-        <v>980.9</v>
+        <v>980</v>
       </c>
       <c r="F127" t="n">
-        <v>1209.7542</v>
+        <v>149.8949</v>
       </c>
       <c r="G127" t="n">
-        <v>995.223333333333</v>
+        <v>995.7566666666663</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>984.9</v>
+        <v>980.9</v>
       </c>
       <c r="C128" t="n">
-        <v>984.9</v>
+        <v>984</v>
       </c>
       <c r="D128" t="n">
-        <v>984.9</v>
+        <v>984</v>
       </c>
       <c r="E128" t="n">
-        <v>984.9</v>
+        <v>980.9</v>
       </c>
       <c r="F128" t="n">
-        <v>11</v>
+        <v>1209.7542</v>
       </c>
       <c r="G128" t="n">
-        <v>994.688333333333</v>
+        <v>995.223333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,35 +4878,31 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>985</v>
+        <v>984.9</v>
       </c>
       <c r="C129" t="n">
-        <v>985</v>
+        <v>984.9</v>
       </c>
       <c r="D129" t="n">
-        <v>985</v>
+        <v>984.9</v>
       </c>
       <c r="E129" t="n">
-        <v>985</v>
+        <v>984.9</v>
       </c>
       <c r="F129" t="n">
-        <v>1.25989847</v>
+        <v>11</v>
       </c>
       <c r="G129" t="n">
-        <v>994.238333333333</v>
+        <v>994.688333333333</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>984.9</v>
-      </c>
-      <c r="K129" t="n">
-        <v>984.9</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
@@ -4929,10 +4925,10 @@
         <v>985</v>
       </c>
       <c r="F130" t="n">
-        <v>31.4083</v>
+        <v>1.25989847</v>
       </c>
       <c r="G130" t="n">
-        <v>993.688333333333</v>
+        <v>994.238333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4941,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>984.9</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4958,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C131" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D131" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E131" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F131" t="n">
-        <v>454.6541</v>
+        <v>31.4083</v>
       </c>
       <c r="G131" t="n">
-        <v>993.1549999999996</v>
+        <v>993.688333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4982,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>984.9</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4999,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C132" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D132" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E132" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F132" t="n">
-        <v>90.21899999999999</v>
+        <v>454.6541</v>
       </c>
       <c r="G132" t="n">
-        <v>992.6049999999997</v>
+        <v>993.1549999999996</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5034,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C133" t="n">
-        <v>986.8</v>
+        <v>987</v>
       </c>
       <c r="D133" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E133" t="n">
-        <v>986.8</v>
+        <v>987</v>
       </c>
       <c r="F133" t="n">
-        <v>2115.4115</v>
+        <v>90.21899999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>992.1349999999998</v>
+        <v>992.6049999999997</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5069,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>986.8</v>
+        <v>988</v>
       </c>
       <c r="C134" t="n">
         <v>986.8</v>
       </c>
       <c r="D134" t="n">
-        <v>986.8</v>
+        <v>988</v>
       </c>
       <c r="E134" t="n">
         <v>986.8</v>
       </c>
       <c r="F134" t="n">
-        <v>2117.4236</v>
+        <v>2115.4115</v>
       </c>
       <c r="G134" t="n">
-        <v>991.5649999999998</v>
+        <v>992.1349999999998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5104,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>988.9</v>
+        <v>986.8</v>
       </c>
       <c r="C135" t="n">
-        <v>989.9</v>
+        <v>986.8</v>
       </c>
       <c r="D135" t="n">
-        <v>989.9</v>
+        <v>986.8</v>
       </c>
       <c r="E135" t="n">
-        <v>988.9</v>
+        <v>986.8</v>
       </c>
       <c r="F135" t="n">
-        <v>760.4939000000001</v>
+        <v>2117.4236</v>
       </c>
       <c r="G135" t="n">
-        <v>991.2299999999998</v>
+        <v>991.5649999999998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5139,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>986.8</v>
+        <v>988.9</v>
       </c>
       <c r="C136" t="n">
-        <v>986.8</v>
+        <v>989.9</v>
       </c>
       <c r="D136" t="n">
-        <v>986.8</v>
+        <v>989.9</v>
       </c>
       <c r="E136" t="n">
-        <v>986.8</v>
+        <v>988.9</v>
       </c>
       <c r="F136" t="n">
-        <v>2.0001</v>
+        <v>760.4939000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>990.8766666666666</v>
+        <v>991.2299999999998</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5174,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>983.6</v>
+        <v>986.8</v>
       </c>
       <c r="C137" t="n">
-        <v>983.6</v>
+        <v>986.8</v>
       </c>
       <c r="D137" t="n">
-        <v>983.6</v>
+        <v>986.8</v>
       </c>
       <c r="E137" t="n">
-        <v>983.6</v>
+        <v>986.8</v>
       </c>
       <c r="F137" t="n">
-        <v>10.5664</v>
+        <v>2.0001</v>
       </c>
       <c r="G137" t="n">
-        <v>990.4699999999998</v>
+        <v>990.8766666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5209,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>989</v>
+        <v>983.6</v>
       </c>
       <c r="C138" t="n">
-        <v>989</v>
+        <v>983.6</v>
       </c>
       <c r="D138" t="n">
-        <v>989</v>
+        <v>983.6</v>
       </c>
       <c r="E138" t="n">
-        <v>989</v>
+        <v>983.6</v>
       </c>
       <c r="F138" t="n">
-        <v>20</v>
+        <v>10.5664</v>
       </c>
       <c r="G138" t="n">
-        <v>990.1199999999998</v>
+        <v>990.4699999999998</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5256,10 +5240,10 @@
         <v>989</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G139" t="n">
-        <v>989.7533333333332</v>
+        <v>990.1199999999998</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5279,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="C140" t="n">
-        <v>981.6</v>
+        <v>989</v>
       </c>
       <c r="D140" t="n">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="E140" t="n">
-        <v>981.6</v>
+        <v>989</v>
       </c>
       <c r="F140" t="n">
-        <v>97.3207</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>989.3466666666665</v>
+        <v>989.7533333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5314,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>982.6</v>
+        <v>982</v>
       </c>
       <c r="C141" t="n">
-        <v>988.8</v>
+        <v>981.6</v>
       </c>
       <c r="D141" t="n">
-        <v>988.8</v>
+        <v>982</v>
       </c>
       <c r="E141" t="n">
-        <v>982.6</v>
+        <v>981.6</v>
       </c>
       <c r="F141" t="n">
-        <v>377.2719</v>
+        <v>97.3207</v>
       </c>
       <c r="G141" t="n">
-        <v>989.1099999999999</v>
+        <v>989.3466666666665</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5349,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>989</v>
+        <v>982.6</v>
       </c>
       <c r="C142" t="n">
-        <v>989</v>
+        <v>988.8</v>
       </c>
       <c r="D142" t="n">
-        <v>989</v>
+        <v>988.8</v>
       </c>
       <c r="E142" t="n">
-        <v>989</v>
+        <v>982.6</v>
       </c>
       <c r="F142" t="n">
-        <v>2225.8827</v>
+        <v>377.2719</v>
       </c>
       <c r="G142" t="n">
-        <v>988.8766666666666</v>
+        <v>989.1099999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5384,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>990.1</v>
+        <v>989</v>
       </c>
       <c r="C143" t="n">
-        <v>990.1</v>
+        <v>989</v>
       </c>
       <c r="D143" t="n">
-        <v>990.1</v>
+        <v>989</v>
       </c>
       <c r="E143" t="n">
-        <v>990.1</v>
+        <v>989</v>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>2225.8827</v>
       </c>
       <c r="G143" t="n">
-        <v>988.6283333333332</v>
+        <v>988.8766666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5419,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>980</v>
+        <v>990.1</v>
       </c>
       <c r="C144" t="n">
-        <v>980</v>
+        <v>990.1</v>
       </c>
       <c r="D144" t="n">
-        <v>980</v>
+        <v>990.1</v>
       </c>
       <c r="E144" t="n">
-        <v>980</v>
+        <v>990.1</v>
       </c>
       <c r="F144" t="n">
-        <v>229.1409</v>
+        <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>988.3099999999998</v>
+        <v>988.6283333333332</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5460,16 +5444,16 @@
         <v>980</v>
       </c>
       <c r="D145" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E145" t="n">
         <v>980</v>
       </c>
       <c r="F145" t="n">
-        <v>594.3040999999999</v>
+        <v>229.1409</v>
       </c>
       <c r="G145" t="n">
-        <v>988.0083333333332</v>
+        <v>988.3099999999998</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5489,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C146" t="n">
         <v>980</v>
       </c>
       <c r="D146" t="n">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E146" t="n">
         <v>980</v>
       </c>
       <c r="F146" t="n">
-        <v>1081.02588527</v>
+        <v>594.3040999999999</v>
       </c>
       <c r="G146" t="n">
-        <v>987.7083333333333</v>
+        <v>988.0083333333332</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5524,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>978.2</v>
+        <v>985</v>
       </c>
       <c r="C147" t="n">
-        <v>978.2</v>
+        <v>980</v>
       </c>
       <c r="D147" t="n">
-        <v>978.2</v>
+        <v>985</v>
       </c>
       <c r="E147" t="n">
-        <v>978.2</v>
+        <v>980</v>
       </c>
       <c r="F147" t="n">
-        <v>225.3498</v>
+        <v>1081.02588527</v>
       </c>
       <c r="G147" t="n">
-        <v>987.4983333333331</v>
+        <v>987.7083333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5571,10 +5555,10 @@
         <v>978.2</v>
       </c>
       <c r="F148" t="n">
-        <v>134.2999</v>
+        <v>225.3498</v>
       </c>
       <c r="G148" t="n">
-        <v>987.2316666666665</v>
+        <v>987.4983333333331</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5606,10 +5590,10 @@
         <v>978.2</v>
       </c>
       <c r="F149" t="n">
-        <v>224.6452</v>
+        <v>134.2999</v>
       </c>
       <c r="G149" t="n">
-        <v>986.9849999999998</v>
+        <v>987.2316666666665</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5629,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>977</v>
+        <v>978.2</v>
       </c>
       <c r="C150" t="n">
-        <v>973</v>
+        <v>978.2</v>
       </c>
       <c r="D150" t="n">
-        <v>977</v>
+        <v>978.2</v>
       </c>
       <c r="E150" t="n">
-        <v>973</v>
+        <v>978.2</v>
       </c>
       <c r="F150" t="n">
-        <v>270</v>
+        <v>224.6452</v>
       </c>
       <c r="G150" t="n">
-        <v>986.6516666666664</v>
+        <v>986.9849999999998</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5664,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>977.5</v>
+        <v>977</v>
       </c>
       <c r="C151" t="n">
-        <v>977.5</v>
+        <v>973</v>
       </c>
       <c r="D151" t="n">
-        <v>977.5</v>
+        <v>977</v>
       </c>
       <c r="E151" t="n">
-        <v>977.5</v>
+        <v>973</v>
       </c>
       <c r="F151" t="n">
-        <v>56.7999</v>
+        <v>270</v>
       </c>
       <c r="G151" t="n">
-        <v>986.2949999999997</v>
+        <v>986.6516666666664</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5699,7 +5683,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>977.4</v>
+        <v>977.5</v>
       </c>
       <c r="C152" t="n">
         <v>977.5</v>
@@ -5708,13 +5692,13 @@
         <v>977.5</v>
       </c>
       <c r="E152" t="n">
-        <v>977.4</v>
+        <v>977.5</v>
       </c>
       <c r="F152" t="n">
-        <v>301.7762</v>
+        <v>56.7999</v>
       </c>
       <c r="G152" t="n">
-        <v>985.9699999999997</v>
+        <v>986.2949999999997</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5734,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>973</v>
+        <v>977.4</v>
       </c>
       <c r="C153" t="n">
-        <v>973</v>
+        <v>977.5</v>
       </c>
       <c r="D153" t="n">
-        <v>973</v>
+        <v>977.5</v>
       </c>
       <c r="E153" t="n">
-        <v>973</v>
+        <v>977.4</v>
       </c>
       <c r="F153" t="n">
-        <v>251.5855</v>
+        <v>301.7762</v>
       </c>
       <c r="G153" t="n">
-        <v>985.5549999999997</v>
+        <v>985.9699999999997</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5772,19 +5756,19 @@
         <v>973</v>
       </c>
       <c r="C154" t="n">
-        <v>973.4</v>
+        <v>973</v>
       </c>
       <c r="D154" t="n">
-        <v>973.4</v>
+        <v>973</v>
       </c>
       <c r="E154" t="n">
-        <v>972.4</v>
+        <v>973</v>
       </c>
       <c r="F154" t="n">
-        <v>713.5</v>
+        <v>251.5855</v>
       </c>
       <c r="G154" t="n">
-        <v>985.148333333333</v>
+        <v>985.5549999999997</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5804,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>972.3</v>
+        <v>973</v>
       </c>
       <c r="C155" t="n">
-        <v>972.3</v>
+        <v>973.4</v>
       </c>
       <c r="D155" t="n">
-        <v>972.3</v>
+        <v>973.4</v>
       </c>
       <c r="E155" t="n">
-        <v>972.3</v>
+        <v>972.4</v>
       </c>
       <c r="F155" t="n">
-        <v>210</v>
+        <v>713.5</v>
       </c>
       <c r="G155" t="n">
-        <v>984.723333333333</v>
+        <v>985.148333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5839,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>975.9</v>
+        <v>972.3</v>
       </c>
       <c r="C156" t="n">
-        <v>975.9</v>
+        <v>972.3</v>
       </c>
       <c r="D156" t="n">
-        <v>975.9</v>
+        <v>972.3</v>
       </c>
       <c r="E156" t="n">
-        <v>975.9</v>
+        <v>972.3</v>
       </c>
       <c r="F156" t="n">
-        <v>273.9021</v>
+        <v>210</v>
       </c>
       <c r="G156" t="n">
-        <v>984.358333333333</v>
+        <v>984.723333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5886,10 +5870,10 @@
         <v>975.9</v>
       </c>
       <c r="F157" t="n">
-        <v>310.3928</v>
+        <v>273.9021</v>
       </c>
       <c r="G157" t="n">
-        <v>983.978333333333</v>
+        <v>984.358333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5921,10 +5905,10 @@
         <v>975.9</v>
       </c>
       <c r="F158" t="n">
-        <v>149.8949</v>
+        <v>310.3928</v>
       </c>
       <c r="G158" t="n">
-        <v>983.5966666666664</v>
+        <v>983.978333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5956,10 +5940,10 @@
         <v>975.9</v>
       </c>
       <c r="F159" t="n">
-        <v>238.9995</v>
+        <v>149.8949</v>
       </c>
       <c r="G159" t="n">
-        <v>983.213333333333</v>
+        <v>983.5966666666664</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5991,10 +5975,10 @@
         <v>975.9</v>
       </c>
       <c r="F160" t="n">
-        <v>149.8949</v>
+        <v>238.9995</v>
       </c>
       <c r="G160" t="n">
-        <v>982.878333333333</v>
+        <v>983.213333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6029,7 +6013,7 @@
         <v>149.8949</v>
       </c>
       <c r="G161" t="n">
-        <v>982.6099999999998</v>
+        <v>982.878333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6049,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>980</v>
+        <v>975.9</v>
       </c>
       <c r="C162" t="n">
-        <v>980</v>
+        <v>975.9</v>
       </c>
       <c r="D162" t="n">
-        <v>980</v>
+        <v>975.9</v>
       </c>
       <c r="E162" t="n">
-        <v>980</v>
+        <v>975.9</v>
       </c>
       <c r="F162" t="n">
-        <v>350</v>
+        <v>149.8949</v>
       </c>
       <c r="G162" t="n">
-        <v>982.4249999999997</v>
+        <v>982.6099999999998</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6084,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>975.2</v>
+        <v>980</v>
       </c>
       <c r="C163" t="n">
-        <v>975.2</v>
+        <v>980</v>
       </c>
       <c r="D163" t="n">
-        <v>975.2</v>
+        <v>980</v>
       </c>
       <c r="E163" t="n">
-        <v>975.2</v>
+        <v>980</v>
       </c>
       <c r="F163" t="n">
-        <v>51.3857</v>
+        <v>350</v>
       </c>
       <c r="G163" t="n">
-        <v>982.1766666666664</v>
+        <v>982.4249999999997</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6119,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>974</v>
+        <v>975.2</v>
       </c>
       <c r="C164" t="n">
-        <v>974</v>
+        <v>975.2</v>
       </c>
       <c r="D164" t="n">
-        <v>974</v>
+        <v>975.2</v>
       </c>
       <c r="E164" t="n">
-        <v>974</v>
+        <v>975.2</v>
       </c>
       <c r="F164" t="n">
-        <v>1036.9764</v>
+        <v>51.3857</v>
       </c>
       <c r="G164" t="n">
-        <v>981.9449999999997</v>
+        <v>982.1766666666664</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6154,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C165" t="n">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D165" t="n">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E165" t="n">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="F165" t="n">
-        <v>250</v>
+        <v>1036.9764</v>
       </c>
       <c r="G165" t="n">
-        <v>981.7666666666664</v>
+        <v>981.9449999999997</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6189,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C166" t="n">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="D166" t="n">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="E166" t="n">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="F166" t="n">
-        <v>705</v>
+        <v>250</v>
       </c>
       <c r="G166" t="n">
-        <v>981.7133333333331</v>
+        <v>981.7666666666664</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6224,7 +6208,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C167" t="n">
         <v>985</v>
@@ -6233,13 +6217,13 @@
         <v>985</v>
       </c>
       <c r="E167" t="n">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F167" t="n">
-        <v>878.0089</v>
+        <v>705</v>
       </c>
       <c r="G167" t="n">
-        <v>981.6599999999999</v>
+        <v>981.7133333333331</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6259,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C168" t="n">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D168" t="n">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E168" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F168" t="n">
-        <v>10.2577</v>
+        <v>878.0089</v>
       </c>
       <c r="G168" t="n">
-        <v>981.5649999999999</v>
+        <v>981.6599999999999</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6306,10 +6290,10 @@
         <v>983</v>
       </c>
       <c r="F169" t="n">
-        <v>1936.2225</v>
+        <v>10.2577</v>
       </c>
       <c r="G169" t="n">
-        <v>981.4633333333333</v>
+        <v>981.5649999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6341,10 +6325,10 @@
         <v>983</v>
       </c>
       <c r="F170" t="n">
-        <v>337.9516</v>
+        <v>1936.2225</v>
       </c>
       <c r="G170" t="n">
-        <v>981.3766666666667</v>
+        <v>981.4633333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6364,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C171" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="D171" t="n">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E171" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="F171" t="n">
-        <v>2212.72</v>
+        <v>337.9516</v>
       </c>
       <c r="G171" t="n">
-        <v>981.24</v>
+        <v>981.3766666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6399,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C172" t="n">
         <v>980</v>
       </c>
       <c r="D172" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E172" t="n">
         <v>980</v>
       </c>
       <c r="F172" t="n">
-        <v>1931.0256</v>
+        <v>2212.72</v>
       </c>
       <c r="G172" t="n">
-        <v>981.1033333333334</v>
+        <v>981.24</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6437,19 +6421,19 @@
         <v>980</v>
       </c>
       <c r="C173" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D173" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E173" t="n">
         <v>980</v>
       </c>
       <c r="F173" t="n">
-        <v>1015.0047</v>
+        <v>1931.0256</v>
       </c>
       <c r="G173" t="n">
-        <v>981.0383333333334</v>
+        <v>981.1033333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6469,7 +6453,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>979.5</v>
+        <v>980</v>
       </c>
       <c r="C174" t="n">
         <v>984</v>
@@ -6478,13 +6462,13 @@
         <v>984</v>
       </c>
       <c r="E174" t="n">
-        <v>979.5</v>
+        <v>980</v>
       </c>
       <c r="F174" t="n">
-        <v>725.4074000000001</v>
+        <v>1015.0047</v>
       </c>
       <c r="G174" t="n">
-        <v>981.0716666666667</v>
+        <v>981.0383333333334</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6504,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>985</v>
+        <v>979.5</v>
       </c>
       <c r="C175" t="n">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D175" t="n">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E175" t="n">
-        <v>985</v>
+        <v>979.5</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0001</v>
+        <v>725.4074000000001</v>
       </c>
       <c r="G175" t="n">
-        <v>981.1533333333334</v>
+        <v>981.0716666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6551,10 +6535,10 @@
         <v>985</v>
       </c>
       <c r="F176" t="n">
-        <v>29.9999</v>
+        <v>0.0001</v>
       </c>
       <c r="G176" t="n">
-        <v>981.2366666666668</v>
+        <v>981.1533333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6574,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C177" t="n">
-        <v>982.3</v>
+        <v>985</v>
       </c>
       <c r="D177" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E177" t="n">
-        <v>982.3</v>
+        <v>985</v>
       </c>
       <c r="F177" t="n">
-        <v>235.521</v>
+        <v>29.9999</v>
       </c>
       <c r="G177" t="n">
-        <v>981.2750000000001</v>
+        <v>981.2366666666668</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6609,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C178" t="n">
-        <v>985</v>
+        <v>982.3</v>
       </c>
       <c r="D178" t="n">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E178" t="n">
-        <v>985</v>
+        <v>982.3</v>
       </c>
       <c r="F178" t="n">
-        <v>56.5855</v>
+        <v>235.521</v>
       </c>
       <c r="G178" t="n">
-        <v>981.3583333333335</v>
+        <v>981.2750000000001</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6644,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>986.1</v>
+        <v>985</v>
       </c>
       <c r="C179" t="n">
-        <v>986.1</v>
+        <v>985</v>
       </c>
       <c r="D179" t="n">
-        <v>986.1</v>
+        <v>985</v>
       </c>
       <c r="E179" t="n">
-        <v>986.1</v>
+        <v>985</v>
       </c>
       <c r="F179" t="n">
-        <v>75.2</v>
+        <v>56.5855</v>
       </c>
       <c r="G179" t="n">
-        <v>981.4600000000002</v>
+        <v>981.3583333333335</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6679,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>986</v>
+        <v>986.1</v>
       </c>
       <c r="C180" t="n">
-        <v>985</v>
+        <v>986.1</v>
       </c>
       <c r="D180" t="n">
-        <v>986</v>
+        <v>986.1</v>
       </c>
       <c r="E180" t="n">
-        <v>985</v>
+        <v>986.1</v>
       </c>
       <c r="F180" t="n">
-        <v>43.3</v>
+        <v>75.2</v>
       </c>
       <c r="G180" t="n">
-        <v>981.5433333333334</v>
+        <v>981.4600000000002</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6714,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>981.1</v>
+        <v>986</v>
       </c>
       <c r="C181" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D181" t="n">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E181" t="n">
-        <v>981.1</v>
+        <v>985</v>
       </c>
       <c r="F181" t="n">
-        <v>369.4113</v>
+        <v>43.3</v>
       </c>
       <c r="G181" t="n">
-        <v>981.6100000000001</v>
+        <v>981.5433333333334</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6749,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>988</v>
+        <v>981.1</v>
       </c>
       <c r="C182" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D182" t="n">
         <v>988</v>
       </c>
       <c r="E182" t="n">
-        <v>988</v>
+        <v>981.1</v>
       </c>
       <c r="F182" t="n">
-        <v>11</v>
+        <v>369.4113</v>
       </c>
       <c r="G182" t="n">
-        <v>981.7433333333335</v>
+        <v>981.6100000000001</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6784,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C183" t="n">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="D183" t="n">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="E183" t="n">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="F183" t="n">
-        <v>1627.2444</v>
+        <v>11</v>
       </c>
       <c r="G183" t="n">
-        <v>981.8266666666667</v>
+        <v>981.7433333333335</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6819,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C184" t="n">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D184" t="n">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="E184" t="n">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F184" t="n">
-        <v>515.9147</v>
+        <v>1627.2444</v>
       </c>
       <c r="G184" t="n">
-        <v>981.9766666666668</v>
+        <v>981.8266666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6854,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>990.1</v>
+        <v>989</v>
       </c>
       <c r="C185" t="n">
-        <v>990.1</v>
+        <v>989</v>
       </c>
       <c r="D185" t="n">
-        <v>990.1</v>
+        <v>989</v>
       </c>
       <c r="E185" t="n">
-        <v>990.1</v>
+        <v>989</v>
       </c>
       <c r="F185" t="n">
-        <v>53</v>
+        <v>515.9147</v>
       </c>
       <c r="G185" t="n">
-        <v>982.1450000000001</v>
+        <v>981.9766666666668</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6889,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>993</v>
+        <v>990.1</v>
       </c>
       <c r="C186" t="n">
-        <v>993</v>
+        <v>990.1</v>
       </c>
       <c r="D186" t="n">
-        <v>993</v>
+        <v>990.1</v>
       </c>
       <c r="E186" t="n">
-        <v>993</v>
+        <v>990.1</v>
       </c>
       <c r="F186" t="n">
-        <v>189.8852</v>
+        <v>53</v>
       </c>
       <c r="G186" t="n">
-        <v>982.3616666666668</v>
+        <v>982.1450000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6924,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>991.1</v>
+        <v>993</v>
       </c>
       <c r="C187" t="n">
-        <v>991.1</v>
+        <v>993</v>
       </c>
       <c r="D187" t="n">
-        <v>991.1</v>
+        <v>993</v>
       </c>
       <c r="E187" t="n">
-        <v>991.1</v>
+        <v>993</v>
       </c>
       <c r="F187" t="n">
-        <v>1998.6616</v>
+        <v>189.8852</v>
       </c>
       <c r="G187" t="n">
-        <v>982.48</v>
+        <v>982.3616666666668</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6959,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>992</v>
+        <v>991.1</v>
       </c>
       <c r="C188" t="n">
-        <v>992</v>
+        <v>991.1</v>
       </c>
       <c r="D188" t="n">
-        <v>992</v>
+        <v>991.1</v>
       </c>
       <c r="E188" t="n">
-        <v>992</v>
+        <v>991.1</v>
       </c>
       <c r="F188" t="n">
-        <v>1521.2517</v>
+        <v>1998.6616</v>
       </c>
       <c r="G188" t="n">
-        <v>982.5983333333334</v>
+        <v>982.48</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6994,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C189" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D189" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E189" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F189" t="n">
-        <v>83.99509999999999</v>
+        <v>1521.2517</v>
       </c>
       <c r="G189" t="n">
-        <v>982.7483333333333</v>
+        <v>982.5983333333334</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7029,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>990.4</v>
+        <v>994</v>
       </c>
       <c r="C190" t="n">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="D190" t="n">
-        <v>990.4</v>
+        <v>994</v>
       </c>
       <c r="E190" t="n">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F190" t="n">
-        <v>304.0473</v>
+        <v>83.99509999999999</v>
       </c>
       <c r="G190" t="n">
-        <v>982.8316666666667</v>
+        <v>982.7483333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7064,19 +7048,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>986</v>
+        <v>990.4</v>
       </c>
       <c r="C191" t="n">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="D191" t="n">
-        <v>986</v>
+        <v>990.4</v>
       </c>
       <c r="E191" t="n">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="F191" t="n">
-        <v>1295.2411</v>
+        <v>304.0473</v>
       </c>
       <c r="G191" t="n">
         <v>982.8316666666667</v>
@@ -7099,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C192" t="n">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D192" t="n">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E192" t="n">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F192" t="n">
-        <v>94.0515</v>
+        <v>1295.2411</v>
       </c>
       <c r="G192" t="n">
-        <v>982.7983333333334</v>
+        <v>982.8316666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7134,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C193" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D193" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E193" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F193" t="n">
-        <v>299.6071</v>
+        <v>94.0515</v>
       </c>
       <c r="G193" t="n">
-        <v>982.785</v>
+        <v>982.7983333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7169,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C194" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D194" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E194" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F194" t="n">
-        <v>534.9586</v>
+        <v>299.6071</v>
       </c>
       <c r="G194" t="n">
-        <v>982.7883333333333</v>
+        <v>982.785</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7204,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="C195" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="D195" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="E195" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="F195" t="n">
-        <v>1186.6112</v>
+        <v>534.9586</v>
       </c>
       <c r="G195" t="n">
-        <v>982.6733333333333</v>
+        <v>982.7883333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7239,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="C196" t="n">
-        <v>974.9</v>
+        <v>983</v>
       </c>
       <c r="D196" t="n">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="E196" t="n">
-        <v>974.9</v>
+        <v>983</v>
       </c>
       <c r="F196" t="n">
-        <v>4675.3486</v>
+        <v>1186.6112</v>
       </c>
       <c r="G196" t="n">
-        <v>982.4749999999999</v>
+        <v>982.6733333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7277,19 +7261,19 @@
         <v>977</v>
       </c>
       <c r="C197" t="n">
-        <v>977</v>
+        <v>974.9</v>
       </c>
       <c r="D197" t="n">
         <v>977</v>
       </c>
       <c r="E197" t="n">
-        <v>977</v>
+        <v>974.9</v>
       </c>
       <c r="F197" t="n">
-        <v>1495.092</v>
+        <v>4675.3486</v>
       </c>
       <c r="G197" t="n">
-        <v>982.3649999999999</v>
+        <v>982.4749999999999</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7321,10 +7305,10 @@
         <v>977</v>
       </c>
       <c r="F198" t="n">
-        <v>7.7098</v>
+        <v>1495.092</v>
       </c>
       <c r="G198" t="n">
-        <v>982.1649999999998</v>
+        <v>982.3649999999999</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7347,19 +7331,19 @@
         <v>977</v>
       </c>
       <c r="C199" t="n">
-        <v>975.8</v>
+        <v>977</v>
       </c>
       <c r="D199" t="n">
         <v>977</v>
       </c>
       <c r="E199" t="n">
-        <v>975.8</v>
+        <v>977</v>
       </c>
       <c r="F199" t="n">
-        <v>4233.3197</v>
+        <v>7.7098</v>
       </c>
       <c r="G199" t="n">
-        <v>981.9449999999999</v>
+        <v>982.1649999999998</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7379,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>978.1</v>
+        <v>977</v>
       </c>
       <c r="C200" t="n">
-        <v>978</v>
+        <v>975.8</v>
       </c>
       <c r="D200" t="n">
-        <v>978.1</v>
+        <v>977</v>
       </c>
       <c r="E200" t="n">
-        <v>978</v>
+        <v>975.8</v>
       </c>
       <c r="F200" t="n">
-        <v>3231.0885</v>
+        <v>4233.3197</v>
       </c>
       <c r="G200" t="n">
-        <v>981.885</v>
+        <v>981.9449999999999</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7414,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>986</v>
+        <v>978.1</v>
       </c>
       <c r="C201" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="D201" t="n">
-        <v>986</v>
+        <v>978.1</v>
       </c>
       <c r="E201" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="F201" t="n">
-        <v>1700.3399</v>
+        <v>3231.0885</v>
       </c>
       <c r="G201" t="n">
-        <v>981.8049999999999</v>
+        <v>981.885</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7449,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>986</v>
+      </c>
+      <c r="C202" t="n">
         <v>984</v>
-      </c>
-      <c r="C202" t="n">
-        <v>985</v>
       </c>
       <c r="D202" t="n">
         <v>986</v>
       </c>
       <c r="E202" t="n">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="F202" t="n">
-        <v>2109.0198</v>
+        <v>1700.3399</v>
       </c>
       <c r="G202" t="n">
-        <v>981.7383333333332</v>
+        <v>981.8049999999999</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7487,19 +7471,19 @@
         <v>984</v>
       </c>
       <c r="C203" t="n">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="D203" t="n">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E203" t="n">
         <v>982</v>
       </c>
       <c r="F203" t="n">
-        <v>1457.458</v>
+        <v>2109.0198</v>
       </c>
       <c r="G203" t="n">
-        <v>981.6033333333332</v>
+        <v>981.7383333333332</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7519,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="C204" t="n">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D204" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E204" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F204" t="n">
-        <v>2571.7923</v>
+        <v>1457.458</v>
       </c>
       <c r="G204" t="n">
-        <v>981.6533333333333</v>
+        <v>981.6033333333332</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7554,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C205" t="n">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D205" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E205" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F205" t="n">
-        <v>1589.0973</v>
+        <v>2571.7923</v>
       </c>
       <c r="G205" t="n">
-        <v>981.6866666666666</v>
+        <v>981.6533333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7589,19 +7573,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C206" t="n">
+        <v>982</v>
+      </c>
+      <c r="D206" t="n">
+        <v>983</v>
+      </c>
+      <c r="E206" t="n">
         <v>980</v>
       </c>
-      <c r="D206" t="n">
-        <v>981</v>
-      </c>
-      <c r="E206" t="n">
-        <v>979</v>
-      </c>
       <c r="F206" t="n">
-        <v>1833.9999</v>
+        <v>1589.0973</v>
       </c>
       <c r="G206" t="n">
         <v>981.6866666666666</v>
@@ -7624,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C207" t="n">
         <v>980</v>
       </c>
       <c r="D207" t="n">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E207" t="n">
         <v>979</v>
       </c>
       <c r="F207" t="n">
-        <v>1301.6192</v>
+        <v>1833.9999</v>
       </c>
       <c r="G207" t="n">
-        <v>981.7166666666667</v>
+        <v>981.6866666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7659,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C208" t="n">
         <v>980</v>
       </c>
       <c r="D208" t="n">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E208" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F208" t="n">
-        <v>186.6938</v>
+        <v>1301.6192</v>
       </c>
       <c r="G208" t="n">
-        <v>981.7466666666667</v>
+        <v>981.7166666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7706,10 +7690,10 @@
         <v>980</v>
       </c>
       <c r="F209" t="n">
-        <v>111.9319</v>
+        <v>186.6938</v>
       </c>
       <c r="G209" t="n">
-        <v>981.7766666666668</v>
+        <v>981.7466666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7741,10 +7725,10 @@
         <v>980</v>
       </c>
       <c r="F210" t="n">
-        <v>695.2812</v>
+        <v>111.9319</v>
       </c>
       <c r="G210" t="n">
-        <v>981.8933333333334</v>
+        <v>981.7766666666668</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7764,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C211" t="n">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="D211" t="n">
         <v>980</v>
       </c>
       <c r="E211" t="n">
-        <v>977.1</v>
+        <v>980</v>
       </c>
       <c r="F211" t="n">
-        <v>4087</v>
+        <v>695.2812</v>
       </c>
       <c r="G211" t="n">
-        <v>981.9016666666668</v>
+        <v>981.8933333333334</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7802,19 +7786,19 @@
         <v>978</v>
       </c>
       <c r="C212" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D212" t="n">
         <v>980</v>
       </c>
       <c r="E212" t="n">
-        <v>978</v>
+        <v>977.1</v>
       </c>
       <c r="F212" t="n">
-        <v>4446</v>
+        <v>4087</v>
       </c>
       <c r="G212" t="n">
-        <v>981.9266666666667</v>
+        <v>981.9016666666668</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7834,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C213" t="n">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="D213" t="n">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="E213" t="n">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="F213" t="n">
-        <v>1612.8485</v>
+        <v>4446</v>
       </c>
       <c r="G213" t="n">
-        <v>981.9766666666668</v>
+        <v>981.9266666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7881,10 +7865,10 @@
         <v>976</v>
       </c>
       <c r="F214" t="n">
-        <v>1655</v>
+        <v>1612.8485</v>
       </c>
       <c r="G214" t="n">
-        <v>982.0200000000001</v>
+        <v>981.9766666666668</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7916,10 +7900,10 @@
         <v>976</v>
       </c>
       <c r="F215" t="n">
-        <v>22</v>
+        <v>1655</v>
       </c>
       <c r="G215" t="n">
-        <v>982.0816666666667</v>
+        <v>982.0200000000001</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7942,19 +7926,19 @@
         <v>976</v>
       </c>
       <c r="C216" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D216" t="n">
         <v>976</v>
       </c>
       <c r="E216" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F216" t="n">
-        <v>751.0472</v>
+        <v>22</v>
       </c>
       <c r="G216" t="n">
-        <v>982.0666666666667</v>
+        <v>982.0816666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7974,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
+        <v>976</v>
+      </c>
+      <c r="C217" t="n">
         <v>975</v>
-      </c>
-      <c r="C217" t="n">
-        <v>976</v>
       </c>
       <c r="D217" t="n">
         <v>976</v>
       </c>
       <c r="E217" t="n">
-        <v>973.1</v>
+        <v>975</v>
       </c>
       <c r="F217" t="n">
-        <v>3882.8352</v>
+        <v>751.0472</v>
       </c>
       <c r="G217" t="n">
-        <v>982.0683333333333</v>
+        <v>982.0666666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8009,10 +7993,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C218" t="n">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D218" t="n">
         <v>976</v>
@@ -8021,10 +8005,10 @@
         <v>973.1</v>
       </c>
       <c r="F218" t="n">
-        <v>1866</v>
+        <v>3882.8352</v>
       </c>
       <c r="G218" t="n">
-        <v>982.0366666666666</v>
+        <v>982.0683333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8044,7 +8028,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>974.1</v>
+        <v>974</v>
       </c>
       <c r="C219" t="n">
         <v>974</v>
@@ -8053,13 +8037,13 @@
         <v>976</v>
       </c>
       <c r="E219" t="n">
-        <v>974</v>
+        <v>973.1</v>
       </c>
       <c r="F219" t="n">
-        <v>2421</v>
+        <v>1866</v>
       </c>
       <c r="G219" t="n">
-        <v>982.0049999999999</v>
+        <v>982.0366666666666</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8079,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>972.8</v>
+        <v>974.1</v>
       </c>
       <c r="C220" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D220" t="n">
         <v>976</v>
       </c>
       <c r="E220" t="n">
-        <v>972.8</v>
+        <v>974</v>
       </c>
       <c r="F220" t="n">
-        <v>3689</v>
+        <v>2421</v>
       </c>
       <c r="G220" t="n">
-        <v>982.0066666666665</v>
+        <v>982.0049999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8114,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
+        <v>972.8</v>
+      </c>
+      <c r="C221" t="n">
         <v>976</v>
-      </c>
-      <c r="C221" t="n">
-        <v>974</v>
       </c>
       <c r="D221" t="n">
         <v>976</v>
       </c>
       <c r="E221" t="n">
-        <v>973.1</v>
+        <v>972.8</v>
       </c>
       <c r="F221" t="n">
-        <v>2591.8718</v>
+        <v>3689</v>
       </c>
       <c r="G221" t="n">
-        <v>981.9749999999999</v>
+        <v>982.0066666666665</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8149,10 +8133,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>973.1</v>
+        <v>976</v>
       </c>
       <c r="C222" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D222" t="n">
         <v>976</v>
@@ -8161,10 +8145,10 @@
         <v>973.1</v>
       </c>
       <c r="F222" t="n">
-        <v>2120</v>
+        <v>2591.8718</v>
       </c>
       <c r="G222" t="n">
-        <v>981.9083333333332</v>
+        <v>981.9749999999999</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8184,7 +8168,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>974</v>
+        <v>973.1</v>
       </c>
       <c r="C223" t="n">
         <v>976</v>
@@ -8193,587 +8177,519 @@
         <v>976</v>
       </c>
       <c r="E223" t="n">
+        <v>973.1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2120</v>
+      </c>
+      <c r="G223" t="n">
+        <v>981.9083333333332</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
         <v>974</v>
       </c>
-      <c r="F223" t="n">
+      <c r="C224" t="n">
+        <v>976</v>
+      </c>
+      <c r="D224" t="n">
+        <v>976</v>
+      </c>
+      <c r="E224" t="n">
+        <v>974</v>
+      </c>
+      <c r="F224" t="n">
         <v>2334</v>
       </c>
-      <c r="G223" t="n">
+      <c r="G224" t="n">
         <v>981.9216666666666</v>
       </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>976</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>974</v>
+      </c>
+      <c r="C225" t="n">
+        <v>974</v>
+      </c>
+      <c r="D225" t="n">
+        <v>974</v>
+      </c>
+      <c r="E225" t="n">
+        <v>974</v>
+      </c>
+      <c r="F225" t="n">
+        <v>401</v>
+      </c>
+      <c r="G225" t="n">
+        <v>981.9216666666666</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>973</v>
+      </c>
+      <c r="C226" t="n">
+        <v>975</v>
+      </c>
+      <c r="D226" t="n">
+        <v>975</v>
+      </c>
+      <c r="E226" t="n">
+        <v>972.6</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1675</v>
+      </c>
+      <c r="G226" t="n">
+        <v>981.8716666666666</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>974</v>
+      </c>
+      <c r="C227" t="n">
+        <v>975</v>
+      </c>
+      <c r="D227" t="n">
+        <v>975</v>
+      </c>
+      <c r="E227" t="n">
+        <v>974</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1769.451</v>
+      </c>
+      <c r="G227" t="n">
+        <v>981.7049999999999</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>975</v>
+      </c>
+      <c r="C228" t="n">
+        <v>975</v>
+      </c>
+      <c r="D228" t="n">
+        <v>975</v>
+      </c>
+      <c r="E228" t="n">
+        <v>975</v>
+      </c>
+      <c r="F228" t="n">
+        <v>930</v>
+      </c>
+      <c r="G228" t="n">
+        <v>981.5383333333333</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>975</v>
+      </c>
+      <c r="C229" t="n">
+        <v>975</v>
+      </c>
+      <c r="D229" t="n">
+        <v>975</v>
+      </c>
+      <c r="E229" t="n">
+        <v>975</v>
+      </c>
+      <c r="F229" t="n">
+        <v>375</v>
+      </c>
+      <c r="G229" t="n">
+        <v>981.405</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>974</v>
+      </c>
+      <c r="C230" t="n">
+        <v>974</v>
+      </c>
+      <c r="D230" t="n">
+        <v>975</v>
+      </c>
+      <c r="E230" t="n">
+        <v>974</v>
+      </c>
+      <c r="F230" t="n">
+        <v>4388.9243</v>
+      </c>
+      <c r="G230" t="n">
+        <v>981.2549999999999</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>974</v>
+      </c>
+      <c r="C231" t="n">
+        <v>973</v>
+      </c>
+      <c r="D231" t="n">
+        <v>974</v>
+      </c>
+      <c r="E231" t="n">
+        <v>971.5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1669.0688</v>
+      </c>
+      <c r="G231" t="n">
+        <v>981.0883333333333</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>973</v>
+      </c>
+      <c r="C232" t="n">
+        <v>972</v>
+      </c>
+      <c r="D232" t="n">
+        <v>973</v>
+      </c>
+      <c r="E232" t="n">
+        <v>971.5</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1758.3996</v>
+      </c>
+      <c r="G232" t="n">
+        <v>980.9549999999999</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>972</v>
+      </c>
+      <c r="C233" t="n">
+        <v>970</v>
+      </c>
+      <c r="D233" t="n">
+        <v>972</v>
+      </c>
+      <c r="E233" t="n">
+        <v>970</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1817.8354</v>
+      </c>
+      <c r="G233" t="n">
+        <v>980.7883333333333</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>970</v>
+      </c>
+      <c r="C234" t="n">
+        <v>971</v>
+      </c>
+      <c r="D234" t="n">
+        <v>973</v>
+      </c>
+      <c r="E234" t="n">
+        <v>970</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2560.1931</v>
+      </c>
+      <c r="G234" t="n">
+        <v>980.5716666666666</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>971</v>
+      </c>
+      <c r="C235" t="n">
+        <v>970</v>
+      </c>
+      <c r="D235" t="n">
+        <v>971</v>
+      </c>
+      <c r="E235" t="n">
+        <v>970</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2774.1695</v>
+      </c>
+      <c r="G235" t="n">
+        <v>980.3383333333333</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>970</v>
+      </c>
+      <c r="C236" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>970</v>
+      </c>
+      <c r="E236" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1167.9999</v>
+      </c>
+      <c r="G236" t="n">
+        <v>980.0733333333333</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>970</v>
+      </c>
+      <c r="C237" t="n">
+        <v>970</v>
+      </c>
+      <c r="D237" t="n">
+        <v>970</v>
+      </c>
+      <c r="E237" t="n">
+        <v>969</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2629.0001</v>
+      </c>
+      <c r="G237" t="n">
+        <v>979.8233333333333</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>974</v>
-      </c>
-      <c r="C224" t="n">
-        <v>974</v>
-      </c>
-      <c r="D224" t="n">
-        <v>974</v>
-      </c>
-      <c r="E224" t="n">
-        <v>974</v>
-      </c>
-      <c r="F224" t="n">
-        <v>401</v>
-      </c>
-      <c r="G224" t="n">
-        <v>981.9216666666666</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>976</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>973</v>
-      </c>
-      <c r="C225" t="n">
-        <v>975</v>
-      </c>
-      <c r="D225" t="n">
-        <v>975</v>
-      </c>
-      <c r="E225" t="n">
-        <v>972.6</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1675</v>
-      </c>
-      <c r="G225" t="n">
-        <v>981.8716666666666</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>974</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>974</v>
-      </c>
-      <c r="C226" t="n">
-        <v>975</v>
-      </c>
-      <c r="D226" t="n">
-        <v>975</v>
-      </c>
-      <c r="E226" t="n">
-        <v>974</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1769.451</v>
-      </c>
-      <c r="G226" t="n">
-        <v>981.7049999999999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>975</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>975</v>
-      </c>
-      <c r="C227" t="n">
-        <v>975</v>
-      </c>
-      <c r="D227" t="n">
-        <v>975</v>
-      </c>
-      <c r="E227" t="n">
-        <v>975</v>
-      </c>
-      <c r="F227" t="n">
-        <v>930</v>
-      </c>
-      <c r="G227" t="n">
-        <v>981.5383333333333</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>975</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>975</v>
-      </c>
-      <c r="C228" t="n">
-        <v>975</v>
-      </c>
-      <c r="D228" t="n">
-        <v>975</v>
-      </c>
-      <c r="E228" t="n">
-        <v>975</v>
-      </c>
-      <c r="F228" t="n">
-        <v>375</v>
-      </c>
-      <c r="G228" t="n">
-        <v>981.405</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>974</v>
-      </c>
-      <c r="C229" t="n">
-        <v>974</v>
-      </c>
-      <c r="D229" t="n">
-        <v>975</v>
-      </c>
-      <c r="E229" t="n">
-        <v>974</v>
-      </c>
-      <c r="F229" t="n">
-        <v>4388.9243</v>
-      </c>
-      <c r="G229" t="n">
-        <v>981.2549999999999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>974</v>
-      </c>
-      <c r="C230" t="n">
-        <v>973</v>
-      </c>
-      <c r="D230" t="n">
-        <v>974</v>
-      </c>
-      <c r="E230" t="n">
-        <v>971.5</v>
-      </c>
-      <c r="F230" t="n">
-        <v>1669.0688</v>
-      </c>
-      <c r="G230" t="n">
-        <v>981.0883333333333</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>974</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>973</v>
-      </c>
-      <c r="C231" t="n">
-        <v>972</v>
-      </c>
-      <c r="D231" t="n">
-        <v>973</v>
-      </c>
-      <c r="E231" t="n">
-        <v>971.5</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1758.3996</v>
-      </c>
-      <c r="G231" t="n">
-        <v>980.9549999999999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>973</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>972</v>
-      </c>
-      <c r="C232" t="n">
-        <v>970</v>
-      </c>
-      <c r="D232" t="n">
-        <v>972</v>
-      </c>
-      <c r="E232" t="n">
-        <v>970</v>
-      </c>
-      <c r="F232" t="n">
-        <v>1817.8354</v>
-      </c>
-      <c r="G232" t="n">
-        <v>980.7883333333333</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>970</v>
-      </c>
-      <c r="C233" t="n">
-        <v>971</v>
-      </c>
-      <c r="D233" t="n">
-        <v>973</v>
-      </c>
-      <c r="E233" t="n">
-        <v>970</v>
-      </c>
-      <c r="F233" t="n">
-        <v>2560.1931</v>
-      </c>
-      <c r="G233" t="n">
-        <v>980.5716666666666</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>971</v>
-      </c>
-      <c r="C234" t="n">
-        <v>970</v>
-      </c>
-      <c r="D234" t="n">
-        <v>971</v>
-      </c>
-      <c r="E234" t="n">
-        <v>970</v>
-      </c>
-      <c r="F234" t="n">
-        <v>2774.1695</v>
-      </c>
-      <c r="G234" t="n">
-        <v>980.3383333333333</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>970</v>
-      </c>
-      <c r="C235" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="D235" t="n">
-        <v>970</v>
-      </c>
-      <c r="E235" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1167.9999</v>
-      </c>
-      <c r="G235" t="n">
-        <v>980.0733333333333</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>970</v>
-      </c>
-      <c r="C236" t="n">
-        <v>970</v>
-      </c>
-      <c r="D236" t="n">
-        <v>970</v>
-      </c>
-      <c r="E236" t="n">
-        <v>969</v>
-      </c>
-      <c r="F236" t="n">
-        <v>2629.0001</v>
-      </c>
-      <c r="G236" t="n">
-        <v>979.8233333333333</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>970</v>
-      </c>
-      <c r="C237" t="n">
-        <v>970</v>
-      </c>
-      <c r="D237" t="n">
-        <v>970</v>
-      </c>
-      <c r="E237" t="n">
-        <v>970</v>
-      </c>
-      <c r="F237" t="n">
-        <v>875.4041</v>
-      </c>
-      <c r="G237" t="n">
-        <v>979.6183333333332</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8795,18 +8711,20 @@
         <v>970</v>
       </c>
       <c r="F238" t="n">
-        <v>997.1909000000001</v>
+        <v>875.4041</v>
       </c>
       <c r="G238" t="n">
-        <v>979.3683333333332</v>
+        <v>979.6183333333332</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>970</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
@@ -8822,7 +8740,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C239" t="n">
         <v>970</v>
@@ -8831,21 +8749,23 @@
         <v>970</v>
       </c>
       <c r="E239" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F239" t="n">
-        <v>43.0379</v>
+        <v>997.1909000000001</v>
       </c>
       <c r="G239" t="n">
-        <v>979.0999999999999</v>
+        <v>979.3683333333332</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>970</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
@@ -8861,30 +8781,32 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>969.1</v>
+        <v>969</v>
       </c>
       <c r="C240" t="n">
-        <v>969.1</v>
+        <v>970</v>
       </c>
       <c r="D240" t="n">
-        <v>969.1</v>
+        <v>970</v>
       </c>
       <c r="E240" t="n">
-        <v>969.1</v>
+        <v>969</v>
       </c>
       <c r="F240" t="n">
-        <v>295</v>
+        <v>43.0379</v>
       </c>
       <c r="G240" t="n">
-        <v>978.8349999999998</v>
+        <v>979.0999999999999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>970</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
@@ -8900,30 +8822,32 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="E241" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>295</v>
+      </c>
+      <c r="G241" t="n">
+        <v>978.8349999999998</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
         <v>970</v>
       </c>
-      <c r="C241" t="n">
-        <v>970</v>
-      </c>
-      <c r="D241" t="n">
-        <v>970</v>
-      </c>
-      <c r="E241" t="n">
-        <v>970</v>
-      </c>
-      <c r="F241" t="n">
-        <v>490</v>
-      </c>
-      <c r="G241" t="n">
-        <v>978.6016666666666</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
@@ -8939,7 +8863,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>969.1</v>
+        <v>970</v>
       </c>
       <c r="C242" t="n">
         <v>970</v>
@@ -8948,21 +8872,23 @@
         <v>970</v>
       </c>
       <c r="E242" t="n">
+        <v>970</v>
+      </c>
+      <c r="F242" t="n">
+        <v>490</v>
+      </c>
+      <c r="G242" t="n">
+        <v>978.6016666666666</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
         <v>969.1</v>
       </c>
-      <c r="F242" t="n">
-        <v>2248</v>
-      </c>
-      <c r="G242" t="n">
-        <v>978.3016666666665</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
@@ -8981,7 +8907,7 @@
         <v>969.1</v>
       </c>
       <c r="C243" t="n">
-        <v>969.1</v>
+        <v>970</v>
       </c>
       <c r="D243" t="n">
         <v>970</v>
@@ -8990,18 +8916,20 @@
         <v>969.1</v>
       </c>
       <c r="F243" t="n">
-        <v>10272.9897</v>
+        <v>2248</v>
       </c>
       <c r="G243" t="n">
-        <v>978.0366666666665</v>
+        <v>978.3016666666665</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>970</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
@@ -9023,16 +8951,16 @@
         <v>969.1</v>
       </c>
       <c r="D244" t="n">
-        <v>969.1</v>
+        <v>970</v>
       </c>
       <c r="E244" t="n">
         <v>969.1</v>
       </c>
       <c r="F244" t="n">
-        <v>2060</v>
+        <v>10272.9897</v>
       </c>
       <c r="G244" t="n">
-        <v>977.7049999999998</v>
+        <v>978.0366666666665</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9056,22 +8984,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>969.2</v>
+        <v>969.1</v>
       </c>
       <c r="C245" t="n">
-        <v>969</v>
+        <v>969.1</v>
       </c>
       <c r="D245" t="n">
-        <v>970</v>
+        <v>969.1</v>
       </c>
       <c r="E245" t="n">
-        <v>968.2</v>
+        <v>969.1</v>
       </c>
       <c r="F245" t="n">
-        <v>2227.6691</v>
+        <v>2060</v>
       </c>
       <c r="G245" t="n">
-        <v>977.3533333333331</v>
+        <v>977.7049999999998</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9095,22 +9023,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
+        <v>969.2</v>
+      </c>
+      <c r="C246" t="n">
         <v>969</v>
       </c>
-      <c r="C246" t="n">
-        <v>969.1</v>
-      </c>
       <c r="D246" t="n">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="E246" t="n">
-        <v>968.1</v>
+        <v>968.2</v>
       </c>
       <c r="F246" t="n">
-        <v>2568.0379</v>
+        <v>2227.6691</v>
       </c>
       <c r="G246" t="n">
-        <v>976.9549999999998</v>
+        <v>977.3533333333331</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9134,22 +9062,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C247" t="n">
-        <v>971</v>
+        <v>969.1</v>
       </c>
       <c r="D247" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="E247" t="n">
-        <v>971</v>
+        <v>968.1</v>
       </c>
       <c r="F247" t="n">
-        <v>150</v>
+        <v>2568.0379</v>
       </c>
       <c r="G247" t="n">
-        <v>976.6199999999998</v>
+        <v>976.9549999999998</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9185,10 +9113,10 @@
         <v>971</v>
       </c>
       <c r="F248" t="n">
-        <v>525</v>
+        <v>150</v>
       </c>
       <c r="G248" t="n">
-        <v>976.2699999999999</v>
+        <v>976.6199999999998</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9224,10 +9152,10 @@
         <v>971</v>
       </c>
       <c r="F249" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="G249" t="n">
-        <v>975.8866666666665</v>
+        <v>976.2699999999999</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9263,10 +9191,10 @@
         <v>971</v>
       </c>
       <c r="F250" t="n">
-        <v>455.3978</v>
+        <v>375</v>
       </c>
       <c r="G250" t="n">
-        <v>975.5699999999998</v>
+        <v>975.8866666666665</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9290,7 +9218,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C251" t="n">
         <v>971</v>
@@ -9299,13 +9227,13 @@
         <v>971</v>
       </c>
       <c r="E251" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F251" t="n">
-        <v>1262.685</v>
+        <v>455.3978</v>
       </c>
       <c r="G251" t="n">
-        <v>975.3199999999998</v>
+        <v>975.5699999999998</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9329,7 +9257,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C252" t="n">
         <v>971</v>
@@ -9338,13 +9266,13 @@
         <v>971</v>
       </c>
       <c r="E252" t="n">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F252" t="n">
-        <v>78.49079999999999</v>
+        <v>1262.685</v>
       </c>
       <c r="G252" t="n">
-        <v>975.0866666666665</v>
+        <v>975.3199999999998</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9380,10 +9308,10 @@
         <v>971</v>
       </c>
       <c r="F253" t="n">
-        <v>39</v>
+        <v>78.49079999999999</v>
       </c>
       <c r="G253" t="n">
-        <v>974.8366666666665</v>
+        <v>975.0866666666665</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9419,10 +9347,10 @@
         <v>971</v>
       </c>
       <c r="F254" t="n">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="G254" t="n">
-        <v>974.5699999999998</v>
+        <v>974.8366666666665</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9446,7 +9374,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C255" t="n">
         <v>971</v>
@@ -9455,13 +9383,13 @@
         <v>971</v>
       </c>
       <c r="E255" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F255" t="n">
-        <v>1084.7551</v>
+        <v>265</v>
       </c>
       <c r="G255" t="n">
-        <v>974.3699999999998</v>
+        <v>974.5699999999998</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9485,22 +9413,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>970.1</v>
+        <v>970</v>
       </c>
       <c r="C256" t="n">
-        <v>970.1</v>
+        <v>971</v>
       </c>
       <c r="D256" t="n">
-        <v>970.1</v>
+        <v>971</v>
       </c>
       <c r="E256" t="n">
-        <v>970.1</v>
+        <v>970</v>
       </c>
       <c r="F256" t="n">
-        <v>1260</v>
+        <v>1084.7551</v>
       </c>
       <c r="G256" t="n">
-        <v>974.2899999999997</v>
+        <v>974.3699999999998</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9536,10 +9464,10 @@
         <v>970.1</v>
       </c>
       <c r="F257" t="n">
-        <v>1520</v>
+        <v>1260</v>
       </c>
       <c r="G257" t="n">
-        <v>974.1749999999997</v>
+        <v>974.2899999999997</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9558,6 +9486,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="E258" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1520</v>
+      </c>
+      <c r="G258" t="n">
+        <v>974.1749999999997</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-24 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-24 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2110</v>
       </c>
       <c r="G2" t="n">
+        <v>982.9333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>980.8383333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2135</v>
       </c>
       <c r="G3" t="n">
+        <v>983</v>
+      </c>
+      <c r="H3" t="n">
         <v>980.8883333333332</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2390</v>
       </c>
       <c r="G4" t="n">
+        <v>983</v>
+      </c>
+      <c r="H4" t="n">
         <v>980.9383333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3150.5406</v>
       </c>
       <c r="G5" t="n">
+        <v>983.4666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>981.1049999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>13.9069</v>
       </c>
       <c r="G6" t="n">
+        <v>983.74</v>
+      </c>
+      <c r="H6" t="n">
         <v>981.2233333333332</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>880</v>
       </c>
       <c r="G7" t="n">
+        <v>984.4</v>
+      </c>
+      <c r="H7" t="n">
         <v>981.4383333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>337.9885</v>
       </c>
       <c r="G8" t="n">
+        <v>985.0599999999999</v>
+      </c>
+      <c r="H8" t="n">
         <v>981.6533333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>3.2871</v>
       </c>
       <c r="G9" t="n">
+        <v>986.1933333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>981.9866666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>510.5478</v>
       </c>
       <c r="G10" t="n">
+        <v>987.3266666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>982.3033333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1149.9159</v>
       </c>
       <c r="G11" t="n">
+        <v>988.4599999999999</v>
+      </c>
+      <c r="H11" t="n">
         <v>982.62</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>12.6256</v>
       </c>
       <c r="G12" t="n">
+        <v>989.2733333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>982.8566666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>208.3106</v>
       </c>
       <c r="G13" t="n">
+        <v>990.0133333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>983.0749999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>76.7822</v>
       </c>
       <c r="G14" t="n">
+        <v>991.1466666666668</v>
+      </c>
+      <c r="H14" t="n">
         <v>983.3916666666665</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>205</v>
       </c>
       <c r="G15" t="n">
+        <v>992.2800000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>983.7083333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>45.1035</v>
       </c>
       <c r="G16" t="n">
+        <v>993.4133333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>983.9916666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1000</v>
       </c>
       <c r="G17" t="n">
+        <v>994.3200000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>984.2183333333331</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>230.7792</v>
       </c>
       <c r="G18" t="n">
+        <v>995.4533333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>984.5966666666665</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>36.9375</v>
       </c>
       <c r="G19" t="n">
+        <v>996.5866666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>984.9633333333331</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>305</v>
       </c>
       <c r="G20" t="n">
+        <v>997.2533333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>985.3466666666665</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>565</v>
       </c>
       <c r="G21" t="n">
+        <v>998.3133333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>985.6966666666665</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>945</v>
       </c>
       <c r="G22" t="n">
+        <v>998.9866666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>986.0466666666665</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1745</v>
       </c>
       <c r="G23" t="n">
+        <v>999.6600000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>986.4466666666665</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1033.555</v>
       </c>
       <c r="G24" t="n">
+        <v>999.8600000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>986.8466666666665</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>405</v>
       </c>
       <c r="G25" t="n">
+        <v>1000.06</v>
+      </c>
+      <c r="H25" t="n">
         <v>987.2299999999998</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1075</v>
       </c>
       <c r="G26" t="n">
+        <v>1000.26</v>
+      </c>
+      <c r="H26" t="n">
         <v>987.6133333333331</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>980</v>
       </c>
       <c r="G27" t="n">
+        <v>1000.78</v>
+      </c>
+      <c r="H27" t="n">
         <v>987.9966666666664</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1262.9188</v>
       </c>
       <c r="G28" t="n">
+        <v>1001.373333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>988.3799999999998</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>735</v>
       </c>
       <c r="G29" t="n">
+        <v>1001.573333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>988.7633333333331</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>1170</v>
       </c>
       <c r="G30" t="n">
+        <v>1001.773333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>989.1466666666664</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>83.6357</v>
       </c>
       <c r="G31" t="n">
+        <v>1001.973333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>989.5299999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>302.0098</v>
       </c>
       <c r="G32" t="n">
+        <v>1002.4</v>
+      </c>
+      <c r="H32" t="n">
         <v>989.9133333333332</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>2094.9879</v>
       </c>
       <c r="G33" t="n">
+        <v>1002.6</v>
+      </c>
+      <c r="H33" t="n">
         <v>990.2966666666665</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>734.0202</v>
       </c>
       <c r="G34" t="n">
+        <v>1002.8</v>
+      </c>
+      <c r="H34" t="n">
         <v>990.6799999999998</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1704.5054</v>
       </c>
       <c r="G35" t="n">
+        <v>1003</v>
+      </c>
+      <c r="H35" t="n">
         <v>991.0799999999998</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>980</v>
       </c>
       <c r="G36" t="n">
+        <v>1003</v>
+      </c>
+      <c r="H36" t="n">
         <v>991.4633333333331</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1352.4826</v>
       </c>
       <c r="G37" t="n">
+        <v>1003</v>
+      </c>
+      <c r="H37" t="n">
         <v>991.8466666666665</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>1086.755</v>
       </c>
       <c r="G38" t="n">
+        <v>1003</v>
+      </c>
+      <c r="H38" t="n">
         <v>992.2299999999998</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>214.4643</v>
       </c>
       <c r="G39" t="n">
+        <v>1003.133333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>992.6466666666664</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>840</v>
       </c>
       <c r="G40" t="n">
+        <v>1003.4</v>
+      </c>
+      <c r="H40" t="n">
         <v>993.0966666666665</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>215</v>
       </c>
       <c r="G41" t="n">
+        <v>1003.733333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>993.5633333333332</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1.063</v>
       </c>
       <c r="G42" t="n">
+        <v>1004.066666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>994.0299999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>8888.922</v>
       </c>
       <c r="G43" t="n">
+        <v>1004.8</v>
+      </c>
+      <c r="H43" t="n">
         <v>994.5966666666665</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>52.9213</v>
       </c>
       <c r="G44" t="n">
+        <v>1005.2</v>
+      </c>
+      <c r="H44" t="n">
         <v>995.0799999999998</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>15.9632</v>
       </c>
       <c r="G45" t="n">
+        <v>1005.666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>995.5799999999998</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>5.3197</v>
       </c>
       <c r="G46" t="n">
+        <v>1006.133333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>996.0799999999998</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1436.0931</v>
       </c>
       <c r="G47" t="n">
+        <v>1006.8</v>
+      </c>
+      <c r="H47" t="n">
         <v>996.6133333333331</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1272.35</v>
       </c>
       <c r="G48" t="n">
+        <v>1007.333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>997.0966666666665</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1230.3142</v>
       </c>
       <c r="G49" t="n">
+        <v>1007.933333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>997.5799999999998</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>3890.7458</v>
       </c>
       <c r="G50" t="n">
+        <v>1008.666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>998.0966666666665</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1323.7709</v>
       </c>
       <c r="G51" t="n">
+        <v>1009.533333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>998.6466666666664</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>2317.4607</v>
       </c>
       <c r="G52" t="n">
+        <v>1010.666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>999.2633333333331</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>3170.29812385</v>
       </c>
       <c r="G53" t="n">
+        <v>1011.733333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>999.8633333333331</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>560.6651000000001</v>
       </c>
       <c r="G54" t="n">
+        <v>1012.6</v>
+      </c>
+      <c r="H54" t="n">
         <v>1000.446666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>0.0001</v>
       </c>
       <c r="G55" t="n">
+        <v>1013.333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>1001.03</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>110</v>
       </c>
       <c r="G56" t="n">
+        <v>1013.266666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>1001.43</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>127.0772</v>
       </c>
       <c r="G57" t="n">
+        <v>1013.2</v>
+      </c>
+      <c r="H57" t="n">
         <v>1001.83</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>99</v>
       </c>
       <c r="G58" t="n">
+        <v>1013.266666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>1002.363333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>9.826700000000001</v>
       </c>
       <c r="G59" t="n">
+        <v>1013.6</v>
+      </c>
+      <c r="H59" t="n">
         <v>1002.88</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>55.0298</v>
       </c>
       <c r="G60" t="n">
+        <v>1014</v>
+      </c>
+      <c r="H60" t="n">
         <v>1003.43</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>4183.4472</v>
       </c>
       <c r="G61" t="n">
+        <v>1013.8</v>
+      </c>
+      <c r="H61" t="n">
         <v>1003.83</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>45.0577</v>
       </c>
       <c r="G62" t="n">
+        <v>1013.8</v>
+      </c>
+      <c r="H62" t="n">
         <v>1004.33</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1.7407</v>
       </c>
       <c r="G63" t="n">
+        <v>1013.933333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>1004.83</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>501.2606</v>
       </c>
       <c r="G64" t="n">
+        <v>1014</v>
+      </c>
+      <c r="H64" t="n">
         <v>1005.33</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>268.7537</v>
       </c>
       <c r="G65" t="n">
+        <v>1013.933333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>1005.713333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>68.6104</v>
       </c>
       <c r="G66" t="n">
+        <v>1013.866666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>1006.178333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>4309.3896</v>
       </c>
       <c r="G67" t="n">
+        <v>1013.6</v>
+      </c>
+      <c r="H67" t="n">
         <v>1006.563333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>1162.7402</v>
       </c>
       <c r="G68" t="n">
+        <v>1013.4</v>
+      </c>
+      <c r="H68" t="n">
         <v>1006.948333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>5.5719</v>
       </c>
       <c r="G69" t="n">
+        <v>1013.333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>1007.231666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>3</v>
       </c>
       <c r="G70" t="n">
+        <v>1012.933333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>1007.431666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>215.1747</v>
       </c>
       <c r="G71" t="n">
+        <v>1013.666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>1007.731666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>498.3158</v>
       </c>
       <c r="G72" t="n">
+        <v>1014.4</v>
+      </c>
+      <c r="H72" t="n">
         <v>1008.111666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>4675.3486</v>
       </c>
       <c r="G73" t="n">
+        <v>1014.733333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>1008.543333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1.2897</v>
       </c>
       <c r="G74" t="n">
+        <v>1014.8</v>
+      </c>
+      <c r="H74" t="n">
         <v>1008.793333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>96</v>
       </c>
       <c r="G75" t="n">
+        <v>1015.133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>1009.143333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>22</v>
       </c>
       <c r="G76" t="n">
+        <v>1015.333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>1009.31</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>56.1</v>
       </c>
       <c r="G77" t="n">
+        <v>1015</v>
+      </c>
+      <c r="H77" t="n">
         <v>1009.5</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>93.3122</v>
       </c>
       <c r="G78" t="n">
+        <v>1014.666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>1009.633333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>2183.8227</v>
       </c>
       <c r="G79" t="n">
+        <v>1014.466666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>1009.8</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>3</v>
       </c>
       <c r="G80" t="n">
+        <v>1014.333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>1009.983333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>726.4439</v>
       </c>
       <c r="G81" t="n">
+        <v>1013.733333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>1010.033333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>351.8095</v>
       </c>
       <c r="G82" t="n">
+        <v>1012.866666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>1010.033333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1077.6575</v>
       </c>
       <c r="G83" t="n">
+        <v>1012</v>
+      </c>
+      <c r="H83" t="n">
         <v>1010.033333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>100</v>
       </c>
       <c r="G84" t="n">
+        <v>1011.2</v>
+      </c>
+      <c r="H84" t="n">
         <v>1010.066666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>142.3317</v>
       </c>
       <c r="G85" t="n">
+        <v>1010.34</v>
+      </c>
+      <c r="H85" t="n">
         <v>1010.001666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>183.9092</v>
       </c>
       <c r="G86" t="n">
+        <v>1009.013333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>1009.92</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>21.0338</v>
       </c>
       <c r="G87" t="n">
+        <v>1007.68</v>
+      </c>
+      <c r="H87" t="n">
         <v>1009.836666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>10602.7139</v>
       </c>
       <c r="G88" t="n">
+        <v>1005.733333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>1009.633333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>3838.8505</v>
       </c>
       <c r="G89" t="n">
+        <v>1004.346666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>1009.486666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>360.1056</v>
       </c>
       <c r="G90" t="n">
+        <v>1002.48</v>
+      </c>
+      <c r="H90" t="n">
         <v>1009.32</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>3549.396</v>
       </c>
       <c r="G91" t="n">
+        <v>1001.346666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>1009.153333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>1200</v>
       </c>
       <c r="G92" t="n">
+        <v>1000.74</v>
+      </c>
+      <c r="H92" t="n">
         <v>1009.085</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>441.996</v>
       </c>
       <c r="G93" t="n">
+        <v>1000.006666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>1008.985</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>56.7</v>
       </c>
       <c r="G94" t="n">
+        <v>999.2</v>
+      </c>
+      <c r="H94" t="n">
         <v>1008.9</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>1313.5</v>
       </c>
       <c r="G95" t="n">
+        <v>998.3199999999999</v>
+      </c>
+      <c r="H95" t="n">
         <v>1008.813333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>894.8468</v>
       </c>
       <c r="G96" t="n">
+        <v>997.7733333333332</v>
+      </c>
+      <c r="H96" t="n">
         <v>1008.726666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
+        <v>997.4266666666665</v>
+      </c>
+      <c r="H97" t="n">
         <v>1008.64</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>1779.4222</v>
       </c>
       <c r="G98" t="n">
+        <v>997.1399999999999</v>
+      </c>
+      <c r="H98" t="n">
         <v>1008.568333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>1863.4218</v>
       </c>
       <c r="G99" t="n">
+        <v>996.7266666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>1008.465</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>1364</v>
       </c>
       <c r="G100" t="n">
+        <v>996.7133333333331</v>
+      </c>
+      <c r="H100" t="n">
         <v>1008.33</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>1696.7652</v>
       </c>
       <c r="G101" t="n">
+        <v>996.5733333333332</v>
+      </c>
+      <c r="H101" t="n">
         <v>1008.13</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>85.3399</v>
       </c>
       <c r="G102" t="n">
+        <v>996.1733333333331</v>
+      </c>
+      <c r="H102" t="n">
         <v>1007.863333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>56.7</v>
       </c>
       <c r="G103" t="n">
+        <v>996.1933333333332</v>
+      </c>
+      <c r="H103" t="n">
         <v>1007.481666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>812.2501999999999</v>
       </c>
       <c r="G104" t="n">
+        <v>995.9199999999998</v>
+      </c>
+      <c r="H104" t="n">
         <v>1007.166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>159.2685</v>
       </c>
       <c r="G105" t="n">
+        <v>995.5799999999998</v>
+      </c>
+      <c r="H105" t="n">
         <v>1006.798333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>183.8945</v>
       </c>
       <c r="G106" t="n">
+        <v>995.2933333333332</v>
+      </c>
+      <c r="H106" t="n">
         <v>1006.443333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>573</v>
       </c>
       <c r="G107" t="n">
+        <v>994.5799999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>1006.03</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>576</v>
       </c>
       <c r="G108" t="n">
+        <v>993.9933333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>1005.65</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>1010.4357</v>
       </c>
       <c r="G109" t="n">
+        <v>993.38</v>
+      </c>
+      <c r="H109" t="n">
         <v>1005.261666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>1.407</v>
       </c>
       <c r="G110" t="n">
+        <v>992.8000000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>1004.846666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>3090.9769</v>
       </c>
       <c r="G111" t="n">
+        <v>992.1600000000002</v>
+      </c>
+      <c r="H111" t="n">
         <v>1004.383333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>2046.1826</v>
       </c>
       <c r="G112" t="n">
+        <v>991.5200000000003</v>
+      </c>
+      <c r="H112" t="n">
         <v>1003.853333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>5967.17</v>
       </c>
       <c r="G113" t="n">
+        <v>990.8200000000003</v>
+      </c>
+      <c r="H113" t="n">
         <v>1003.34</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>8</v>
       </c>
       <c r="G114" t="n">
+        <v>990.0933333333337</v>
+      </c>
+      <c r="H114" t="n">
         <v>1002.838333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>537.9138</v>
       </c>
       <c r="G115" t="n">
+        <v>988.966666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>1002.238333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>416.2086</v>
       </c>
       <c r="G116" t="n">
+        <v>987.9066666666671</v>
+      </c>
+      <c r="H116" t="n">
         <v>1001.79</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>102.9866</v>
       </c>
       <c r="G117" t="n">
+        <v>987.106666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>1001.34</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>311</v>
       </c>
       <c r="G118" t="n">
+        <v>986.366666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>1000.756666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>555</v>
       </c>
       <c r="G119" t="n">
+        <v>985.6933333333337</v>
+      </c>
+      <c r="H119" t="n">
         <v>1000.19</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>360</v>
       </c>
       <c r="G120" t="n">
+        <v>985.1666666666671</v>
+      </c>
+      <c r="H120" t="n">
         <v>999.5899999999997</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>36</v>
       </c>
       <c r="G121" t="n">
+        <v>984.5866666666669</v>
+      </c>
+      <c r="H121" t="n">
         <v>999.1399999999996</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>159.5673</v>
       </c>
       <c r="G122" t="n">
+        <v>984.0400000000003</v>
+      </c>
+      <c r="H122" t="n">
         <v>998.5899999999997</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>149.8949</v>
       </c>
       <c r="G123" t="n">
+        <v>983.4933333333336</v>
+      </c>
+      <c r="H123" t="n">
         <v>998.0399999999996</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>551.2807</v>
       </c>
       <c r="G124" t="n">
+        <v>982.9133333333335</v>
+      </c>
+      <c r="H124" t="n">
         <v>997.4899999999997</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>48.7899</v>
       </c>
       <c r="G125" t="n">
+        <v>982.3066666666668</v>
+      </c>
+      <c r="H125" t="n">
         <v>996.9399999999997</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>180</v>
       </c>
       <c r="G126" t="n">
+        <v>981.7600000000001</v>
+      </c>
+      <c r="H126" t="n">
         <v>996.3566666666663</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>149.8949</v>
       </c>
       <c r="G127" t="n">
+        <v>981.2133333333334</v>
+      </c>
+      <c r="H127" t="n">
         <v>995.7566666666663</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>1209.7542</v>
       </c>
       <c r="G128" t="n">
+        <v>980.9333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>995.223333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>11</v>
       </c>
       <c r="G129" t="n">
+        <v>980.7333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>994.688333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>1.25989847</v>
       </c>
       <c r="G130" t="n">
+        <v>980.9333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>994.238333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>31.4083</v>
       </c>
       <c r="G131" t="n">
+        <v>981.26</v>
+      </c>
+      <c r="H131" t="n">
         <v>993.688333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>454.6541</v>
       </c>
       <c r="G132" t="n">
+        <v>981.66</v>
+      </c>
+      <c r="H132" t="n">
         <v>993.1549999999996</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>90.21899999999999</v>
       </c>
       <c r="G133" t="n">
+        <v>982.1266666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>992.6049999999997</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>2115.4115</v>
       </c>
       <c r="G134" t="n">
+        <v>982.5799999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>992.1349999999998</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>2117.4236</v>
       </c>
       <c r="G135" t="n">
+        <v>983.0333333333332</v>
+      </c>
+      <c r="H135" t="n">
         <v>991.5649999999998</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>760.4939000000001</v>
       </c>
       <c r="G136" t="n">
+        <v>983.6933333333332</v>
+      </c>
+      <c r="H136" t="n">
         <v>991.2299999999998</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>2.0001</v>
       </c>
       <c r="G137" t="n">
+        <v>984.1466666666664</v>
+      </c>
+      <c r="H137" t="n">
         <v>990.8766666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>10.5664</v>
       </c>
       <c r="G138" t="n">
+        <v>984.3866666666665</v>
+      </c>
+      <c r="H138" t="n">
         <v>990.4699999999998</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>20</v>
       </c>
       <c r="G139" t="n">
+        <v>984.9866666666665</v>
+      </c>
+      <c r="H139" t="n">
         <v>990.1199999999998</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
+        <v>985.5866666666665</v>
+      </c>
+      <c r="H140" t="n">
         <v>989.7533333333332</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>97.3207</v>
       </c>
       <c r="G141" t="n">
+        <v>985.6933333333332</v>
+      </c>
+      <c r="H141" t="n">
         <v>989.3466666666665</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>377.2719</v>
       </c>
       <c r="G142" t="n">
+        <v>986.2799999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>989.1099999999999</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>2225.8827</v>
       </c>
       <c r="G143" t="n">
+        <v>986.6133333333331</v>
+      </c>
+      <c r="H143" t="n">
         <v>988.8766666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
+        <v>986.9599999999998</v>
+      </c>
+      <c r="H144" t="n">
         <v>988.6283333333332</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>229.1409</v>
       </c>
       <c r="G145" t="n">
+        <v>986.6266666666666</v>
+      </c>
+      <c r="H145" t="n">
         <v>988.3099999999998</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>594.3040999999999</v>
       </c>
       <c r="G146" t="n">
+        <v>986.2933333333332</v>
+      </c>
+      <c r="H146" t="n">
         <v>988.0083333333332</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>1081.02588527</v>
       </c>
       <c r="G147" t="n">
+        <v>985.8933333333332</v>
+      </c>
+      <c r="H147" t="n">
         <v>987.7083333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>225.3498</v>
       </c>
       <c r="G148" t="n">
+        <v>985.3066666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>987.4983333333331</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>134.2999</v>
       </c>
       <c r="G149" t="n">
+        <v>984.7333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>987.2316666666665</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>224.6452</v>
       </c>
       <c r="G150" t="n">
+        <v>984.1600000000001</v>
+      </c>
+      <c r="H150" t="n">
         <v>986.9849999999998</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>270</v>
       </c>
       <c r="G151" t="n">
+        <v>983.0333333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>986.6516666666664</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>56.7999</v>
       </c>
       <c r="G152" t="n">
+        <v>982.4133333333335</v>
+      </c>
+      <c r="H152" t="n">
         <v>986.2949999999997</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>301.7762</v>
       </c>
       <c r="G153" t="n">
+        <v>982.0066666666668</v>
+      </c>
+      <c r="H153" t="n">
         <v>985.9699999999997</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>251.5855</v>
       </c>
       <c r="G154" t="n">
+        <v>980.9400000000002</v>
+      </c>
+      <c r="H154" t="n">
         <v>985.5549999999997</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>713.5</v>
       </c>
       <c r="G155" t="n">
+        <v>979.9000000000001</v>
+      </c>
+      <c r="H155" t="n">
         <v>985.148333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>210</v>
       </c>
       <c r="G156" t="n">
+        <v>979.2800000000001</v>
+      </c>
+      <c r="H156" t="n">
         <v>984.723333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>273.9021</v>
       </c>
       <c r="G157" t="n">
+        <v>978.4200000000001</v>
+      </c>
+      <c r="H157" t="n">
         <v>984.358333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>310.3928</v>
       </c>
       <c r="G158" t="n">
+        <v>977.5466666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>983.978333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>149.8949</v>
       </c>
       <c r="G159" t="n">
+        <v>976.6</v>
+      </c>
+      <c r="H159" t="n">
         <v>983.5966666666664</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>238.9995</v>
       </c>
       <c r="G160" t="n">
+        <v>976.3266666666666</v>
+      </c>
+      <c r="H160" t="n">
         <v>983.213333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>149.8949</v>
       </c>
       <c r="G161" t="n">
+        <v>976.0533333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>982.878333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>149.8949</v>
       </c>
       <c r="G162" t="n">
+        <v>975.78</v>
+      </c>
+      <c r="H162" t="n">
         <v>982.6099999999998</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>350</v>
       </c>
       <c r="G163" t="n">
+        <v>975.8999999999999</v>
+      </c>
+      <c r="H163" t="n">
         <v>982.4249999999997</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>51.3857</v>
       </c>
       <c r="G164" t="n">
+        <v>975.6999999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>982.1766666666664</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>1036.9764</v>
       </c>
       <c r="G165" t="n">
+        <v>975.4199999999998</v>
+      </c>
+      <c r="H165" t="n">
         <v>981.9449999999997</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>250</v>
       </c>
       <c r="G166" t="n">
+        <v>975.7533333333332</v>
+      </c>
+      <c r="H166" t="n">
         <v>981.7666666666664</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>705</v>
       </c>
       <c r="G167" t="n">
+        <v>976.2533333333332</v>
+      </c>
+      <c r="H167" t="n">
         <v>981.7133333333331</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>878.0089</v>
       </c>
       <c r="G168" t="n">
+        <v>976.7533333333332</v>
+      </c>
+      <c r="H168" t="n">
         <v>981.6599999999999</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>10.2577</v>
       </c>
       <c r="G169" t="n">
+        <v>977.4199999999998</v>
+      </c>
+      <c r="H169" t="n">
         <v>981.5649999999999</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>1936.2225</v>
       </c>
       <c r="G170" t="n">
+        <v>978.0599999999998</v>
+      </c>
+      <c r="H170" t="n">
         <v>981.4633333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>337.9516</v>
       </c>
       <c r="G171" t="n">
+        <v>978.7733333333332</v>
+      </c>
+      <c r="H171" t="n">
         <v>981.3766666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>2212.72</v>
       </c>
       <c r="G172" t="n">
+        <v>979.0466666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>981.24</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>1931.0256</v>
       </c>
       <c r="G173" t="n">
+        <v>979.3199999999999</v>
+      </c>
+      <c r="H173" t="n">
         <v>981.1033333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>1015.0047</v>
       </c>
       <c r="G174" t="n">
+        <v>979.86</v>
+      </c>
+      <c r="H174" t="n">
         <v>981.0383333333334</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>725.4074000000001</v>
       </c>
       <c r="G175" t="n">
+        <v>980.4</v>
+      </c>
+      <c r="H175" t="n">
         <v>981.0716666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>0.0001</v>
       </c>
       <c r="G176" t="n">
+        <v>981.0066666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>981.1533333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>29.9999</v>
       </c>
       <c r="G177" t="n">
+        <v>981.6133333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>981.2366666666668</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>235.521</v>
       </c>
       <c r="G178" t="n">
+        <v>981.7666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>981.2750000000001</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>56.5855</v>
       </c>
       <c r="G179" t="n">
+        <v>982.42</v>
+      </c>
+      <c r="H179" t="n">
         <v>981.3583333333335</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>75.2</v>
       </c>
       <c r="G180" t="n">
+        <v>983.2266666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>981.4600000000002</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7255,21 @@
         <v>43.3</v>
       </c>
       <c r="G181" t="n">
+        <v>983.6933333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>981.5433333333334</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7293,21 @@
         <v>369.4113</v>
       </c>
       <c r="G182" t="n">
+        <v>983.6266666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>981.6100000000001</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7331,21 @@
         <v>11</v>
       </c>
       <c r="G183" t="n">
+        <v>983.8266666666666</v>
+      </c>
+      <c r="H183" t="n">
         <v>981.7433333333335</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7369,21 @@
         <v>1627.2444</v>
       </c>
       <c r="G184" t="n">
+        <v>983.9599999999999</v>
+      </c>
+      <c r="H184" t="n">
         <v>981.8266666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7407,21 @@
         <v>515.9147</v>
       </c>
       <c r="G185" t="n">
+        <v>984.36</v>
+      </c>
+      <c r="H185" t="n">
         <v>981.9766666666668</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7445,21 @@
         <v>53</v>
       </c>
       <c r="G186" t="n">
+        <v>984.8333333333334</v>
+      </c>
+      <c r="H186" t="n">
         <v>982.1450000000001</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7483,21 @@
         <v>189.8852</v>
       </c>
       <c r="G187" t="n">
+        <v>985.7</v>
+      </c>
+      <c r="H187" t="n">
         <v>982.3616666666668</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7521,21 @@
         <v>1998.6616</v>
       </c>
       <c r="G188" t="n">
+        <v>986.4400000000001</v>
+      </c>
+      <c r="H188" t="n">
         <v>982.48</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7559,21 @@
         <v>1521.2517</v>
       </c>
       <c r="G189" t="n">
+        <v>986.9733333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>982.5983333333334</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7597,21 @@
         <v>83.99509999999999</v>
       </c>
       <c r="G190" t="n">
+        <v>987.64</v>
+      </c>
+      <c r="H190" t="n">
         <v>982.7483333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7635,21 @@
         <v>304.0473</v>
       </c>
       <c r="G191" t="n">
+        <v>987.9733333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>982.8316666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7673,21 @@
         <v>1295.2411</v>
       </c>
       <c r="G192" t="n">
+        <v>988.0400000000001</v>
+      </c>
+      <c r="H192" t="n">
         <v>982.8316666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7711,21 @@
         <v>94.0515</v>
       </c>
       <c r="G193" t="n">
+        <v>988.22</v>
+      </c>
+      <c r="H193" t="n">
         <v>982.7983333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7749,21 @@
         <v>299.6071</v>
       </c>
       <c r="G194" t="n">
+        <v>988.2866666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>982.785</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7787,21 @@
         <v>534.9586</v>
       </c>
       <c r="G195" t="n">
+        <v>988.3466666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>982.7883333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7825,21 @@
         <v>1186.6112</v>
       </c>
       <c r="G196" t="n">
+        <v>988.2133333333334</v>
+      </c>
+      <c r="H196" t="n">
         <v>982.6733333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7863,21 @@
         <v>4675.3486</v>
       </c>
       <c r="G197" t="n">
+        <v>987.6066666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>982.4749999999999</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +7901,21 @@
         <v>1495.092</v>
       </c>
       <c r="G198" t="n">
+        <v>986.8733333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>982.3649999999999</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +7939,21 @@
         <v>7.7098</v>
       </c>
       <c r="G199" t="n">
+        <v>986.34</v>
+      </c>
+      <c r="H199" t="n">
         <v>982.1649999999998</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +7977,21 @@
         <v>4233.3197</v>
       </c>
       <c r="G200" t="n">
+        <v>985.4599999999999</v>
+      </c>
+      <c r="H200" t="n">
         <v>981.9449999999999</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8015,21 @@
         <v>3231.0885</v>
       </c>
       <c r="G201" t="n">
+        <v>984.6533333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>981.885</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8053,21 @@
         <v>1700.3399</v>
       </c>
       <c r="G202" t="n">
+        <v>984.0533333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>981.8049999999999</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8091,21 @@
         <v>2109.0198</v>
       </c>
       <c r="G203" t="n">
+        <v>983.6466666666666</v>
+      </c>
+      <c r="H203" t="n">
         <v>981.7383333333332</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8129,21 @@
         <v>1457.458</v>
       </c>
       <c r="G204" t="n">
+        <v>982.9799999999999</v>
+      </c>
+      <c r="H204" t="n">
         <v>981.6033333333332</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8167,21 @@
         <v>2571.7923</v>
       </c>
       <c r="G205" t="n">
+        <v>982.2466666666666</v>
+      </c>
+      <c r="H205" t="n">
         <v>981.6533333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8205,21 @@
         <v>1589.0973</v>
       </c>
       <c r="G206" t="n">
+        <v>981.7133333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>981.6866666666666</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8243,21 @@
         <v>1833.9999</v>
       </c>
       <c r="G207" t="n">
+        <v>981.3133333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>981.6866666666666</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8281,21 @@
         <v>1301.6192</v>
       </c>
       <c r="G208" t="n">
+        <v>980.9799999999999</v>
+      </c>
+      <c r="H208" t="n">
         <v>981.7166666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8319,21 @@
         <v>186.6938</v>
       </c>
       <c r="G209" t="n">
+        <v>980.5799999999999</v>
+      </c>
+      <c r="H209" t="n">
         <v>981.7466666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8357,21 @@
         <v>111.9319</v>
       </c>
       <c r="G210" t="n">
+        <v>980.1133333333332</v>
+      </c>
+      <c r="H210" t="n">
         <v>981.7766666666668</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8395,21 @@
         <v>695.2812</v>
       </c>
       <c r="G211" t="n">
+        <v>979.9133333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>981.8933333333334</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8433,21 @@
         <v>4087</v>
       </c>
       <c r="G212" t="n">
+        <v>980.12</v>
+      </c>
+      <c r="H212" t="n">
         <v>981.9016666666668</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8471,21 @@
         <v>4446</v>
       </c>
       <c r="G213" t="n">
+        <v>980.2533333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>981.9266666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8509,21 @@
         <v>1612.8485</v>
       </c>
       <c r="G214" t="n">
+        <v>980.1866666666666</v>
+      </c>
+      <c r="H214" t="n">
         <v>981.9766666666668</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8547,21 @@
         <v>1655</v>
       </c>
       <c r="G215" t="n">
+        <v>980.2</v>
+      </c>
+      <c r="H215" t="n">
         <v>982.0200000000001</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8585,21 @@
         <v>22</v>
       </c>
       <c r="G216" t="n">
+        <v>980.0666666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>982.0816666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8623,21 @@
         <v>751.0472</v>
       </c>
       <c r="G217" t="n">
+        <v>979.4666666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>982.0666666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +8661,21 @@
         <v>3882.8352</v>
       </c>
       <c r="G218" t="n">
+        <v>978.8666666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>982.0683333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +8699,21 @@
         <v>1866</v>
       </c>
       <c r="G219" t="n">
+        <v>978.3333333333334</v>
+      </c>
+      <c r="H219" t="n">
         <v>982.0366666666666</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +8737,21 @@
         <v>2421</v>
       </c>
       <c r="G220" t="n">
+        <v>977.7333333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>982.0049999999999</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +8775,21 @@
         <v>3689</v>
       </c>
       <c r="G221" t="n">
+        <v>977.3333333333334</v>
+      </c>
+      <c r="H221" t="n">
         <v>982.0066666666665</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +8813,21 @@
         <v>2591.8718</v>
       </c>
       <c r="G222" t="n">
+        <v>976.9333333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>981.9749999999999</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +8851,21 @@
         <v>2120</v>
       </c>
       <c r="G223" t="n">
+        <v>976.6666666666666</v>
+      </c>
+      <c r="H223" t="n">
         <v>981.9083333333332</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +8889,21 @@
         <v>2334</v>
       </c>
       <c r="G224" t="n">
+        <v>976.4</v>
+      </c>
+      <c r="H224" t="n">
         <v>981.9216666666666</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +8927,21 @@
         <v>401</v>
       </c>
       <c r="G225" t="n">
+        <v>976</v>
+      </c>
+      <c r="H225" t="n">
         <v>981.9216666666666</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +8965,21 @@
         <v>1675</v>
       </c>
       <c r="G226" t="n">
+        <v>975.6666666666666</v>
+      </c>
+      <c r="H226" t="n">
         <v>981.8716666666666</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9003,21 @@
         <v>1769.451</v>
       </c>
       <c r="G227" t="n">
+        <v>975.4666666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>981.7049999999999</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9041,21 @@
         <v>930</v>
       </c>
       <c r="G228" t="n">
+        <v>975.2</v>
+      </c>
+      <c r="H228" t="n">
         <v>981.5383333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9079,21 @@
         <v>375</v>
       </c>
       <c r="G229" t="n">
+        <v>975.1333333333333</v>
+      </c>
+      <c r="H229" t="n">
         <v>981.405</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9117,21 @@
         <v>4388.9243</v>
       </c>
       <c r="G230" t="n">
+        <v>975</v>
+      </c>
+      <c r="H230" t="n">
         <v>981.2549999999999</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9155,21 @@
         <v>1669.0688</v>
       </c>
       <c r="G231" t="n">
+        <v>974.8</v>
+      </c>
+      <c r="H231" t="n">
         <v>981.0883333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9193,21 @@
         <v>1758.3996</v>
       </c>
       <c r="G232" t="n">
+        <v>974.6</v>
+      </c>
+      <c r="H232" t="n">
         <v>980.9549999999999</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9231,21 @@
         <v>1817.8354</v>
       </c>
       <c r="G233" t="n">
+        <v>974.2</v>
+      </c>
+      <c r="H233" t="n">
         <v>980.7883333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9269,21 @@
         <v>2560.1931</v>
       </c>
       <c r="G234" t="n">
+        <v>974</v>
+      </c>
+      <c r="H234" t="n">
         <v>980.5716666666666</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9307,21 @@
         <v>2774.1695</v>
       </c>
       <c r="G235" t="n">
+        <v>973.7333333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>980.3383333333333</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9345,21 @@
         <v>1167.9999</v>
       </c>
       <c r="G236" t="n">
+        <v>973.2733333333333</v>
+      </c>
+      <c r="H236" t="n">
         <v>980.0733333333333</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,855 +9383,1297 @@
         <v>2629.0001</v>
       </c>
       <c r="G237" t="n">
+        <v>973.0066666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>979.8233333333333</v>
       </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
       <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>970</v>
+      </c>
+      <c r="C238" t="n">
+        <v>970</v>
+      </c>
+      <c r="D238" t="n">
+        <v>970</v>
+      </c>
+      <c r="E238" t="n">
+        <v>970</v>
+      </c>
+      <c r="F238" t="n">
+        <v>875.4041</v>
+      </c>
+      <c r="G238" t="n">
+        <v>972.6066666666667</v>
+      </c>
+      <c r="H238" t="n">
+        <v>979.6183333333332</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>970</v>
+      </c>
+      <c r="C239" t="n">
+        <v>970</v>
+      </c>
+      <c r="D239" t="n">
+        <v>970</v>
+      </c>
+      <c r="E239" t="n">
+        <v>970</v>
+      </c>
+      <c r="F239" t="n">
+        <v>997.1909000000001</v>
+      </c>
+      <c r="G239" t="n">
+        <v>972.2066666666667</v>
+      </c>
+      <c r="H239" t="n">
+        <v>979.3683333333332</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>969</v>
+      </c>
+      <c r="C240" t="n">
+        <v>970</v>
+      </c>
+      <c r="D240" t="n">
+        <v>970</v>
+      </c>
+      <c r="E240" t="n">
+        <v>969</v>
+      </c>
+      <c r="F240" t="n">
+        <v>43.0379</v>
+      </c>
+      <c r="G240" t="n">
+        <v>971.9400000000001</v>
+      </c>
+      <c r="H240" t="n">
+        <v>979.0999999999999</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
         <v>969.1</v>
       </c>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+      <c r="C241" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="E241" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>295</v>
+      </c>
+      <c r="G241" t="n">
+        <v>971.5466666666667</v>
+      </c>
+      <c r="H241" t="n">
+        <v>978.8349999999998</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>970</v>
+      </c>
+      <c r="C242" t="n">
+        <v>970</v>
+      </c>
+      <c r="D242" t="n">
+        <v>970</v>
+      </c>
+      <c r="E242" t="n">
+        <v>970</v>
+      </c>
+      <c r="F242" t="n">
+        <v>490</v>
+      </c>
+      <c r="G242" t="n">
+        <v>971.2133333333334</v>
+      </c>
+      <c r="H242" t="n">
+        <v>978.6016666666666</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>970</v>
+      </c>
+      <c r="D243" t="n">
+        <v>970</v>
+      </c>
+      <c r="E243" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2248</v>
+      </c>
+      <c r="G243" t="n">
+        <v>970.88</v>
+      </c>
+      <c r="H243" t="n">
+        <v>978.3016666666665</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>970</v>
+      </c>
+      <c r="E244" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>10272.9897</v>
+      </c>
+      <c r="G244" t="n">
+        <v>970.4866666666668</v>
+      </c>
+      <c r="H244" t="n">
+        <v>978.0366666666665</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2060</v>
+      </c>
+      <c r="G245" t="n">
+        <v>970.1600000000001</v>
+      </c>
+      <c r="H245" t="n">
+        <v>977.7049999999998</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>969.2</v>
+      </c>
+      <c r="C246" t="n">
+        <v>969</v>
+      </c>
+      <c r="D246" t="n">
+        <v>970</v>
+      </c>
+      <c r="E246" t="n">
+        <v>968.2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2227.6691</v>
+      </c>
+      <c r="G246" t="n">
+        <v>969.8933333333334</v>
+      </c>
+      <c r="H246" t="n">
+        <v>977.3533333333331</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>969</v>
+      </c>
+      <c r="C247" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>974</v>
+      </c>
+      <c r="E247" t="n">
+        <v>968.1</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2568.0379</v>
+      </c>
+      <c r="G247" t="n">
+        <v>969.7000000000002</v>
+      </c>
+      <c r="H247" t="n">
+        <v>976.9549999999998</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>971</v>
+      </c>
+      <c r="C248" t="n">
+        <v>971</v>
+      </c>
+      <c r="D248" t="n">
+        <v>971</v>
+      </c>
+      <c r="E248" t="n">
+        <v>971</v>
+      </c>
+      <c r="F248" t="n">
+        <v>150</v>
+      </c>
+      <c r="G248" t="n">
+        <v>969.7666666666668</v>
+      </c>
+      <c r="H248" t="n">
+        <v>976.6199999999998</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>971</v>
+      </c>
+      <c r="C249" t="n">
+        <v>971</v>
+      </c>
+      <c r="D249" t="n">
+        <v>971</v>
+      </c>
+      <c r="E249" t="n">
+        <v>971</v>
+      </c>
+      <c r="F249" t="n">
+        <v>525</v>
+      </c>
+      <c r="G249" t="n">
+        <v>969.7666666666668</v>
+      </c>
+      <c r="H249" t="n">
+        <v>976.2699999999999</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>971</v>
+      </c>
+      <c r="C250" t="n">
+        <v>971</v>
+      </c>
+      <c r="D250" t="n">
+        <v>971</v>
+      </c>
+      <c r="E250" t="n">
+        <v>971</v>
+      </c>
+      <c r="F250" t="n">
+        <v>375</v>
+      </c>
+      <c r="G250" t="n">
+        <v>969.8333333333335</v>
+      </c>
+      <c r="H250" t="n">
+        <v>975.8866666666665</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>971</v>
+      </c>
+      <c r="C251" t="n">
+        <v>971</v>
+      </c>
+      <c r="D251" t="n">
+        <v>971</v>
+      </c>
+      <c r="E251" t="n">
+        <v>971</v>
+      </c>
+      <c r="F251" t="n">
+        <v>455.3978</v>
+      </c>
+      <c r="G251" t="n">
+        <v>969.9600000000002</v>
+      </c>
+      <c r="H251" t="n">
+        <v>975.5699999999998</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>970</v>
+      </c>
+      <c r="C252" t="n">
+        <v>971</v>
+      </c>
+      <c r="D252" t="n">
+        <v>971</v>
+      </c>
+      <c r="E252" t="n">
+        <v>970</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1262.685</v>
+      </c>
+      <c r="G252" t="n">
+        <v>970.0266666666668</v>
+      </c>
+      <c r="H252" t="n">
+        <v>975.3199999999998</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>971</v>
+      </c>
+      <c r="C253" t="n">
+        <v>971</v>
+      </c>
+      <c r="D253" t="n">
+        <v>971</v>
+      </c>
+      <c r="E253" t="n">
+        <v>971</v>
+      </c>
+      <c r="F253" t="n">
+        <v>78.49079999999999</v>
+      </c>
+      <c r="G253" t="n">
+        <v>970.0933333333335</v>
+      </c>
+      <c r="H253" t="n">
+        <v>975.0866666666665</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>971</v>
+      </c>
+      <c r="C254" t="n">
+        <v>971</v>
+      </c>
+      <c r="D254" t="n">
+        <v>971</v>
+      </c>
+      <c r="E254" t="n">
+        <v>971</v>
+      </c>
+      <c r="F254" t="n">
+        <v>39</v>
+      </c>
+      <c r="G254" t="n">
+        <v>970.1600000000001</v>
+      </c>
+      <c r="H254" t="n">
+        <v>974.8366666666665</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>971</v>
+      </c>
+      <c r="L254" t="n">
+        <v>971</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>971</v>
+      </c>
+      <c r="C255" t="n">
+        <v>971</v>
+      </c>
+      <c r="D255" t="n">
+        <v>971</v>
+      </c>
+      <c r="E255" t="n">
+        <v>971</v>
+      </c>
+      <c r="F255" t="n">
+        <v>265</v>
+      </c>
+      <c r="G255" t="n">
+        <v>970.2266666666668</v>
+      </c>
+      <c r="H255" t="n">
+        <v>974.5699999999998</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>971</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>970</v>
+      </c>
+      <c r="C256" t="n">
+        <v>971</v>
+      </c>
+      <c r="D256" t="n">
+        <v>971</v>
+      </c>
+      <c r="E256" t="n">
+        <v>970</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1084.7551</v>
+      </c>
+      <c r="G256" t="n">
+        <v>970.3533333333334</v>
+      </c>
+      <c r="H256" t="n">
+        <v>974.3699999999998</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>971</v>
+      </c>
+      <c r="M256" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>970</v>
-      </c>
-      <c r="C238" t="n">
-        <v>970</v>
-      </c>
-      <c r="D238" t="n">
-        <v>970</v>
-      </c>
-      <c r="E238" t="n">
-        <v>970</v>
-      </c>
-      <c r="F238" t="n">
-        <v>875.4041</v>
-      </c>
-      <c r="G238" t="n">
-        <v>979.6183333333332</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
-        <v>970</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="E257" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1260</v>
+      </c>
+      <c r="G257" t="n">
+        <v>970.3600000000001</v>
+      </c>
+      <c r="H257" t="n">
+        <v>974.2899999999997</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>971</v>
+      </c>
+      <c r="M257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>970</v>
-      </c>
-      <c r="C239" t="n">
-        <v>970</v>
-      </c>
-      <c r="D239" t="n">
-        <v>970</v>
-      </c>
-      <c r="E239" t="n">
-        <v>970</v>
-      </c>
-      <c r="F239" t="n">
-        <v>997.1909000000001</v>
-      </c>
-      <c r="G239" t="n">
-        <v>979.3683333333332</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="n">
-        <v>970</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="E258" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1520</v>
+      </c>
+      <c r="G258" t="n">
+        <v>970.3666666666668</v>
+      </c>
+      <c r="H258" t="n">
+        <v>974.1749999999997</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="L258" t="n">
+        <v>971</v>
+      </c>
+      <c r="M258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>971</v>
+      </c>
+      <c r="C259" t="n">
         <v>969</v>
       </c>
-      <c r="C240" t="n">
-        <v>970</v>
-      </c>
-      <c r="D240" t="n">
-        <v>970</v>
-      </c>
-      <c r="E240" t="n">
+      <c r="D259" t="n">
+        <v>971</v>
+      </c>
+      <c r="E259" t="n">
         <v>969</v>
       </c>
-      <c r="F240" t="n">
-        <v>43.0379</v>
-      </c>
-      <c r="G240" t="n">
-        <v>979.0999999999999</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="n">
-        <v>970</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
+      <c r="F259" t="n">
+        <v>9342.4238</v>
+      </c>
+      <c r="G259" t="n">
+        <v>970.3600000000001</v>
+      </c>
+      <c r="H259" t="n">
+        <v>974.0416666666664</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="L259" t="n">
+        <v>971</v>
+      </c>
+      <c r="M259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="C241" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="D241" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="E241" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="F241" t="n">
-        <v>295</v>
-      </c>
-      <c r="G241" t="n">
-        <v>978.8349999999998</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
         <v>970</v>
       </c>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
+      <c r="C260" t="n">
+        <v>971</v>
+      </c>
+      <c r="D260" t="n">
+        <v>971</v>
+      </c>
+      <c r="E260" t="n">
+        <v>969</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3759.5357</v>
+      </c>
+      <c r="G260" t="n">
+        <v>970.4866666666668</v>
+      </c>
+      <c r="H260" t="n">
+        <v>973.9616666666664</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>971</v>
+      </c>
+      <c r="M260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
         <v>970</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C261" t="n">
         <v>970</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D261" t="n">
         <v>970</v>
       </c>
-      <c r="E242" t="n">
-        <v>970</v>
-      </c>
-      <c r="F242" t="n">
-        <v>490</v>
-      </c>
-      <c r="G242" t="n">
-        <v>978.6016666666666</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
+      <c r="E261" t="n">
+        <v>968</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2422.9998</v>
+      </c>
+      <c r="G261" t="n">
+        <v>970.5533333333334</v>
+      </c>
+      <c r="H261" t="n">
+        <v>973.828333333333</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>971</v>
+      </c>
+      <c r="M261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="C243" t="n">
-        <v>970</v>
-      </c>
-      <c r="D243" t="n">
-        <v>970</v>
-      </c>
-      <c r="E243" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="F243" t="n">
-        <v>2248</v>
-      </c>
-      <c r="G243" t="n">
-        <v>978.3016666666665</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
-        <v>970</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>969</v>
+      </c>
+      <c r="C262" t="n">
+        <v>969</v>
+      </c>
+      <c r="D262" t="n">
+        <v>971</v>
+      </c>
+      <c r="E262" t="n">
+        <v>969</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1212.3504</v>
+      </c>
+      <c r="G262" t="n">
+        <v>970.5466666666667</v>
+      </c>
+      <c r="H262" t="n">
+        <v>973.578333333333</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>971</v>
+      </c>
+      <c r="M262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="C244" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="D244" t="n">
-        <v>970</v>
-      </c>
-      <c r="E244" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="F244" t="n">
-        <v>10272.9897</v>
-      </c>
-      <c r="G244" t="n">
-        <v>978.0366666666665</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>968</v>
+      </c>
+      <c r="C263" t="n">
+        <v>968</v>
+      </c>
+      <c r="D263" t="n">
+        <v>969</v>
+      </c>
+      <c r="E263" t="n">
+        <v>968</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2052.744</v>
+      </c>
+      <c r="G263" t="n">
+        <v>970.3466666666667</v>
+      </c>
+      <c r="H263" t="n">
+        <v>973.2949999999997</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>971</v>
+      </c>
+      <c r="M263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="C245" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="D245" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="E245" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="F245" t="n">
-        <v>2060</v>
-      </c>
-      <c r="G245" t="n">
-        <v>977.7049999999998</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>967</v>
+      </c>
+      <c r="C264" t="n">
+        <v>966</v>
+      </c>
+      <c r="D264" t="n">
+        <v>969</v>
+      </c>
+      <c r="E264" t="n">
+        <v>966</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1435.6054</v>
+      </c>
+      <c r="G264" t="n">
+        <v>970.0133333333334</v>
+      </c>
+      <c r="H264" t="n">
+        <v>973.0283333333331</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>971</v>
+      </c>
+      <c r="M264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>969.2</v>
-      </c>
-      <c r="C246" t="n">
-        <v>969</v>
-      </c>
-      <c r="D246" t="n">
-        <v>970</v>
-      </c>
-      <c r="E246" t="n">
-        <v>968.2</v>
-      </c>
-      <c r="F246" t="n">
-        <v>2227.6691</v>
-      </c>
-      <c r="G246" t="n">
-        <v>977.3533333333331</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>966</v>
+      </c>
+      <c r="C265" t="n">
+        <v>966</v>
+      </c>
+      <c r="D265" t="n">
+        <v>967</v>
+      </c>
+      <c r="E265" t="n">
+        <v>965</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1750</v>
+      </c>
+      <c r="G265" t="n">
+        <v>969.6800000000001</v>
+      </c>
+      <c r="H265" t="n">
+        <v>972.7449999999997</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>971</v>
+      </c>
+      <c r="M265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>969</v>
-      </c>
-      <c r="C247" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="D247" t="n">
-        <v>974</v>
-      </c>
-      <c r="E247" t="n">
-        <v>968.1</v>
-      </c>
-      <c r="F247" t="n">
-        <v>2568.0379</v>
-      </c>
-      <c r="G247" t="n">
-        <v>976.9549999999998</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>966</v>
+      </c>
+      <c r="C266" t="n">
+        <v>966</v>
+      </c>
+      <c r="D266" t="n">
+        <v>966</v>
+      </c>
+      <c r="E266" t="n">
+        <v>964</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1524</v>
+      </c>
+      <c r="G266" t="n">
+        <v>969.3466666666667</v>
+      </c>
+      <c r="H266" t="n">
+        <v>972.478333333333</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>966</v>
+      </c>
+      <c r="L266" t="n">
+        <v>971</v>
+      </c>
+      <c r="M266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>966</v>
+      </c>
+      <c r="C267" t="n">
+        <v>966</v>
+      </c>
+      <c r="D267" t="n">
+        <v>966</v>
+      </c>
+      <c r="E267" t="n">
+        <v>966</v>
+      </c>
+      <c r="F267" t="n">
+        <v>225</v>
+      </c>
+      <c r="G267" t="n">
+        <v>969.0133333333334</v>
+      </c>
+      <c r="H267" t="n">
+        <v>972.2449999999997</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>966</v>
+      </c>
+      <c r="L267" t="n">
         <v>971</v>
       </c>
-      <c r="C248" t="n">
-        <v>971</v>
-      </c>
-      <c r="D248" t="n">
-        <v>971</v>
-      </c>
-      <c r="E248" t="n">
-        <v>971</v>
-      </c>
-      <c r="F248" t="n">
-        <v>150</v>
-      </c>
-      <c r="G248" t="n">
-        <v>976.6199999999998</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
+      <c r="M267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>966</v>
+      </c>
+      <c r="C268" t="n">
+        <v>966</v>
+      </c>
+      <c r="D268" t="n">
+        <v>966</v>
+      </c>
+      <c r="E268" t="n">
+        <v>965</v>
+      </c>
+      <c r="F268" t="n">
+        <v>4592.5535</v>
+      </c>
+      <c r="G268" t="n">
+        <v>968.6800000000001</v>
+      </c>
+      <c r="H268" t="n">
+        <v>972.0116666666664</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>966</v>
+      </c>
+      <c r="L268" t="n">
         <v>971</v>
       </c>
-      <c r="C249" t="n">
-        <v>971</v>
-      </c>
-      <c r="D249" t="n">
-        <v>971</v>
-      </c>
-      <c r="E249" t="n">
-        <v>971</v>
-      </c>
-      <c r="F249" t="n">
-        <v>525</v>
-      </c>
-      <c r="G249" t="n">
-        <v>976.2699999999999</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
+      <c r="M268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>971</v>
-      </c>
-      <c r="C250" t="n">
-        <v>971</v>
-      </c>
-      <c r="D250" t="n">
-        <v>971</v>
-      </c>
-      <c r="E250" t="n">
-        <v>971</v>
-      </c>
-      <c r="F250" t="n">
-        <v>375</v>
-      </c>
-      <c r="G250" t="n">
-        <v>975.8866666666665</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>971</v>
-      </c>
-      <c r="C251" t="n">
-        <v>971</v>
-      </c>
-      <c r="D251" t="n">
-        <v>971</v>
-      </c>
-      <c r="E251" t="n">
-        <v>971</v>
-      </c>
-      <c r="F251" t="n">
-        <v>455.3978</v>
-      </c>
-      <c r="G251" t="n">
-        <v>975.5699999999998</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>970</v>
-      </c>
-      <c r="C252" t="n">
-        <v>971</v>
-      </c>
-      <c r="D252" t="n">
-        <v>971</v>
-      </c>
-      <c r="E252" t="n">
-        <v>970</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1262.685</v>
-      </c>
-      <c r="G252" t="n">
-        <v>975.3199999999998</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>971</v>
-      </c>
-      <c r="C253" t="n">
-        <v>971</v>
-      </c>
-      <c r="D253" t="n">
-        <v>971</v>
-      </c>
-      <c r="E253" t="n">
-        <v>971</v>
-      </c>
-      <c r="F253" t="n">
-        <v>78.49079999999999</v>
-      </c>
-      <c r="G253" t="n">
-        <v>975.0866666666665</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>971</v>
-      </c>
-      <c r="C254" t="n">
-        <v>971</v>
-      </c>
-      <c r="D254" t="n">
-        <v>971</v>
-      </c>
-      <c r="E254" t="n">
-        <v>971</v>
-      </c>
-      <c r="F254" t="n">
-        <v>39</v>
-      </c>
-      <c r="G254" t="n">
-        <v>974.8366666666665</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>971</v>
-      </c>
-      <c r="C255" t="n">
-        <v>971</v>
-      </c>
-      <c r="D255" t="n">
-        <v>971</v>
-      </c>
-      <c r="E255" t="n">
-        <v>971</v>
-      </c>
-      <c r="F255" t="n">
-        <v>265</v>
-      </c>
-      <c r="G255" t="n">
-        <v>974.5699999999998</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>970</v>
-      </c>
-      <c r="C256" t="n">
-        <v>971</v>
-      </c>
-      <c r="D256" t="n">
-        <v>971</v>
-      </c>
-      <c r="E256" t="n">
-        <v>970</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1084.7551</v>
-      </c>
-      <c r="G256" t="n">
-        <v>974.3699999999998</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="C257" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="D257" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="E257" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1260</v>
-      </c>
-      <c r="G257" t="n">
-        <v>974.2899999999997</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="C258" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="D258" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="E258" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="F258" t="n">
-        <v>1520</v>
-      </c>
-      <c r="G258" t="n">
-        <v>974.1749999999997</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-24 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N326"/>
+  <dimension ref="A1:M326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>1732.022299999998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>1523.711699999998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>600.4938999999981</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>2450.737399999998</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>2665.737399999998</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>11501.7381</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>16712.77277615</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4147,15 @@
         <v>16602.77277615</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4180,15 @@
         <v>16602.77277615</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4246,15 @@
         <v>16691.94607615</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>16746.97587615</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,15 @@
         <v>12563.52867615</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4345,15 @@
         <v>12608.58637615</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4378,15 @@
         <v>12608.58637615</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4411,15 @@
         <v>12608.58637615</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4444,15 @@
         <v>12608.58637615</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4477,15 @@
         <v>12677.19677615</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4510,15 @@
         <v>16986.58637615</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4543,15 @@
         <v>16986.58637615</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4576,15 @@
         <v>16992.15827615</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4609,15 @@
         <v>16989.15827615</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4642,15 @@
         <v>17204.33297615</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4741,15 @@
         <v>21878.39187615</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4774,15 @@
         <v>21974.39187615</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4807,15 @@
         <v>21952.39187615</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9000,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9033,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9066,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9099,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9132,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9165,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9198,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9231,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9264,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9297,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9330,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9363,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9396,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9429,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9462,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9495,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9528,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9561,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9594,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9627,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9660,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9693,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9726,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9759,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +9792,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +9825,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +9858,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +9891,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +9924,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +9957,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +9990,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10023,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10934,16 +10056,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10970,16 +10089,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11006,16 +10122,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11042,16 +10155,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11078,16 +10188,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11114,16 +10221,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11148,18 +10252,19 @@
         <v>4926.301674620016</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
+        <v>970</v>
+      </c>
+      <c r="J299" t="n">
+        <v>970</v>
+      </c>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11184,18 +10289,23 @@
         <v>5416.301674620016</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+        <v>969.1</v>
+      </c>
+      <c r="J300" t="n">
+        <v>970</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11220,18 +10330,23 @@
         <v>5416.301674620016</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+        <v>970</v>
+      </c>
+      <c r="J301" t="n">
+        <v>970</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11256,18 +10371,23 @@
         <v>-4856.688025379985</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+        <v>970</v>
+      </c>
+      <c r="J302" t="n">
+        <v>970</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11292,18 +10412,23 @@
         <v>-4856.688025379985</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+        <v>969.1</v>
+      </c>
+      <c r="J303" t="n">
+        <v>970</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11328,18 +10453,23 @@
         <v>-7084.357125379985</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+        <v>969.1</v>
+      </c>
+      <c r="J304" t="n">
+        <v>970</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11364,18 +10494,23 @@
         <v>-4516.319225379984</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+        <v>969</v>
+      </c>
+      <c r="J305" t="n">
+        <v>970</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11402,16 +10537,19 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>970</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11436,18 +10574,23 @@
         <v>-4366.319225379984</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+        <v>971</v>
+      </c>
+      <c r="J307" t="n">
+        <v>970</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11474,16 +10617,19 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>970</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11510,16 +10656,19 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>970</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11546,16 +10695,19 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>970</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11582,16 +10734,19 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>970</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11616,18 +10771,23 @@
         <v>-4366.319225379984</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+        <v>971</v>
+      </c>
+      <c r="J312" t="n">
+        <v>970</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11652,18 +10812,23 @@
         <v>-4366.319225379984</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+        <v>971</v>
+      </c>
+      <c r="J313" t="n">
+        <v>970</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11690,16 +10855,19 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>970</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11726,16 +10894,19 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>970</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11760,18 +10931,23 @@
         <v>-5626.319225379984</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+        <v>970.1</v>
+      </c>
+      <c r="J316" t="n">
+        <v>970</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11796,18 +10972,23 @@
         <v>-14968.74302537998</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+        <v>970.1</v>
+      </c>
+      <c r="J317" t="n">
+        <v>970</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11832,18 +11013,23 @@
         <v>-11209.20732537998</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+        <v>969</v>
+      </c>
+      <c r="J318" t="n">
+        <v>970</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11868,18 +11054,23 @@
         <v>-13632.20712537998</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+        <v>971</v>
+      </c>
+      <c r="J319" t="n">
+        <v>970</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11904,18 +11095,23 @@
         <v>-14844.55752537998</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+        <v>970</v>
+      </c>
+      <c r="J320" t="n">
+        <v>970</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11940,18 +11136,23 @@
         <v>-16897.30152537998</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+        <v>969</v>
+      </c>
+      <c r="J321" t="n">
+        <v>970</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11976,18 +11177,23 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+        <v>968</v>
+      </c>
+      <c r="J322" t="n">
+        <v>970</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12012,18 +11218,23 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+        <v>966</v>
+      </c>
+      <c r="J323" t="n">
+        <v>970</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12048,24 +11259,23 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
+        <v>966</v>
       </c>
       <c r="J324" t="n">
-        <v>966</v>
-      </c>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
+        <v>970</v>
+      </c>
+      <c r="K324" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12090,24 +11300,23 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
+        <v>966</v>
       </c>
       <c r="J325" t="n">
-        <v>966</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
+        <v>970</v>
+      </c>
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12132,26 +11341,25 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="n">
-        <v>0</v>
+        <v>966</v>
       </c>
       <c r="J326" t="n">
-        <v>966</v>
-      </c>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
+        <v>970</v>
+      </c>
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-24 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2695,7 +2695,7 @@
         <v>1732.022299999998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1523.711699999998</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>600.4938999999981</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>2450.737399999998</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>2665.737399999998</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>11501.7381</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>12911.7586</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>16802.5044</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>18126.2753</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>20443.736</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>17273.43787615</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>16712.77277615</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>16712.77277615</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>16602.77277615</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>16602.77277615</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>16701.77277615</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>16691.94607615</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>16746.97587615</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>12563.52867615</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>12677.19677615</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>16986.58637615</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>16986.58637615</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>16992.15827615</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>16989.15827615</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>17204.33297615</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>17204.33297615</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>21879.68157615</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>21878.39187615</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>21974.39187615</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>21952.39187615</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>21896.29187615</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>21896.29187615</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>24080.11457615</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>24083.11457615</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>23356.67067615</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>23004.86117615</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>22962.52947615</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>22778.62027615001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>22757.58647615001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>12154.87257615</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>15993.72307615</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>15633.61747615</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>15633.61747615</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>16833.61747615</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>16391.62147615001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>16448.32147615001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>15134.82147615001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>15134.82147615001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>15134.82147615001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>16914.24367615001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>18777.66547615001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>20141.66547615001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>18444.90027615001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>18359.56037615001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>18302.86037615001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>17490.61017615001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>16942.23617615001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>17954.07887615001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>14863.10197615001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>14317.18817615001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -10252,14 +10252,10 @@
         <v>4926.301674620016</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>970</v>
-      </c>
-      <c r="J299" t="n">
-        <v>970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
@@ -10289,19 +10285,11 @@
         <v>5416.301674620016</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="J300" t="n">
-        <v>970</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10330,380 +10318,318 @@
         <v>5416.301674620016</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="C302" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="D302" t="n">
         <v>970</v>
       </c>
-      <c r="J301" t="n">
+      <c r="E302" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="F302" t="n">
+        <v>10272.9897</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-4856.688025379985</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="C303" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="E303" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2060</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-4856.688025379985</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>969.2</v>
+      </c>
+      <c r="C304" t="n">
+        <v>969</v>
+      </c>
+      <c r="D304" t="n">
         <v>970</v>
       </c>
-      <c r="K301" t="inlineStr">
+      <c r="E304" t="n">
+        <v>968.2</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2227.6691</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-7084.357125379985</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>969</v>
+      </c>
+      <c r="C305" t="n">
+        <v>969.1</v>
+      </c>
+      <c r="D305" t="n">
+        <v>974</v>
+      </c>
+      <c r="E305" t="n">
+        <v>968.1</v>
+      </c>
+      <c r="F305" t="n">
+        <v>2568.0379</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-4516.319225379984</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>971</v>
+      </c>
+      <c r="C306" t="n">
+        <v>971</v>
+      </c>
+      <c r="D306" t="n">
+        <v>971</v>
+      </c>
+      <c r="E306" t="n">
+        <v>971</v>
+      </c>
+      <c r="F306" t="n">
+        <v>150</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-4366.319225379984</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>971</v>
+      </c>
+      <c r="C307" t="n">
+        <v>971</v>
+      </c>
+      <c r="D307" t="n">
+        <v>971</v>
+      </c>
+      <c r="E307" t="n">
+        <v>971</v>
+      </c>
+      <c r="F307" t="n">
+        <v>525</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-4366.319225379984</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>971</v>
+      </c>
+      <c r="C308" t="n">
+        <v>971</v>
+      </c>
+      <c r="D308" t="n">
+        <v>971</v>
+      </c>
+      <c r="E308" t="n">
+        <v>971</v>
+      </c>
+      <c r="F308" t="n">
+        <v>375</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-4366.319225379984</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>971</v>
+      </c>
+      <c r="C309" t="n">
+        <v>971</v>
+      </c>
+      <c r="D309" t="n">
+        <v>971</v>
+      </c>
+      <c r="E309" t="n">
+        <v>971</v>
+      </c>
+      <c r="F309" t="n">
+        <v>455.3978</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-4366.319225379984</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>971</v>
+      </c>
+      <c r="J309" t="n">
+        <v>971</v>
+      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>970</v>
+      </c>
+      <c r="C310" t="n">
+        <v>971</v>
+      </c>
+      <c r="D310" t="n">
+        <v>971</v>
+      </c>
+      <c r="E310" t="n">
+        <v>970</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1262.685</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-4366.319225379984</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>971</v>
+      </c>
+      <c r="K310" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="C302" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="D302" t="n">
-        <v>970</v>
-      </c>
-      <c r="E302" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="F302" t="n">
-        <v>10272.9897</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-4856.688025379985</v>
-      </c>
-      <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>970</v>
-      </c>
-      <c r="J302" t="n">
-        <v>970</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="C303" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="D303" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="E303" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="F303" t="n">
-        <v>2060</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-4856.688025379985</v>
-      </c>
-      <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="J303" t="n">
-        <v>970</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>969.2</v>
-      </c>
-      <c r="C304" t="n">
-        <v>969</v>
-      </c>
-      <c r="D304" t="n">
-        <v>970</v>
-      </c>
-      <c r="E304" t="n">
-        <v>968.2</v>
-      </c>
-      <c r="F304" t="n">
-        <v>2227.6691</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-7084.357125379985</v>
-      </c>
-      <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="J304" t="n">
-        <v>970</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>969</v>
-      </c>
-      <c r="C305" t="n">
-        <v>969.1</v>
-      </c>
-      <c r="D305" t="n">
-        <v>974</v>
-      </c>
-      <c r="E305" t="n">
-        <v>968.1</v>
-      </c>
-      <c r="F305" t="n">
-        <v>2568.0379</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-4516.319225379984</v>
-      </c>
-      <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>969</v>
-      </c>
-      <c r="J305" t="n">
-        <v>970</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>971</v>
-      </c>
-      <c r="C306" t="n">
-        <v>971</v>
-      </c>
-      <c r="D306" t="n">
-        <v>971</v>
-      </c>
-      <c r="E306" t="n">
-        <v>971</v>
-      </c>
-      <c r="F306" t="n">
-        <v>150</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>970</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>971</v>
-      </c>
-      <c r="C307" t="n">
-        <v>971</v>
-      </c>
-      <c r="D307" t="n">
-        <v>971</v>
-      </c>
-      <c r="E307" t="n">
-        <v>971</v>
-      </c>
-      <c r="F307" t="n">
-        <v>525</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>971</v>
-      </c>
-      <c r="J307" t="n">
-        <v>970</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>971</v>
-      </c>
-      <c r="C308" t="n">
-        <v>971</v>
-      </c>
-      <c r="D308" t="n">
-        <v>971</v>
-      </c>
-      <c r="E308" t="n">
-        <v>971</v>
-      </c>
-      <c r="F308" t="n">
-        <v>375</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>970</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>971</v>
-      </c>
-      <c r="C309" t="n">
-        <v>971</v>
-      </c>
-      <c r="D309" t="n">
-        <v>971</v>
-      </c>
-      <c r="E309" t="n">
-        <v>971</v>
-      </c>
-      <c r="F309" t="n">
-        <v>455.3978</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>970</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>970</v>
-      </c>
-      <c r="C310" t="n">
-        <v>971</v>
-      </c>
-      <c r="D310" t="n">
-        <v>971</v>
-      </c>
-      <c r="E310" t="n">
-        <v>970</v>
-      </c>
-      <c r="F310" t="n">
-        <v>1262.685</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>970</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10732,11 +10658,13 @@
         <v>-4366.319225379984</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>971</v>
+      </c>
       <c r="J311" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10771,13 +10699,13 @@
         <v>-4366.319225379984</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>971</v>
       </c>
       <c r="J312" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10812,13 +10740,13 @@
         <v>-4366.319225379984</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>971</v>
       </c>
       <c r="J313" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10857,7 +10785,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -10896,7 +10824,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -10931,13 +10859,11 @@
         <v>-5626.319225379984</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>970.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -10972,13 +10898,11 @@
         <v>-14968.74302537998</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>970.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11013,13 +10937,11 @@
         <v>-11209.20732537998</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11054,13 +10976,11 @@
         <v>-13632.20712537998</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
         <v>971</v>
-      </c>
-      <c r="J319" t="n">
-        <v>970</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11095,13 +11015,11 @@
         <v>-14844.55752537998</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11136,13 +11054,11 @@
         <v>-16897.30152537998</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11177,13 +11093,11 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11218,13 +11132,11 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11259,13 +11171,13 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>966</v>
       </c>
       <c r="J324" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11300,13 +11212,13 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>966</v>
       </c>
       <c r="J325" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11341,13 +11253,13 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>966</v>
       </c>
       <c r="J326" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11360,6 +11272,6 @@
       <c r="M326" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-24 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2629,7 +2629,7 @@
         <v>1744.647899999998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1744.647899999998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1732.022299999998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1523.711699999998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>600.4938999999981</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1610.737399999998</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>2450.737399999998</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>2665.737399999998</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>2665.737399999998</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>11554.6594</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>11501.7381</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>12911.7586</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>16802.5044</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>18126.2753</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>20443.736</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>17273.43787615</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>16712.77277615</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>16712.77277615</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>16602.77277615</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>16602.77277615</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>16701.77277615</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>16691.94607615</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>16746.97587615</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>12563.52867615</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>12677.19677615</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>16986.58637615</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>16986.58637615</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>16992.15827615</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>16989.15827615</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>17204.33297615</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>17204.33297615</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>21879.68157615</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>21878.39187615</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>21974.39187615</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>21952.39187615</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>21896.29187615</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>21896.29187615</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>24080.11457615</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>24083.11457615</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>23356.67067615</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>23004.86117615</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>22962.52947615</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>22778.62027615001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>22757.58647615001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>12154.87257615</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>15993.72307615</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>15633.61747615</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>15633.61747615</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>16833.61747615</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>16391.62147615001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>16448.32147615001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>15134.82147615001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>15134.82147615001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>15134.82147615001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>16914.24367615001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>18777.66547615001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>20141.66547615001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>18444.90027615001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>18359.56037615001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>18302.86037615001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>17490.61017615001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>16942.23617615001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>17954.07887615001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>14863.10197615001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>14317.18817615001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>9956.743174620013</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10582,14 +10582,10 @@
         <v>-4366.319225379984</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>971</v>
-      </c>
-      <c r="J309" t="n">
-        <v>971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
@@ -10622,410 +10618,344 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
         <v>971</v>
       </c>
-      <c r="K310" t="inlineStr">
+      <c r="C311" t="n">
+        <v>971</v>
+      </c>
+      <c r="D311" t="n">
+        <v>971</v>
+      </c>
+      <c r="E311" t="n">
+        <v>971</v>
+      </c>
+      <c r="F311" t="n">
+        <v>78.49079999999999</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-4366.319225379984</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>971</v>
+      </c>
+      <c r="C312" t="n">
+        <v>971</v>
+      </c>
+      <c r="D312" t="n">
+        <v>971</v>
+      </c>
+      <c r="E312" t="n">
+        <v>971</v>
+      </c>
+      <c r="F312" t="n">
+        <v>39</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-4366.319225379984</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>971</v>
+      </c>
+      <c r="C313" t="n">
+        <v>971</v>
+      </c>
+      <c r="D313" t="n">
+        <v>971</v>
+      </c>
+      <c r="E313" t="n">
+        <v>971</v>
+      </c>
+      <c r="F313" t="n">
+        <v>265</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-4366.319225379984</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>970</v>
+      </c>
+      <c r="C314" t="n">
+        <v>971</v>
+      </c>
+      <c r="D314" t="n">
+        <v>971</v>
+      </c>
+      <c r="E314" t="n">
+        <v>970</v>
+      </c>
+      <c r="F314" t="n">
+        <v>1084.7551</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-4366.319225379984</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="C315" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="E315" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1260</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-5626.319225379984</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="C316" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="E316" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1520</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-5626.319225379984</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>971</v>
+      </c>
+      <c r="C317" t="n">
+        <v>969</v>
+      </c>
+      <c r="D317" t="n">
+        <v>971</v>
+      </c>
+      <c r="E317" t="n">
+        <v>969</v>
+      </c>
+      <c r="F317" t="n">
+        <v>9342.4238</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-14968.74302537998</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>970</v>
+      </c>
+      <c r="C318" t="n">
+        <v>971</v>
+      </c>
+      <c r="D318" t="n">
+        <v>971</v>
+      </c>
+      <c r="E318" t="n">
+        <v>969</v>
+      </c>
+      <c r="F318" t="n">
+        <v>3759.5357</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-11209.20732537998</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>970</v>
+      </c>
+      <c r="C319" t="n">
+        <v>970</v>
+      </c>
+      <c r="D319" t="n">
+        <v>970</v>
+      </c>
+      <c r="E319" t="n">
+        <v>968</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2422.9998</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-13632.20712537998</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>969</v>
+      </c>
+      <c r="C320" t="n">
+        <v>969</v>
+      </c>
+      <c r="D320" t="n">
+        <v>971</v>
+      </c>
+      <c r="E320" t="n">
+        <v>969</v>
+      </c>
+      <c r="F320" t="n">
+        <v>1212.3504</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-14844.55752537998</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>970</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>971</v>
-      </c>
-      <c r="C311" t="n">
-        <v>971</v>
-      </c>
-      <c r="D311" t="n">
-        <v>971</v>
-      </c>
-      <c r="E311" t="n">
-        <v>971</v>
-      </c>
-      <c r="F311" t="n">
-        <v>78.49079999999999</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>971</v>
-      </c>
-      <c r="J311" t="n">
-        <v>971</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>971</v>
-      </c>
-      <c r="C312" t="n">
-        <v>971</v>
-      </c>
-      <c r="D312" t="n">
-        <v>971</v>
-      </c>
-      <c r="E312" t="n">
-        <v>971</v>
-      </c>
-      <c r="F312" t="n">
-        <v>39</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>971</v>
-      </c>
-      <c r="J312" t="n">
-        <v>971</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>971</v>
-      </c>
-      <c r="C313" t="n">
-        <v>971</v>
-      </c>
-      <c r="D313" t="n">
-        <v>971</v>
-      </c>
-      <c r="E313" t="n">
-        <v>971</v>
-      </c>
-      <c r="F313" t="n">
-        <v>265</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>971</v>
-      </c>
-      <c r="J313" t="n">
-        <v>971</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>970</v>
-      </c>
-      <c r="C314" t="n">
-        <v>971</v>
-      </c>
-      <c r="D314" t="n">
-        <v>971</v>
-      </c>
-      <c r="E314" t="n">
-        <v>970</v>
-      </c>
-      <c r="F314" t="n">
-        <v>1084.7551</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>971</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="C315" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="D315" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="E315" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="F315" t="n">
-        <v>1260</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-5626.319225379984</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>971</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="C316" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="D316" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="E316" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="F316" t="n">
-        <v>1520</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-5626.319225379984</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>971</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>971</v>
-      </c>
-      <c r="C317" t="n">
-        <v>969</v>
-      </c>
-      <c r="D317" t="n">
-        <v>971</v>
-      </c>
-      <c r="E317" t="n">
-        <v>969</v>
-      </c>
-      <c r="F317" t="n">
-        <v>9342.4238</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-14968.74302537998</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>971</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>970</v>
-      </c>
-      <c r="C318" t="n">
-        <v>971</v>
-      </c>
-      <c r="D318" t="n">
-        <v>971</v>
-      </c>
-      <c r="E318" t="n">
-        <v>969</v>
-      </c>
-      <c r="F318" t="n">
-        <v>3759.5357</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-11209.20732537998</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>971</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>970</v>
-      </c>
-      <c r="C319" t="n">
-        <v>970</v>
-      </c>
-      <c r="D319" t="n">
-        <v>970</v>
-      </c>
-      <c r="E319" t="n">
-        <v>968</v>
-      </c>
-      <c r="F319" t="n">
-        <v>2422.9998</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-13632.20712537998</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>971</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>969</v>
-      </c>
-      <c r="C320" t="n">
-        <v>969</v>
-      </c>
-      <c r="D320" t="n">
-        <v>971</v>
-      </c>
-      <c r="E320" t="n">
-        <v>969</v>
-      </c>
-      <c r="F320" t="n">
-        <v>1212.3504</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-14844.55752537998</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>971</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11054,12 +10984,12 @@
         <v>-16897.30152537998</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>971</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>969</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11093,12 +11023,12 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>971</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>968</v>
+      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11132,12 +11062,12 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>971</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>966</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11176,9 +11106,7 @@
       <c r="I324" t="n">
         <v>966</v>
       </c>
-      <c r="J324" t="n">
-        <v>971</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11217,9 +11145,7 @@
       <c r="I325" t="n">
         <v>966</v>
       </c>
-      <c r="J325" t="n">
-        <v>971</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11258,9 +11184,7 @@
       <c r="I326" t="n">
         <v>966</v>
       </c>
-      <c r="J326" t="n">
-        <v>971</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11272,6 +11196,6 @@
       <c r="M326" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-24 BackTest WAVES.xlsx
@@ -2629,7 +2629,7 @@
         <v>1744.647899999998</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1744.647899999998</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1732.022299999998</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1523.711699999998</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1600.493899999998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>600.4938999999981</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>831.2730999999981</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1396.273099999998</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1610.737399999998</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>2450.737399999998</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>2665.737399999998</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>2665.737399999998</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>11554.6594</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>11501.7381</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>17273.43787615</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>16712.77277615</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>16712.77277615</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>16602.77277615</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>16602.77277615</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>16746.97587615</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>12563.52867615</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>12608.58637615</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>16986.58637615</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>16992.15827615</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>16989.15827615</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>17204.33297615</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>21879.68157615</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>21878.39187615</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>21974.39187615</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>21952.39187615</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>21896.29187615</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>21896.29187615</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>9956.743174620013</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10945,17 +10945,11 @@
         <v>-14844.55752537998</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10984,17 +10978,11 @@
         <v>-16897.30152537998</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11023,17 +11011,11 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11062,17 +11044,11 @@
         <v>-18332.90692537998</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11109,7 +11085,7 @@
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L324" t="n">

--- a/BackTest/2020-01-24 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-24 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M326"/>
+  <dimension ref="A1:L326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>880</v>
       </c>
       <c r="G2" t="n">
-        <v>-1834.243300000002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>525</v>
       </c>
       <c r="G3" t="n">
-        <v>-1834.243300000002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1720</v>
       </c>
       <c r="G4" t="n">
-        <v>-1834.243300000002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1535</v>
       </c>
       <c r="G5" t="n">
-        <v>-1834.243300000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>5377.755</v>
       </c>
       <c r="G6" t="n">
-        <v>-1834.243300000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>9.0717</v>
       </c>
       <c r="G7" t="n">
-        <v>-1834.243300000002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>275</v>
       </c>
       <c r="G8" t="n">
-        <v>-1559.243300000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>360</v>
       </c>
       <c r="G9" t="n">
-        <v>-1559.243300000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1740</v>
       </c>
       <c r="G10" t="n">
-        <v>-1559.243300000002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4142.68</v>
       </c>
       <c r="G11" t="n">
-        <v>-1559.243300000002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4153.2449</v>
       </c>
       <c r="G12" t="n">
-        <v>-1559.243300000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>205.9016</v>
       </c>
       <c r="G13" t="n">
-        <v>-1559.243300000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1721.3826</v>
       </c>
       <c r="G14" t="n">
-        <v>162.139299999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>57.4858</v>
       </c>
       <c r="G15" t="n">
-        <v>162.139299999998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3646.2599</v>
       </c>
       <c r="G16" t="n">
-        <v>-3484.120600000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>276.7965</v>
       </c>
       <c r="G17" t="n">
-        <v>-3207.324100000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1609.9888</v>
       </c>
       <c r="G18" t="n">
-        <v>-4817.312900000003</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>0.55</v>
       </c>
       <c r="G19" t="n">
-        <v>-4816.762900000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>203.66598778</v>
       </c>
       <c r="G20" t="n">
-        <v>-4816.762900000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1013.0775</v>
       </c>
       <c r="G21" t="n">
-        <v>-5829.840400000003</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1492</v>
       </c>
       <c r="G22" t="n">
-        <v>-5829.840400000003</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>137.201</v>
       </c>
       <c r="G23" t="n">
-        <v>-5692.639400000003</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>480.4159</v>
       </c>
       <c r="G24" t="n">
-        <v>-5692.639400000003</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>33.4768</v>
       </c>
       <c r="G25" t="n">
-        <v>-5692.639400000003</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>271.7644</v>
       </c>
       <c r="G26" t="n">
-        <v>-5692.639400000003</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2418.7375</v>
       </c>
       <c r="G27" t="n">
-        <v>-5692.639400000003</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>536.5136</v>
       </c>
       <c r="G28" t="n">
-        <v>-5692.639400000003</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>90.4894</v>
       </c>
       <c r="G29" t="n">
-        <v>-5692.639400000003</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1110.5071</v>
       </c>
       <c r="G30" t="n">
-        <v>-5692.639400000003</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>5995.3085</v>
       </c>
       <c r="G31" t="n">
-        <v>-5692.639400000003</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2815.3341</v>
       </c>
       <c r="G32" t="n">
-        <v>-5692.639400000003</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>629.99</v>
       </c>
       <c r="G33" t="n">
-        <v>-6322.629400000003</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>630.0779</v>
       </c>
       <c r="G34" t="n">
-        <v>-5692.551500000002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>124.4129</v>
       </c>
       <c r="G35" t="n">
-        <v>-5692.551500000002</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>654.2080999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>-5692.551500000002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>959.6686999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-5692.551500000002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>3402.3831</v>
       </c>
       <c r="G38" t="n">
-        <v>-5692.551500000002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>205</v>
       </c>
       <c r="G39" t="n">
-        <v>-5692.551500000002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>59.8479</v>
       </c>
       <c r="G40" t="n">
-        <v>-5692.551500000002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>134.3372</v>
       </c>
       <c r="G41" t="n">
-        <v>-5692.551500000002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1769.1452</v>
       </c>
       <c r="G42" t="n">
-        <v>-5692.551500000002</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2215.8746</v>
       </c>
       <c r="G43" t="n">
-        <v>-5692.551500000002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1605.9916</v>
       </c>
       <c r="G44" t="n">
-        <v>-5692.551500000002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1096.257</v>
       </c>
       <c r="G45" t="n">
-        <v>-4596.294500000002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>561.4016</v>
       </c>
       <c r="G46" t="n">
-        <v>-4034.892900000002</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1759.62</v>
       </c>
       <c r="G47" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>320</v>
       </c>
       <c r="G48" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>2215</v>
       </c>
       <c r="G49" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1415</v>
       </c>
       <c r="G50" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>2435</v>
       </c>
       <c r="G51" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2465</v>
       </c>
       <c r="G52" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1940</v>
       </c>
       <c r="G53" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>2115</v>
       </c>
       <c r="G54" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2355</v>
       </c>
       <c r="G55" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>3130</v>
       </c>
       <c r="G56" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2000</v>
       </c>
       <c r="G57" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>661</v>
       </c>
       <c r="G58" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>485</v>
       </c>
       <c r="G59" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>2110</v>
       </c>
       <c r="G60" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>2135</v>
       </c>
       <c r="G61" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>2390</v>
       </c>
       <c r="G62" t="n">
-        <v>-2275.272900000002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>3150.5406</v>
       </c>
       <c r="G63" t="n">
-        <v>875.2676999999981</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>13.9069</v>
       </c>
       <c r="G64" t="n">
-        <v>861.3607999999981</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>880</v>
       </c>
       <c r="G65" t="n">
-        <v>1741.360799999998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>337.9885</v>
       </c>
       <c r="G66" t="n">
-        <v>1741.360799999998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>3.2871</v>
       </c>
       <c r="G67" t="n">
-        <v>1744.647899999998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>510.5478</v>
       </c>
       <c r="G68" t="n">
-        <v>1744.647899999998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1149.9159</v>
       </c>
       <c r="G69" t="n">
-        <v>1744.647899999998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>12.6256</v>
       </c>
       <c r="G70" t="n">
-        <v>1732.022299999998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>208.3106</v>
       </c>
       <c r="G71" t="n">
-        <v>1523.711699999998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>76.7822</v>
       </c>
       <c r="G72" t="n">
-        <v>1600.493899999998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>205</v>
       </c>
       <c r="G73" t="n">
-        <v>1600.493899999998</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>45.1035</v>
       </c>
       <c r="G74" t="n">
-        <v>1600.493899999998</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1000</v>
       </c>
       <c r="G75" t="n">
-        <v>600.4938999999981</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>230.7792</v>
       </c>
       <c r="G76" t="n">
-        <v>831.2730999999981</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>36.9375</v>
       </c>
       <c r="G77" t="n">
-        <v>831.2730999999981</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>305</v>
       </c>
       <c r="G78" t="n">
-        <v>831.2730999999981</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>565</v>
       </c>
       <c r="G79" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>945</v>
       </c>
       <c r="G80" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1745</v>
       </c>
       <c r="G81" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1033.555</v>
       </c>
       <c r="G82" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>405</v>
       </c>
       <c r="G83" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1075</v>
       </c>
       <c r="G84" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>980</v>
       </c>
       <c r="G85" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1262.9188</v>
       </c>
       <c r="G86" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>735</v>
       </c>
       <c r="G87" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1170</v>
       </c>
       <c r="G88" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>83.6357</v>
       </c>
       <c r="G89" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>302.0098</v>
       </c>
       <c r="G90" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>2094.9879</v>
       </c>
       <c r="G91" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>734.0202</v>
       </c>
       <c r="G92" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1704.5054</v>
       </c>
       <c r="G93" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>980</v>
       </c>
       <c r="G94" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1352.4826</v>
       </c>
       <c r="G95" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>1086.755</v>
       </c>
       <c r="G96" t="n">
-        <v>1396.273099999998</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>214.4643</v>
       </c>
       <c r="G97" t="n">
-        <v>1610.737399999998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>840</v>
       </c>
       <c r="G98" t="n">
-        <v>2450.737399999998</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>215</v>
       </c>
       <c r="G99" t="n">
-        <v>2665.737399999998</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1.063</v>
       </c>
       <c r="G100" t="n">
-        <v>2665.737399999998</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>8888.922</v>
       </c>
       <c r="G101" t="n">
-        <v>11554.6594</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>52.9213</v>
       </c>
       <c r="G102" t="n">
-        <v>11501.7381</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>15.9632</v>
       </c>
       <c r="G103" t="n">
-        <v>11517.7013</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>5.3197</v>
       </c>
       <c r="G104" t="n">
-        <v>11517.7013</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1436.0931</v>
       </c>
       <c r="G105" t="n">
-        <v>12953.7944</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>1272.35</v>
       </c>
       <c r="G106" t="n">
-        <v>11681.4444</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1230.3142</v>
       </c>
       <c r="G107" t="n">
-        <v>12911.7586</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>3890.7458</v>
       </c>
       <c r="G108" t="n">
-        <v>16802.5044</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>1323.7709</v>
       </c>
       <c r="G109" t="n">
-        <v>18126.2753</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>2317.4607</v>
       </c>
       <c r="G110" t="n">
-        <v>20443.736</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>3170.29812385</v>
       </c>
       <c r="G111" t="n">
-        <v>17273.43787615</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>560.6651000000001</v>
       </c>
       <c r="G112" t="n">
-        <v>16712.77277615</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>0.0001</v>
       </c>
       <c r="G113" t="n">
-        <v>16712.77277615</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>110</v>
       </c>
       <c r="G114" t="n">
-        <v>16602.77277615</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>127.0772</v>
       </c>
       <c r="G115" t="n">
-        <v>16602.77277615</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>99</v>
       </c>
       <c r="G116" t="n">
-        <v>16701.77277615</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>9.826700000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>16691.94607615</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>55.0298</v>
       </c>
       <c r="G118" t="n">
-        <v>16746.97587615</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>4183.4472</v>
       </c>
       <c r="G119" t="n">
-        <v>12563.52867615</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>45.0577</v>
       </c>
       <c r="G120" t="n">
-        <v>12608.58637615</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>1.7407</v>
       </c>
       <c r="G121" t="n">
-        <v>12608.58637615</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>501.2606</v>
       </c>
       <c r="G122" t="n">
-        <v>12608.58637615</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>268.7537</v>
       </c>
       <c r="G123" t="n">
-        <v>12608.58637615</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>68.6104</v>
       </c>
       <c r="G124" t="n">
-        <v>12677.19677615</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>4309.3896</v>
       </c>
       <c r="G125" t="n">
-        <v>16986.58637615</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>1162.7402</v>
       </c>
       <c r="G126" t="n">
-        <v>16986.58637615</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>5.5719</v>
       </c>
       <c r="G127" t="n">
-        <v>16992.15827615</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>16989.15827615</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>215.1747</v>
       </c>
       <c r="G129" t="n">
-        <v>17204.33297615</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>498.3158</v>
       </c>
       <c r="G130" t="n">
-        <v>17204.33297615</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>4675.3486</v>
       </c>
       <c r="G131" t="n">
-        <v>21879.68157615</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>1.2897</v>
       </c>
       <c r="G132" t="n">
-        <v>21878.39187615</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>96</v>
       </c>
       <c r="G133" t="n">
-        <v>21974.39187615</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>22</v>
       </c>
       <c r="G134" t="n">
-        <v>21952.39187615</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>56.1</v>
       </c>
       <c r="G135" t="n">
-        <v>21896.29187615</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>93.3122</v>
       </c>
       <c r="G136" t="n">
-        <v>21896.29187615</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>2183.8227</v>
       </c>
       <c r="G137" t="n">
-        <v>24080.11457615</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>3</v>
       </c>
       <c r="G138" t="n">
-        <v>24083.11457615</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>726.4439</v>
       </c>
       <c r="G139" t="n">
-        <v>23356.67067615</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>351.8095</v>
       </c>
       <c r="G140" t="n">
-        <v>23004.86117615</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>1077.6575</v>
       </c>
       <c r="G141" t="n">
-        <v>23004.86117615</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>100</v>
       </c>
       <c r="G142" t="n">
-        <v>23104.86117615</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>142.3317</v>
       </c>
       <c r="G143" t="n">
-        <v>22962.52947615</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>183.9092</v>
       </c>
       <c r="G144" t="n">
-        <v>22778.62027615001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>21.0338</v>
       </c>
       <c r="G145" t="n">
-        <v>22757.58647615001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>10602.7139</v>
       </c>
       <c r="G146" t="n">
-        <v>12154.87257615</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>3838.8505</v>
       </c>
       <c r="G147" t="n">
-        <v>15993.72307615</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>360.1056</v>
       </c>
       <c r="G148" t="n">
-        <v>15633.61747615</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>3549.396</v>
       </c>
       <c r="G149" t="n">
-        <v>15633.61747615</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>1200</v>
       </c>
       <c r="G150" t="n">
-        <v>16833.61747615</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>441.996</v>
       </c>
       <c r="G151" t="n">
-        <v>16391.62147615001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>56.7</v>
       </c>
       <c r="G152" t="n">
-        <v>16448.32147615001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>1313.5</v>
       </c>
       <c r="G153" t="n">
-        <v>15134.82147615001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>894.8468</v>
       </c>
       <c r="G154" t="n">
-        <v>15134.82147615001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>100</v>
       </c>
       <c r="G155" t="n">
-        <v>15134.82147615001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>1779.4222</v>
       </c>
       <c r="G156" t="n">
-        <v>16914.24367615001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>1863.4218</v>
       </c>
       <c r="G157" t="n">
-        <v>18777.66547615001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>1364</v>
       </c>
       <c r="G158" t="n">
-        <v>20141.66547615001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>1696.7652</v>
       </c>
       <c r="G159" t="n">
-        <v>18444.90027615001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>85.3399</v>
       </c>
       <c r="G160" t="n">
-        <v>18359.56037615001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>56.7</v>
       </c>
       <c r="G161" t="n">
-        <v>18302.86037615001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>812.2501999999999</v>
       </c>
       <c r="G162" t="n">
-        <v>17490.61017615001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>159.2685</v>
       </c>
       <c r="G163" t="n">
-        <v>17331.34167615001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>183.8945</v>
       </c>
       <c r="G164" t="n">
-        <v>17515.23617615001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>573</v>
       </c>
       <c r="G165" t="n">
-        <v>16942.23617615001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>576</v>
       </c>
       <c r="G166" t="n">
-        <v>16942.23617615001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>1010.4357</v>
       </c>
       <c r="G167" t="n">
-        <v>17952.67187615001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>1.407</v>
       </c>
       <c r="G168" t="n">
-        <v>17954.07887615001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>3090.9769</v>
       </c>
       <c r="G169" t="n">
-        <v>14863.10197615001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>2046.1826</v>
       </c>
       <c r="G170" t="n">
-        <v>14863.10197615001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>5967.17</v>
       </c>
       <c r="G171" t="n">
-        <v>14863.10197615001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>8</v>
       </c>
       <c r="G172" t="n">
-        <v>14855.10197615001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>537.9138</v>
       </c>
       <c r="G173" t="n">
-        <v>14317.18817615001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>416.2086</v>
       </c>
       <c r="G174" t="n">
-        <v>13900.97957615001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>102.9866</v>
       </c>
       <c r="G175" t="n">
-        <v>13797.99297615001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>311</v>
       </c>
       <c r="G176" t="n">
-        <v>13797.99297615001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>555</v>
       </c>
       <c r="G177" t="n">
-        <v>13797.99297615001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>360</v>
       </c>
       <c r="G178" t="n">
-        <v>13797.99297615001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>36</v>
       </c>
       <c r="G179" t="n">
-        <v>13797.99297615001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>159.5673</v>
       </c>
       <c r="G180" t="n">
-        <v>13797.99297615001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>149.8949</v>
       </c>
       <c r="G181" t="n">
-        <v>13797.99297615001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>551.2807</v>
       </c>
       <c r="G182" t="n">
-        <v>13797.99297615001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>48.7899</v>
       </c>
       <c r="G183" t="n">
-        <v>13797.99297615001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>180</v>
       </c>
       <c r="G184" t="n">
-        <v>13797.99297615001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>149.8949</v>
       </c>
       <c r="G185" t="n">
-        <v>13797.99297615001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>1209.7542</v>
       </c>
       <c r="G186" t="n">
-        <v>15007.74717615001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>11</v>
       </c>
       <c r="G187" t="n">
-        <v>15018.74717615001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>1.25989847</v>
       </c>
       <c r="G188" t="n">
-        <v>15020.00707462001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>31.4083</v>
       </c>
       <c r="G189" t="n">
-        <v>15020.00707462001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>454.6541</v>
       </c>
       <c r="G190" t="n">
-        <v>15474.66117462001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>90.21899999999999</v>
       </c>
       <c r="G191" t="n">
-        <v>15564.88017462001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>2115.4115</v>
       </c>
       <c r="G192" t="n">
-        <v>13449.46867462001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>2117.4236</v>
       </c>
       <c r="G193" t="n">
-        <v>13449.46867462001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>760.4939000000001</v>
       </c>
       <c r="G194" t="n">
-        <v>14209.96257462001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>2.0001</v>
       </c>
       <c r="G195" t="n">
-        <v>14207.96247462001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>10.5664</v>
       </c>
       <c r="G196" t="n">
-        <v>14197.39607462001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>20</v>
       </c>
       <c r="G197" t="n">
-        <v>14217.39607462001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>14217.39607462001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>97.3207</v>
       </c>
       <c r="G199" t="n">
-        <v>14120.07537462001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>377.2719</v>
       </c>
       <c r="G200" t="n">
-        <v>14497.34727462001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>2225.8827</v>
       </c>
       <c r="G201" t="n">
-        <v>16723.22997462001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>10</v>
       </c>
       <c r="G202" t="n">
-        <v>16733.22997462001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>229.1409</v>
       </c>
       <c r="G203" t="n">
-        <v>16504.08907462001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>594.3040999999999</v>
       </c>
       <c r="G204" t="n">
-        <v>16504.08907462001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>1081.02588527</v>
       </c>
       <c r="G205" t="n">
-        <v>16504.08907462001</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>225.3498</v>
       </c>
       <c r="G206" t="n">
-        <v>16278.73927462001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>134.2999</v>
       </c>
       <c r="G207" t="n">
-        <v>16278.73927462001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>224.6452</v>
       </c>
       <c r="G208" t="n">
-        <v>16278.73927462001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>270</v>
       </c>
       <c r="G209" t="n">
-        <v>16008.73927462001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>56.7999</v>
       </c>
       <c r="G210" t="n">
-        <v>16065.53917462001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>301.7762</v>
       </c>
       <c r="G211" t="n">
-        <v>16065.53917462001</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>251.5855</v>
       </c>
       <c r="G212" t="n">
-        <v>15813.95367462001</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>713.5</v>
       </c>
       <c r="G213" t="n">
-        <v>16527.45367462001</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>210</v>
       </c>
       <c r="G214" t="n">
-        <v>16317.45367462001</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>273.9021</v>
       </c>
       <c r="G215" t="n">
-        <v>16591.35577462001</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>310.3928</v>
       </c>
       <c r="G216" t="n">
-        <v>16591.35577462001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>149.8949</v>
       </c>
       <c r="G217" t="n">
-        <v>16591.35577462001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>238.9995</v>
       </c>
       <c r="G218" t="n">
-        <v>16591.35577462001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>149.8949</v>
       </c>
       <c r="G219" t="n">
-        <v>16591.35577462001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>149.8949</v>
       </c>
       <c r="G220" t="n">
-        <v>16591.35577462001</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>350</v>
       </c>
       <c r="G221" t="n">
-        <v>16941.35577462001</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>51.3857</v>
       </c>
       <c r="G222" t="n">
-        <v>16889.97007462001</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>1036.9764</v>
       </c>
       <c r="G223" t="n">
-        <v>15852.99367462001</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>250</v>
       </c>
       <c r="G224" t="n">
-        <v>16102.99367462001</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>705</v>
       </c>
       <c r="G225" t="n">
-        <v>16807.99367462001</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>878.0089</v>
       </c>
       <c r="G226" t="n">
-        <v>16807.99367462001</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>10.2577</v>
       </c>
       <c r="G227" t="n">
-        <v>16797.73597462001</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>1936.2225</v>
       </c>
       <c r="G228" t="n">
-        <v>16797.73597462001</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>337.9516</v>
       </c>
       <c r="G229" t="n">
-        <v>16797.73597462001</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>2212.72</v>
       </c>
       <c r="G230" t="n">
-        <v>14585.01597462001</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>1931.0256</v>
       </c>
       <c r="G231" t="n">
-        <v>14585.01597462001</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>1015.0047</v>
       </c>
       <c r="G232" t="n">
-        <v>15600.02067462001</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>725.4074000000001</v>
       </c>
       <c r="G233" t="n">
-        <v>15600.02067462001</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>0.0001</v>
       </c>
       <c r="G234" t="n">
-        <v>15600.02077462001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>29.9999</v>
       </c>
       <c r="G235" t="n">
-        <v>15600.02077462001</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>235.521</v>
       </c>
       <c r="G236" t="n">
-        <v>15364.49977462001</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>56.5855</v>
       </c>
       <c r="G237" t="n">
-        <v>15421.08527462001</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>75.2</v>
       </c>
       <c r="G238" t="n">
-        <v>15496.28527462001</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>43.3</v>
       </c>
       <c r="G239" t="n">
-        <v>15452.98527462001</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>369.4113</v>
       </c>
       <c r="G240" t="n">
-        <v>15083.57397462001</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>11</v>
       </c>
       <c r="G241" t="n">
-        <v>15094.57397462001</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>1627.2444</v>
       </c>
       <c r="G242" t="n">
-        <v>13467.32957462001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>515.9147</v>
       </c>
       <c r="G243" t="n">
-        <v>13983.24427462001</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>53</v>
       </c>
       <c r="G244" t="n">
-        <v>14036.24427462001</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>189.8852</v>
       </c>
       <c r="G245" t="n">
-        <v>14226.12947462001</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>1998.6616</v>
       </c>
       <c r="G246" t="n">
-        <v>12227.46787462001</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>1521.2517</v>
       </c>
       <c r="G247" t="n">
-        <v>13748.71957462001</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>83.99509999999999</v>
       </c>
       <c r="G248" t="n">
-        <v>13832.71467462001</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>304.0473</v>
       </c>
       <c r="G249" t="n">
-        <v>13528.66737462001</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>1295.2411</v>
       </c>
       <c r="G250" t="n">
-        <v>12233.42627462001</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>94.0515</v>
       </c>
       <c r="G251" t="n">
-        <v>12139.37477462002</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>299.6071</v>
       </c>
       <c r="G252" t="n">
-        <v>12438.98187462001</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>534.9586</v>
       </c>
       <c r="G253" t="n">
-        <v>12973.94047462001</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>1186.6112</v>
       </c>
       <c r="G254" t="n">
-        <v>11787.32927462001</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>4675.3486</v>
       </c>
       <c r="G255" t="n">
-        <v>7111.980674620015</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>1495.092</v>
       </c>
       <c r="G256" t="n">
-        <v>8607.072674620014</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>7.7098</v>
       </c>
       <c r="G257" t="n">
-        <v>8607.072674620014</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>4233.3197</v>
       </c>
       <c r="G258" t="n">
-        <v>4373.752974620014</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>3231.0885</v>
       </c>
       <c r="G259" t="n">
-        <v>7604.841474620014</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>1700.3399</v>
       </c>
       <c r="G260" t="n">
-        <v>9305.181374620013</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>2109.0198</v>
       </c>
       <c r="G261" t="n">
-        <v>11414.20117462001</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>1457.458</v>
       </c>
       <c r="G262" t="n">
-        <v>9956.743174620013</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>2571.7923</v>
       </c>
       <c r="G263" t="n">
-        <v>12528.53547462001</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>1589.0973</v>
       </c>
       <c r="G264" t="n">
-        <v>10939.43817462001</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>1833.9999</v>
       </c>
       <c r="G265" t="n">
-        <v>9105.438274620014</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>1301.6192</v>
       </c>
       <c r="G266" t="n">
-        <v>9105.438274620014</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,15 @@
         <v>186.6938</v>
       </c>
       <c r="G267" t="n">
-        <v>9105.438274620014</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8423,15 @@
         <v>111.9319</v>
       </c>
       <c r="G268" t="n">
-        <v>9105.438274620014</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8453,15 @@
         <v>695.2812</v>
       </c>
       <c r="G269" t="n">
-        <v>9105.438274620014</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8483,15 @@
         <v>4087</v>
       </c>
       <c r="G270" t="n">
-        <v>5018.438274620014</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8513,15 @@
         <v>4446</v>
       </c>
       <c r="G271" t="n">
-        <v>9464.438274620014</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8543,15 @@
         <v>1612.8485</v>
       </c>
       <c r="G272" t="n">
-        <v>7851.589774620013</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8573,15 @@
         <v>1655</v>
       </c>
       <c r="G273" t="n">
-        <v>7851.589774620013</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8603,15 @@
         <v>22</v>
       </c>
       <c r="G274" t="n">
-        <v>7851.589774620013</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8633,15 @@
         <v>751.0472</v>
       </c>
       <c r="G275" t="n">
-        <v>7100.542574620014</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8663,15 @@
         <v>3882.8352</v>
       </c>
       <c r="G276" t="n">
-        <v>10983.37777462001</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8693,15 @@
         <v>1866</v>
       </c>
       <c r="G277" t="n">
-        <v>9117.377774620014</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8723,15 @@
         <v>2421</v>
       </c>
       <c r="G278" t="n">
-        <v>9117.377774620014</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8753,15 @@
         <v>3689</v>
       </c>
       <c r="G279" t="n">
-        <v>12806.37777462001</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8783,15 @@
         <v>2591.8718</v>
       </c>
       <c r="G280" t="n">
-        <v>10214.50597462001</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8813,15 @@
         <v>2120</v>
       </c>
       <c r="G281" t="n">
-        <v>12334.50597462001</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8843,15 @@
         <v>2334</v>
       </c>
       <c r="G282" t="n">
-        <v>12334.50597462001</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8873,15 @@
         <v>401</v>
       </c>
       <c r="G283" t="n">
-        <v>11933.50597462001</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8903,15 @@
         <v>1675</v>
       </c>
       <c r="G284" t="n">
-        <v>13608.50597462001</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8933,15 @@
         <v>1769.451</v>
       </c>
       <c r="G285" t="n">
-        <v>13608.50597462001</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8963,15 @@
         <v>930</v>
       </c>
       <c r="G286" t="n">
-        <v>13608.50597462001</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +8993,15 @@
         <v>375</v>
       </c>
       <c r="G287" t="n">
-        <v>13608.50597462001</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9023,15 @@
         <v>4388.9243</v>
       </c>
       <c r="G288" t="n">
-        <v>9219.581674620014</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9053,15 @@
         <v>1669.0688</v>
       </c>
       <c r="G289" t="n">
-        <v>7550.512874620014</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9083,15 @@
         <v>1758.3996</v>
       </c>
       <c r="G290" t="n">
-        <v>5792.113274620015</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9113,15 @@
         <v>1817.8354</v>
       </c>
       <c r="G291" t="n">
-        <v>3974.277874620015</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9143,15 @@
         <v>2560.1931</v>
       </c>
       <c r="G292" t="n">
-        <v>6534.470974620015</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9173,15 @@
         <v>2774.1695</v>
       </c>
       <c r="G293" t="n">
-        <v>3760.301474620015</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9203,15 @@
         <v>1167.9999</v>
       </c>
       <c r="G294" t="n">
-        <v>2592.301574620015</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9233,15 @@
         <v>2629.0001</v>
       </c>
       <c r="G295" t="n">
-        <v>5221.301674620016</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9263,15 @@
         <v>875.4041</v>
       </c>
       <c r="G296" t="n">
-        <v>5221.301674620016</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9293,15 @@
         <v>997.1909000000001</v>
       </c>
       <c r="G297" t="n">
-        <v>5221.301674620016</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9323,15 @@
         <v>43.0379</v>
       </c>
       <c r="G298" t="n">
-        <v>5221.301674620016</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9353,15 @@
         <v>295</v>
       </c>
       <c r="G299" t="n">
-        <v>4926.301674620016</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9383,15 @@
         <v>490</v>
       </c>
       <c r="G300" t="n">
-        <v>5416.301674620016</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9413,15 @@
         <v>2248</v>
       </c>
       <c r="G301" t="n">
-        <v>5416.301674620016</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9443,15 @@
         <v>10272.9897</v>
       </c>
       <c r="G302" t="n">
-        <v>-4856.688025379985</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9473,15 @@
         <v>2060</v>
       </c>
       <c r="G303" t="n">
-        <v>-4856.688025379985</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9503,15 @@
         <v>2227.6691</v>
       </c>
       <c r="G304" t="n">
-        <v>-7084.357125379985</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9533,15 @@
         <v>2568.0379</v>
       </c>
       <c r="G305" t="n">
-        <v>-4516.319225379984</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9563,15 @@
         <v>150</v>
       </c>
       <c r="G306" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9593,15 @@
         <v>525</v>
       </c>
       <c r="G307" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9623,15 @@
         <v>375</v>
       </c>
       <c r="G308" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9653,15 @@
         <v>455.3978</v>
       </c>
       <c r="G309" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9683,15 @@
         <v>1262.685</v>
       </c>
       <c r="G310" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9713,15 @@
         <v>78.49079999999999</v>
       </c>
       <c r="G311" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9743,15 @@
         <v>39</v>
       </c>
       <c r="G312" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9773,15 @@
         <v>265</v>
       </c>
       <c r="G313" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9803,15 @@
         <v>1084.7551</v>
       </c>
       <c r="G314" t="n">
-        <v>-4366.319225379984</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +9833,15 @@
         <v>1260</v>
       </c>
       <c r="G315" t="n">
-        <v>-5626.319225379984</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +9863,15 @@
         <v>1520</v>
       </c>
       <c r="G316" t="n">
-        <v>-5626.319225379984</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +9893,15 @@
         <v>9342.4238</v>
       </c>
       <c r="G317" t="n">
-        <v>-14968.74302537998</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +9923,15 @@
         <v>3759.5357</v>
       </c>
       <c r="G318" t="n">
-        <v>-11209.20732537998</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +9953,15 @@
         <v>2422.9998</v>
       </c>
       <c r="G319" t="n">
-        <v>-13632.20712537998</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +9983,15 @@
         <v>1212.3504</v>
       </c>
       <c r="G320" t="n">
-        <v>-14844.55752537998</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10013,15 @@
         <v>2052.744</v>
       </c>
       <c r="G321" t="n">
-        <v>-16897.30152537998</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10043,15 @@
         <v>1435.6054</v>
       </c>
       <c r="G322" t="n">
-        <v>-18332.90692537998</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10073,15 @@
         <v>1750</v>
       </c>
       <c r="G323" t="n">
-        <v>-18332.90692537998</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,24 +10103,21 @@
         <v>1524</v>
       </c>
       <c r="G324" t="n">
-        <v>-18332.90692537998</v>
+        <v>1</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
         <v>966</v>
       </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11113,24 +10139,21 @@
         <v>225</v>
       </c>
       <c r="G325" t="n">
-        <v>-18332.90692537998</v>
+        <v>1</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
         <v>966</v>
       </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11152,24 +10175,21 @@
         <v>4592.5535</v>
       </c>
       <c r="G326" t="n">
-        <v>-18332.90692537998</v>
+        <v>1</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
         <v>966</v>
       </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
